--- a/market_filtered.xlsx
+++ b/market_filtered.xlsx
@@ -1133,13 +1133,13 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>63.5</v>
+        <v>63.3</v>
       </c>
       <c r="M2" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>2.5</v>
@@ -1200,7 +1200,7 @@
         <v>84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>169.18</v>
+        <v>170.3</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="AM2" t="n">
-        <v>72.5</v>
+        <v>71.8</v>
       </c>
       <c r="AN2" t="n">
         <v>16.49</v>
@@ -1269,19 +1269,19 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="BJ2" t="n">
-        <v>48.78</v>
+        <v>47.67</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.17</v>
+        <v>3.4</v>
       </c>
       <c r="BM2" t="n">
-        <v>48.78</v>
+        <v>47.67</v>
       </c>
       <c r="BN2" t="n">
-        <v>74.87</v>
+        <v>73.58</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1307,16 +1307,16 @@
         <v>116.3</v>
       </c>
       <c r="BY2" t="n">
-        <v>-2.9</v>
+        <v>-3.6</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-17.9</v>
+        <v>-18.5</v>
       </c>
       <c r="CA2" t="n">
-        <v>121.3</v>
+        <v>119.7</v>
       </c>
       <c r="CB2" t="n">
-        <v>140.3</v>
+        <v>138.6</v>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>4.17</v>
+        <v>3.4</v>
       </c>
       <c r="CF2" t="n">
-        <v>8895.1</v>
+        <v>8889.299999999999</v>
       </c>
       <c r="CG2" t="n">
-        <v>9632.6</v>
+        <v>9629.700000000001</v>
       </c>
       <c r="CH2" t="n">
-        <v>11591.1</v>
+        <v>11589.6</v>
       </c>
       <c r="CI2" t="n">
-        <v>6632.9</v>
+        <v>6632.3</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1381,16 +1381,16 @@
         <v>1406</v>
       </c>
       <c r="DA2" t="n">
-        <v>64.3</v>
+        <v>63.1</v>
       </c>
       <c r="DB2" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="DC2" t="n">
-        <v>32.4</v>
+        <v>31.4</v>
       </c>
       <c r="DD2" t="n">
-        <v>51.5</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="3">
@@ -2044,7 +2044,7 @@
         <v>79.40000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="N5" t="n">
         <v>1.8</v>
@@ -2230,7 +2230,7 @@
         <v>-3.21</v>
       </c>
       <c r="CF5" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="CG5" t="n">
         <v>65.3</v>
@@ -2334,13 +2334,13 @@
         <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>42.7</v>
+        <v>35.8</v>
       </c>
       <c r="M6" t="n">
-        <v>77.7</v>
+        <v>60.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
         <v>0.6</v>
@@ -2405,7 +2405,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.44</v>
+        <v>6.76</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>134.8</v>
+        <v>134.6</v>
       </c>
       <c r="AM6" t="n">
-        <v>31.4</v>
+        <v>30.9</v>
       </c>
       <c r="AN6" t="n">
         <v>84.93000000000001</v>
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="AW6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY6" t="n">
         <v>0.3</v>
@@ -2471,22 +2471,22 @@
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>-4.06</v>
+        <v>-4.2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-5.47</v>
+        <v>-5.61</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.88</v>
+        <v>-1.03</v>
       </c>
       <c r="BM6" t="n">
-        <v>-5.47</v>
+        <v>-5.61</v>
       </c>
       <c r="BN6" t="n">
-        <v>44.71</v>
+        <v>44.5</v>
       </c>
       <c r="BO6" t="n">
-        <v>302.24</v>
+        <v>301.65</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
         <v>51.1</v>
       </c>
       <c r="BY6" t="n">
-        <v>-10.7</v>
+        <v>-10.9</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="CA6" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="CB6" t="n">
-        <v>9067.700000000001</v>
+        <v>9054.1</v>
       </c>
       <c r="CC6" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
         </is>
       </c>
       <c r="CE6" t="n">
-        <v>-0.88</v>
+        <v>-1.03</v>
       </c>
       <c r="CF6" t="n">
-        <v>190.3</v>
+        <v>190.8</v>
       </c>
       <c r="CG6" t="n">
-        <v>165.8</v>
+        <v>166</v>
       </c>
       <c r="CH6" t="n">
-        <v>146.6</v>
+        <v>146.7</v>
       </c>
       <c r="CI6" t="n">
         <v>153.4</v>
@@ -2592,16 +2592,16 @@
         <v>13894</v>
       </c>
       <c r="DA6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="DB6" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="DC6" t="n">
-        <v>-4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="DD6" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="7">
@@ -3548,13 +3548,13 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>60.6</v>
+        <v>59.6</v>
       </c>
       <c r="M10" t="n">
-        <v>37.1</v>
+        <v>67.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -3610,7 +3610,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="n">
-        <v>333.84</v>
+        <v>346.42</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3618,10 +3618,10 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>50.4</v>
+        <v>50.1</v>
       </c>
       <c r="AM10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN10" t="n">
         <v>26.83</v>
@@ -3657,7 +3657,7 @@
         <v>0.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AY10" t="n">
         <v>0.5</v>
@@ -3676,22 +3676,22 @@
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>5</v>
+        <v>4.38</v>
       </c>
       <c r="BJ10" t="n">
-        <v>11.88</v>
+        <v>11.21</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="BM10" t="n">
-        <v>11.88</v>
+        <v>11.21</v>
       </c>
       <c r="BN10" t="n">
-        <v>54.36</v>
+        <v>53.45</v>
       </c>
       <c r="BO10" t="n">
-        <v>224.18</v>
+        <v>222.25</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -3717,16 +3717,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="CA10" t="n">
-        <v>54.6</v>
+        <v>53.7</v>
       </c>
       <c r="CB10" t="n">
-        <v>830.6</v>
+        <v>825</v>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
@@ -3734,19 +3734,19 @@
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="CF10" t="n">
-        <v>11738.4</v>
+        <v>11744.7</v>
       </c>
       <c r="CG10" t="n">
-        <v>12117.1</v>
+        <v>12120.3</v>
       </c>
       <c r="CH10" t="n">
-        <v>12929.4</v>
+        <v>12931</v>
       </c>
       <c r="CI10" t="n">
-        <v>9817.4</v>
+        <v>9818</v>
       </c>
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
@@ -3791,16 +3791,16 @@
         <v>5608</v>
       </c>
       <c r="DA10" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="DB10" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="DC10" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="DD10" t="n">
-        <v>21.6</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="11">
@@ -3844,13 +3844,13 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>43.8</v>
+        <v>41.7</v>
       </c>
       <c r="M11" t="n">
-        <v>31</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -3915,7 +3915,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40.85</v>
+        <v>43.89</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3923,10 +3923,10 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>26.35</v>
+        <v>26.15</v>
       </c>
       <c r="AM11" t="n">
-        <v>51.1</v>
+        <v>49.5</v>
       </c>
       <c r="AN11" t="n">
         <v>2.5</v>
@@ -3957,13 +3957,13 @@
         <v>0.9</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AY11" t="n">
         <v>0.6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>-3.48</v>
+        <v>-4.21</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.54</v>
+        <v>2.75</v>
       </c>
       <c r="BL11" t="n">
-        <v>-3.3</v>
+        <v>-4.04</v>
       </c>
       <c r="BM11" t="n">
-        <v>3.54</v>
+        <v>2.75</v>
       </c>
       <c r="BN11" t="n">
-        <v>66.25</v>
+        <v>64.98</v>
       </c>
       <c r="BO11" t="n">
-        <v>132.8</v>
+        <v>131.04</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -4028,16 +4028,16 @@
         <v>36.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>-9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-14.5</v>
+        <v>-15.1</v>
       </c>
       <c r="CA11" t="n">
-        <v>78</v>
+        <v>76.7</v>
       </c>
       <c r="CB11" t="n">
-        <v>769.7</v>
+        <v>763.1</v>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
@@ -4045,19 +4045,19 @@
         </is>
       </c>
       <c r="CE11" t="n">
-        <v>-3.3</v>
+        <v>-4.04</v>
       </c>
       <c r="CF11" t="n">
-        <v>1774.2</v>
+        <v>1784.1</v>
       </c>
       <c r="CG11" t="n">
-        <v>2046.7</v>
+        <v>2051.7</v>
       </c>
       <c r="CH11" t="n">
-        <v>2566.2</v>
+        <v>2568.7</v>
       </c>
       <c r="CI11" t="n">
-        <v>2424.7</v>
+        <v>2425.7</v>
       </c>
       <c r="CJ11" t="n">
         <v>18.3</v>
@@ -4102,16 +4102,16 @@
         <v>2263</v>
       </c>
       <c r="DA11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0.9</v>
+        <v>-1.6</v>
       </c>
       <c r="DC11" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="DD11" t="n">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="12">
@@ -4155,13 +4155,13 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>46.1</v>
+        <v>44.2</v>
       </c>
       <c r="M12" t="n">
-        <v>18.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O12" t="n">
         <v>0.7</v>
@@ -4226,7 +4226,7 @@
         <v>61</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90.16</v>
+        <v>94.47</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>29.45</v>
+        <v>29.25</v>
       </c>
       <c r="AM12" t="n">
-        <v>46.9</v>
+        <v>45.3</v>
       </c>
       <c r="AN12" t="n">
         <v>4.29</v>
@@ -4292,22 +4292,22 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-5.76</v>
+        <v>-6.4</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.49</v>
+        <v>-0.19</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.51</v>
+        <v>-0.17</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.49</v>
+        <v>-0.19</v>
       </c>
       <c r="BN12" t="n">
-        <v>19.04</v>
+        <v>18.23</v>
       </c>
       <c r="BO12" t="n">
-        <v>106.1</v>
+        <v>104.7</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4339,16 +4339,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-9</v>
+        <v>-9.6</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-5.8</v>
+        <v>-6.4</v>
       </c>
       <c r="CA12" t="n">
-        <v>54.3</v>
+        <v>53.2</v>
       </c>
       <c r="CB12" t="n">
-        <v>2574.4</v>
+        <v>2556.2</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4356,19 +4356,19 @@
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>0.51</v>
+        <v>-0.17</v>
       </c>
       <c r="CF12" t="n">
-        <v>9851.9</v>
+        <v>9849.1</v>
       </c>
       <c r="CG12" t="n">
-        <v>10612</v>
+        <v>10610.6</v>
       </c>
       <c r="CH12" t="n">
-        <v>12014.4</v>
+        <v>12013.7</v>
       </c>
       <c r="CI12" t="n">
-        <v>11362.1</v>
+        <v>11361.8</v>
       </c>
       <c r="CJ12" t="n">
         <v>27.8</v>
@@ -4413,16 +4413,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="DB12" t="n">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="DD12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4466,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>41.7</v>
+        <v>40.2</v>
       </c>
       <c r="M13" t="n">
-        <v>70.3</v>
+        <v>45.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -4542,7 +4542,7 @@
         <v>57</v>
       </c>
       <c r="AJ13" t="n">
-        <v>171.12</v>
+        <v>179.93</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>41.05</v>
+        <v>40.8</v>
       </c>
       <c r="AM13" t="n">
-        <v>62.8</v>
+        <v>61.4</v>
       </c>
       <c r="AN13" t="n">
         <v>6.47</v>
@@ -4592,7 +4592,7 @@
         <v>0.6</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.7</v>
@@ -4613,22 +4613,22 @@
         </is>
       </c>
       <c r="BI13" t="n">
-        <v>-0.61</v>
+        <v>-1.21</v>
       </c>
       <c r="BJ13" t="n">
-        <v>21.45</v>
+        <v>20.71</v>
       </c>
       <c r="BL13" t="n">
-        <v>-2.26</v>
+        <v>-2.86</v>
       </c>
       <c r="BM13" t="n">
-        <v>21.45</v>
+        <v>20.71</v>
       </c>
       <c r="BN13" t="n">
-        <v>15.13</v>
+        <v>14.43</v>
       </c>
       <c r="BO13" t="n">
-        <v>575.3</v>
+        <v>571.1900000000001</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
@@ -4660,16 +4660,16 @@
         <v>18.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>-6.4</v>
+        <v>-7</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-5.3</v>
+        <v>-5.9</v>
       </c>
       <c r="CA13" t="n">
-        <v>75.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="CB13" t="n">
-        <v>1004.2</v>
+        <v>997.5</v>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
@@ -4677,19 +4677,19 @@
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>-2.26</v>
+        <v>-2.86</v>
       </c>
       <c r="CF13" t="n">
-        <v>6270.4</v>
+        <v>6289.7</v>
       </c>
       <c r="CG13" t="n">
-        <v>7345.5</v>
+        <v>7355.2</v>
       </c>
       <c r="CH13" t="n">
-        <v>7842.4</v>
+        <v>7847.2</v>
       </c>
       <c r="CI13" t="n">
-        <v>6078.5</v>
+        <v>6080.4</v>
       </c>
       <c r="CJ13" t="n">
         <v>85.5</v>
@@ -4734,16 +4734,16 @@
         <v>3221</v>
       </c>
       <c r="DA13" t="n">
+        <v>22</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="DD13" t="n">
         <v>22.7</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>23.4</v>
       </c>
     </row>
     <row r="14">
@@ -4787,13 +4787,13 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="M14" t="n">
-        <v>49.6</v>
+        <v>49.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -4858,13 +4858,13 @@
         <v>89</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30.44</v>
+        <v>33.47</v>
       </c>
       <c r="AL14" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="AM14" t="n">
-        <v>51</v>
+        <v>49.9</v>
       </c>
       <c r="AN14" t="n">
         <v>4.86</v>
@@ -4897,10 +4897,10 @@
         </is>
       </c>
       <c r="AW14" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AY14" t="n">
         <v>0.5</v>
@@ -4929,22 +4929,22 @@
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>-7.23</v>
+        <v>-7.8</v>
       </c>
       <c r="BJ14" t="n">
-        <v>7</v>
+        <v>6.33</v>
       </c>
       <c r="BL14" t="n">
-        <v>-2.89</v>
+        <v>-3.49</v>
       </c>
       <c r="BM14" t="n">
-        <v>7</v>
+        <v>6.33</v>
       </c>
       <c r="BN14" t="n">
-        <v>78.47</v>
+        <v>77.36</v>
       </c>
       <c r="BO14" t="n">
-        <v>573.6900000000001</v>
+        <v>569.49</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
@@ -4976,16 +4976,16 @@
         <v>361.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>-9.1</v>
+        <v>-9.6</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-7.5</v>
+        <v>-8.1</v>
       </c>
       <c r="CA14" t="n">
-        <v>163.2</v>
+        <v>161.5</v>
       </c>
       <c r="CB14" t="n">
-        <v>856</v>
+        <v>850.1</v>
       </c>
       <c r="CC14" t="inlineStr">
         <is>
@@ -4993,19 +4993,19 @@
         </is>
       </c>
       <c r="CE14" t="n">
-        <v>-2.89</v>
+        <v>-3.49</v>
       </c>
       <c r="CF14" t="n">
-        <v>1515.3</v>
+        <v>1523.1</v>
       </c>
       <c r="CG14" t="n">
-        <v>1462</v>
+        <v>1465.9</v>
       </c>
       <c r="CH14" t="n">
-        <v>1881.3</v>
+        <v>1883.3</v>
       </c>
       <c r="CI14" t="n">
-        <v>2046.8</v>
+        <v>2047.6</v>
       </c>
       <c r="CJ14" t="n">
         <v>70.09999999999999</v>
@@ -5047,16 +5047,16 @@
         <v>2413</v>
       </c>
       <c r="DA14" t="n">
-        <v>46.9</v>
+        <v>46</v>
       </c>
       <c r="DB14" t="n">
-        <v>-2</v>
+        <v>-2.6</v>
       </c>
       <c r="DC14" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="DD14" t="n">
-        <v>25.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -5100,13 +5100,13 @@
         <v>1.4</v>
       </c>
       <c r="L15" t="n">
-        <v>58</v>
+        <v>57.2</v>
       </c>
       <c r="M15" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="N15" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -5171,7 +5171,7 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.46</v>
+        <v>5.6</v>
       </c>
       <c r="AL15" t="n">
         <v>12.4</v>
@@ -5294,13 +5294,13 @@
         <v>-0.48</v>
       </c>
       <c r="CF15" t="n">
-        <v>957.2</v>
+        <v>957</v>
       </c>
       <c r="CG15" t="n">
-        <v>1140.1</v>
+        <v>1140</v>
       </c>
       <c r="CH15" t="n">
-        <v>1413.7</v>
+        <v>1413.6</v>
       </c>
       <c r="CI15" t="n">
         <v>1344.4</v>
@@ -5406,13 +5406,13 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="M16" t="n">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0.9</v>
@@ -5482,7 +5482,7 @@
         <v>33</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.64</v>
+        <v>12.08</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>64.3</v>
+        <v>63.4</v>
       </c>
       <c r="AN16" t="n">
         <v>1.66</v>
@@ -5521,16 +5521,21 @@
         </is>
       </c>
       <c r="AW16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX16" t="n">
         <v>0.4</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
@@ -5543,22 +5548,22 @@
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>-2.16</v>
+        <v>-2.6</v>
       </c>
       <c r="BJ16" t="n">
-        <v>20.21</v>
+        <v>19.68</v>
       </c>
       <c r="BL16" t="n">
-        <v>-2.59</v>
+        <v>-3.02</v>
       </c>
       <c r="BM16" t="n">
-        <v>20.21</v>
+        <v>19.68</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.7</v>
+        <v>-1.14</v>
       </c>
       <c r="BO16" t="n">
-        <v>162.54</v>
+        <v>161.38</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -5590,16 +5595,16 @@
         <v>32.8</v>
       </c>
       <c r="BY16" t="n">
-        <v>-8</v>
+        <v>-8.4</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-23.9</v>
+        <v>-24.3</v>
       </c>
       <c r="CA16" t="n">
-        <v>94.2</v>
+        <v>93.3</v>
       </c>
       <c r="CB16" t="n">
-        <v>536.1</v>
+        <v>533.3</v>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
@@ -5607,13 +5612,13 @@
         </is>
       </c>
       <c r="CE16" t="n">
-        <v>-2.59</v>
+        <v>-3.02</v>
       </c>
       <c r="CF16" t="n">
-        <v>1137.1</v>
+        <v>1137.2</v>
       </c>
       <c r="CG16" t="n">
-        <v>1458.3</v>
+        <v>1458.4</v>
       </c>
       <c r="CH16" t="n">
         <v>1475.7</v>
@@ -5664,16 +5669,16 @@
         <v>3364</v>
       </c>
       <c r="DA16" t="n">
-        <v>16.9</v>
+        <v>16.3</v>
       </c>
       <c r="DB16" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="DC16" t="n">
-        <v>20.2</v>
+        <v>19.7</v>
       </c>
       <c r="DD16" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="17">
@@ -6026,13 +6031,13 @@
         <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="M18" t="n">
-        <v>66.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.7</v>
@@ -6097,7 +6102,7 @@
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.859999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AL18" t="n">
         <v>66</v>
@@ -6142,10 +6147,10 @@
         <v>0.6</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
@@ -6504,13 +6509,13 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="M20" t="n">
-        <v>54.6</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -6575,7 +6580,7 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.21</v>
+        <v>14.46</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -6583,10 +6588,10 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>16.45</v>
+        <v>16.4</v>
       </c>
       <c r="AM20" t="n">
-        <v>43.5</v>
+        <v>42.9</v>
       </c>
       <c r="AN20" t="n">
         <v>46.36</v>
@@ -6628,7 +6633,7 @@
         <v>0.3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
@@ -6641,22 +6646,22 @@
         </is>
       </c>
       <c r="BI20" t="n">
-        <v>-5.46</v>
+        <v>-5.75</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="BL20" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="BM20" t="n">
         <v>-1.5</v>
       </c>
-      <c r="BM20" t="n">
-        <v>-1.2</v>
-      </c>
       <c r="BN20" t="n">
-        <v>34.41</v>
+        <v>34.01</v>
       </c>
       <c r="BO20" t="n">
-        <v>42.66</v>
+        <v>42.22</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -6688,16 +6693,16 @@
         <v>321.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>-10.8</v>
+        <v>-11.1</v>
       </c>
       <c r="BZ20" t="n">
-        <v>-31.7</v>
+        <v>-31.9</v>
       </c>
       <c r="CA20" t="n">
-        <v>57.4</v>
+        <v>56.9</v>
       </c>
       <c r="CB20" t="n">
-        <v>182</v>
+        <v>181.2</v>
       </c>
       <c r="CC20" t="inlineStr">
         <is>
@@ -6705,13 +6710,13 @@
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="CF20" t="n">
-        <v>1698.2</v>
+        <v>1698.4</v>
       </c>
       <c r="CG20" t="n">
-        <v>2054.6</v>
+        <v>2054.7</v>
       </c>
       <c r="CH20" t="n">
         <v>2717.7</v>
@@ -6762,16 +6767,16 @@
         <v>1529</v>
       </c>
       <c r="DA20" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="DB20" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="DC20" t="n">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="DD20" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -7121,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="M22" t="n">
-        <v>43.3</v>
+        <v>95.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -7197,7 +7202,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="n">
-        <v>100.03</v>
+        <v>102.45</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7205,10 +7210,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>62</v>
+        <v>61.6</v>
       </c>
       <c r="AM22" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7241,7 +7246,7 @@
         </is>
       </c>
       <c r="AW22" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AX22" t="n">
         <v>0.4</v>
@@ -7263,22 +7268,22 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-1.59</v>
+        <v>-2.22</v>
       </c>
       <c r="BJ22" t="n">
-        <v>16.68</v>
+        <v>15.93</v>
       </c>
       <c r="BL22" t="n">
-        <v>-2.05</v>
+        <v>-2.69</v>
       </c>
       <c r="BM22" t="n">
-        <v>16.68</v>
+        <v>15.93</v>
       </c>
       <c r="BN22" t="n">
-        <v>94.7</v>
+        <v>93.44</v>
       </c>
       <c r="BO22" t="n">
-        <v>1668.4</v>
+        <v>1656.99</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7310,16 +7315,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-3.7</v>
+        <v>-4.3</v>
       </c>
       <c r="CA22" t="n">
-        <v>110.8</v>
+        <v>109.4</v>
       </c>
       <c r="CB22" t="n">
-        <v>2634</v>
+        <v>2616.3</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7327,19 +7332,19 @@
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>-2.05</v>
+        <v>-2.69</v>
       </c>
       <c r="CF22" t="n">
-        <v>2975.5</v>
+        <v>2974.5</v>
       </c>
       <c r="CG22" t="n">
-        <v>3845.4</v>
+        <v>3844.9</v>
       </c>
       <c r="CH22" t="n">
-        <v>5118.2</v>
+        <v>5117.9</v>
       </c>
       <c r="CI22" t="n">
-        <v>4076.2</v>
+        <v>4076.1</v>
       </c>
       <c r="CJ22" t="n">
         <v>56.6</v>
@@ -7384,16 +7389,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="DB22" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="DC22" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="DD22" t="n">
-        <v>18.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -7437,13 +7442,13 @@
         <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>54.5</v>
+        <v>53.9</v>
       </c>
       <c r="M23" t="n">
-        <v>76.7</v>
+        <v>38.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O23" t="n">
         <v>0.8</v>
@@ -7499,7 +7504,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>321.17</v>
+        <v>339.26</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7507,10 +7512,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>32.15</v>
+        <v>32.2</v>
       </c>
       <c r="AM23" t="n">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="n">
         <v>17.47</v>
@@ -7543,7 +7548,7 @@
         </is>
       </c>
       <c r="AW23" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX23" t="n">
         <v>0.4</v>
@@ -7565,22 +7570,22 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>11.25</v>
+        <v>11.42</v>
       </c>
       <c r="BJ23" t="n">
-        <v>31.76</v>
+        <v>31.97</v>
       </c>
       <c r="BL23" t="n">
-        <v>-1.08</v>
+        <v>-0.92</v>
       </c>
       <c r="BM23" t="n">
-        <v>31.76</v>
+        <v>31.97</v>
       </c>
       <c r="BN23" t="n">
-        <v>42.89</v>
+        <v>43.12</v>
       </c>
       <c r="BO23" t="n">
-        <v>362.35</v>
+        <v>363.07</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7606,16 +7611,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="BZ23" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="CA23" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="CB23" t="n">
-        <v>627.7</v>
+        <v>628.8</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7623,19 +7628,19 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>-1.08</v>
+        <v>-0.92</v>
       </c>
       <c r="CF23" t="n">
-        <v>29328.6</v>
+        <v>29340.1</v>
       </c>
       <c r="CG23" t="n">
-        <v>26899.9</v>
+        <v>26905.6</v>
       </c>
       <c r="CH23" t="n">
-        <v>26745.8</v>
+        <v>26748.7</v>
       </c>
       <c r="CI23" t="n">
-        <v>20190</v>
+        <v>20191.1</v>
       </c>
       <c r="CJ23" t="n">
         <v>21.6</v>
@@ -7680,16 +7685,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="DB23" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="DC23" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="DD23" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="24">
@@ -8034,7 +8039,7 @@
         <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>34.2</v>
+        <v>25.9</v>
       </c>
       <c r="N25" t="n">
         <v>4.6</v>
@@ -8329,13 +8334,13 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>42.1</v>
+        <v>39.9</v>
       </c>
       <c r="M26" t="n">
-        <v>61.5</v>
+        <v>78</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O26" t="n">
         <v>0.8</v>
@@ -8400,7 +8405,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>155.93</v>
+        <v>166.3</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -8408,10 +8413,10 @@
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>15.6</v>
+        <v>15.45</v>
       </c>
       <c r="AM26" t="n">
-        <v>73.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="AN26" t="n">
         <v>10.66</v>
@@ -8466,22 +8471,22 @@
         </is>
       </c>
       <c r="BI26" t="n">
-        <v>3.65</v>
+        <v>2.66</v>
       </c>
       <c r="BJ26" t="n">
-        <v>20.93</v>
+        <v>19.77</v>
       </c>
       <c r="BL26" t="n">
-        <v>-1.89</v>
+        <v>-2.83</v>
       </c>
       <c r="BM26" t="n">
-        <v>20.93</v>
+        <v>19.77</v>
       </c>
       <c r="BN26" t="n">
-        <v>40</v>
+        <v>38.65</v>
       </c>
       <c r="BO26" t="n">
-        <v>27.61</v>
+        <v>26.38</v>
       </c>
       <c r="BP26" t="inlineStr">
         <is>
@@ -8513,16 +8518,16 @@
         <v>52.3</v>
       </c>
       <c r="BY26" t="n">
-        <v>-7.1</v>
+        <v>-8</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-26.8</v>
+        <v>-27.5</v>
       </c>
       <c r="CA26" t="n">
-        <v>68.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="CB26" t="n">
-        <v>589.4</v>
+        <v>582.8</v>
       </c>
       <c r="CC26" t="inlineStr">
         <is>
@@ -8530,19 +8535,19 @@
         </is>
       </c>
       <c r="CE26" t="n">
-        <v>-1.89</v>
+        <v>-2.83</v>
       </c>
       <c r="CF26" t="n">
-        <v>19545.6</v>
+        <v>19551.4</v>
       </c>
       <c r="CG26" t="n">
-        <v>22031</v>
+        <v>22033.9</v>
       </c>
       <c r="CH26" t="n">
-        <v>19889.4</v>
+        <v>19890.9</v>
       </c>
       <c r="CI26" t="n">
-        <v>14468.8</v>
+        <v>14469.3</v>
       </c>
       <c r="CJ26" t="n">
         <v>26.4</v>
@@ -8584,16 +8589,16 @@
         <v>1001</v>
       </c>
       <c r="DA26" t="n">
-        <v>32.9</v>
+        <v>31.6</v>
       </c>
       <c r="DB26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC26" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="DD26" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="27">
@@ -8821,13 +8826,13 @@
         <v>0.8</v>
       </c>
       <c r="L28" t="n">
-        <v>35.8</v>
+        <v>38.7</v>
       </c>
       <c r="M28" t="n">
-        <v>23.9</v>
+        <v>35.6</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.2</v>
@@ -8892,13 +8897,13 @@
         <v>54</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AL28" t="n">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="AM28" t="n">
-        <v>53.2</v>
+        <v>51.9</v>
       </c>
       <c r="AN28" t="n">
         <v>0.02</v>
@@ -8931,16 +8936,16 @@
         </is>
       </c>
       <c r="AW28" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AY28" t="n">
         <v>0.4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
@@ -8953,22 +8958,22 @@
         </is>
       </c>
       <c r="BI28" t="n">
-        <v>-2.26</v>
+        <v>-2.67</v>
       </c>
       <c r="BJ28" t="n">
-        <v>3.26</v>
+        <v>2.83</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.11</v>
+        <v>-0.32</v>
       </c>
       <c r="BM28" t="n">
-        <v>3.26</v>
+        <v>2.83</v>
       </c>
       <c r="BN28" t="n">
-        <v>17.38</v>
+        <v>16.88</v>
       </c>
       <c r="BO28" t="n">
-        <v>529.41</v>
+        <v>526.76</v>
       </c>
       <c r="BP28" t="inlineStr">
         <is>
@@ -9000,16 +9005,16 @@
         <v>24.5</v>
       </c>
       <c r="BY28" t="n">
-        <v>-9.5</v>
+        <v>-9.9</v>
       </c>
       <c r="BZ28" t="n">
-        <v>-8.699999999999999</v>
+        <v>-9</v>
       </c>
       <c r="CA28" t="n">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
       <c r="CB28" t="n">
-        <v>741</v>
+        <v>737.5</v>
       </c>
       <c r="CC28" t="inlineStr">
         <is>
@@ -9017,7 +9022,7 @@
         </is>
       </c>
       <c r="CE28" t="n">
-        <v>0.11</v>
+        <v>-0.32</v>
       </c>
       <c r="CF28" t="n">
         <v>45.7</v>
@@ -9074,16 +9079,16 @@
         <v>9749</v>
       </c>
       <c r="DA28" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="DB28" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="DC28" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="DD28" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="29">
@@ -9127,13 +9132,13 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>55.8</v>
+        <v>43.6</v>
       </c>
       <c r="M29" t="n">
-        <v>92.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8</v>
+        <v>13.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -9198,7 +9203,7 @@
         <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -9206,10 +9211,10 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AM29" t="n">
-        <v>56.5</v>
+        <v>55.4</v>
       </c>
       <c r="AN29" t="n">
         <v>6.65</v>
@@ -9237,16 +9242,16 @@
         </is>
       </c>
       <c r="AW29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AX29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AY29" t="n">
         <v>0.3</v>
       </c>
-      <c r="AY29" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB29" t="inlineStr">
         <is>
@@ -9264,22 +9269,22 @@
         </is>
       </c>
       <c r="BI29" t="n">
-        <v>-3.59</v>
+        <v>-4.02</v>
       </c>
       <c r="BJ29" t="n">
-        <v>5.8</v>
+        <v>5.34</v>
       </c>
       <c r="BL29" t="n">
-        <v>-0.87</v>
+        <v>-1.3</v>
       </c>
       <c r="BM29" t="n">
-        <v>5.8</v>
+        <v>5.34</v>
       </c>
       <c r="BN29" t="n">
-        <v>57.82</v>
+        <v>57.12</v>
       </c>
       <c r="BO29" t="n">
-        <v>220.39</v>
+        <v>218.99</v>
       </c>
       <c r="BP29" t="inlineStr">
         <is>
@@ -9311,16 +9316,16 @@
         <v>299.6</v>
       </c>
       <c r="BY29" t="n">
-        <v>-7.3</v>
+        <v>-7.7</v>
       </c>
       <c r="BZ29" t="n">
-        <v>-6.4</v>
+        <v>-6.8</v>
       </c>
       <c r="CA29" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="CB29" t="n">
-        <v>1694.2</v>
+        <v>1686.3</v>
       </c>
       <c r="CC29" t="inlineStr">
         <is>
@@ -9328,19 +9333,19 @@
         </is>
       </c>
       <c r="CE29" t="n">
-        <v>-0.87</v>
+        <v>-1.3</v>
       </c>
       <c r="CF29" t="n">
-        <v>92.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="CG29" t="n">
-        <v>181.2</v>
+        <v>182.1</v>
       </c>
       <c r="CH29" t="n">
-        <v>219.5</v>
+        <v>220</v>
       </c>
       <c r="CI29" t="n">
-        <v>179.6</v>
+        <v>179.8</v>
       </c>
       <c r="CJ29" t="n">
         <v>72.09999999999999</v>
@@ -9382,16 +9387,16 @@
         <v>5146</v>
       </c>
       <c r="DA29" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="DB29" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="DC29" t="n">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="DD29" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="30">
@@ -9619,10 +9624,10 @@
         <v>0.9</v>
       </c>
       <c r="L31" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="M31" t="n">
-        <v>33.3</v>
+        <v>35.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.6</v>
@@ -9693,10 +9698,10 @@
         <v>0.31</v>
       </c>
       <c r="AL31" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="AM31" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="AN31" t="n">
         <v>1.09</v>
@@ -9746,22 +9751,22 @@
         </is>
       </c>
       <c r="BI31" t="n">
-        <v>-5.33</v>
+        <v>-5.03</v>
       </c>
       <c r="BJ31" t="n">
-        <v>-11.11</v>
+        <v>-10.83</v>
       </c>
       <c r="BL31" t="n">
-        <v>-0.93</v>
+        <v>-0.62</v>
       </c>
       <c r="BM31" t="n">
-        <v>-11.11</v>
+        <v>-10.83</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="BO31" t="n">
-        <v>242.03</v>
+        <v>243.1</v>
       </c>
       <c r="BP31" t="inlineStr">
         <is>
@@ -9793,16 +9798,16 @@
         <v>55.1</v>
       </c>
       <c r="BY31" t="n">
-        <v>-32.9</v>
+        <v>-32.7</v>
       </c>
       <c r="BZ31" t="n">
-        <v>-29.2</v>
+        <v>-29</v>
       </c>
       <c r="CA31" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="CB31" t="n">
-        <v>4148.9</v>
+        <v>4162.1</v>
       </c>
       <c r="CC31" t="inlineStr">
         <is>
@@ -9810,7 +9815,7 @@
         </is>
       </c>
       <c r="CE31" t="n">
-        <v>-0.93</v>
+        <v>-0.62</v>
       </c>
       <c r="CF31" t="n">
         <v>26.6</v>
@@ -9867,16 +9872,16 @@
         <v>3575</v>
       </c>
       <c r="DA31" t="n">
-        <v>-12.2</v>
+        <v>-11.9</v>
       </c>
       <c r="DB31" t="n">
-        <v>-5.6</v>
+        <v>-5.3</v>
       </c>
       <c r="DC31" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="DD31" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="32">
@@ -9923,7 +9928,7 @@
         <v>90</v>
       </c>
       <c r="M32" t="n">
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="N32" t="n">
         <v>1.9</v>
@@ -10407,13 +10412,13 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>66.5</v>
+        <v>65</v>
       </c>
       <c r="M34" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="O34" t="n">
         <v>3</v>
@@ -10474,7 +10479,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.66</v>
+        <v>12</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10482,10 +10487,10 @@
         </is>
       </c>
       <c r="AL34" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="AM34" t="n">
-        <v>65.7</v>
+        <v>64.3</v>
       </c>
       <c r="AN34" t="n">
         <v>1.35</v>
@@ -10512,7 +10517,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW34" t="n">
@@ -10543,22 +10548,22 @@
         </is>
       </c>
       <c r="BI34" t="n">
-        <v>1.58</v>
+        <v>0.71</v>
       </c>
       <c r="BJ34" t="n">
-        <v>12.4</v>
+        <v>11.44</v>
       </c>
       <c r="BL34" t="n">
-        <v>2.32</v>
+        <v>1.45</v>
       </c>
       <c r="BM34" t="n">
-        <v>12.4</v>
+        <v>11.44</v>
       </c>
       <c r="BN34" t="n">
-        <v>95.08</v>
+        <v>93.41</v>
       </c>
       <c r="BO34" t="n">
-        <v>167.08</v>
+        <v>164.79</v>
       </c>
       <c r="BP34" t="inlineStr">
         <is>
@@ -10584,16 +10589,16 @@
         <v>66.8</v>
       </c>
       <c r="BY34" t="n">
-        <v>-4.5</v>
+        <v>-5.3</v>
       </c>
       <c r="BZ34" t="n">
-        <v>-41.7</v>
+        <v>-42.2</v>
       </c>
       <c r="CA34" t="n">
-        <v>146.3</v>
+        <v>144.2</v>
       </c>
       <c r="CB34" t="n">
-        <v>246.6</v>
+        <v>243.6</v>
       </c>
       <c r="CC34" t="inlineStr">
         <is>
@@ -10601,19 +10606,19 @@
         </is>
       </c>
       <c r="CE34" t="n">
-        <v>2.32</v>
+        <v>1.45</v>
       </c>
       <c r="CF34" t="n">
-        <v>499.2</v>
+        <v>499.9</v>
       </c>
       <c r="CG34" t="n">
-        <v>517.6</v>
+        <v>517.9</v>
       </c>
       <c r="CH34" t="n">
-        <v>620.7</v>
+        <v>620.9</v>
       </c>
       <c r="CI34" t="n">
-        <v>708.9</v>
+        <v>709</v>
       </c>
       <c r="CJ34" t="n">
         <v>10.9</v>
@@ -10658,16 +10663,16 @@
         <v>3275</v>
       </c>
       <c r="DA34" t="n">
-        <v>63.6</v>
+        <v>62.2</v>
       </c>
       <c r="DB34" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="DC34" t="n">
-        <v>16.9</v>
+        <v>15.9</v>
       </c>
       <c r="DD34" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="35">
@@ -11018,7 +11023,7 @@
         <v>56.2</v>
       </c>
       <c r="M36" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="N36" t="n">
         <v>25</v>
@@ -11313,10 +11318,10 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>36.4</v>
+        <v>35.5</v>
       </c>
       <c r="M37" t="n">
-        <v>76.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="N37" t="n">
         <v>0.1</v>
@@ -11384,7 +11389,7 @@
         <v>58</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>10.23</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -11392,10 +11397,10 @@
         </is>
       </c>
       <c r="AL37" t="n">
-        <v>36.1</v>
+        <v>36.05</v>
       </c>
       <c r="AM37" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="AN37" t="n">
         <v>5.15</v>
@@ -11450,22 +11455,22 @@
         </is>
       </c>
       <c r="BI37" t="n">
-        <v>-7.44</v>
+        <v>-7.56</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-5</v>
+        <v>-5.13</v>
       </c>
       <c r="BL37" t="n">
-        <v>-1.37</v>
+        <v>-1.5</v>
       </c>
       <c r="BM37" t="n">
-        <v>-5</v>
+        <v>-5.13</v>
       </c>
       <c r="BN37" t="n">
-        <v>16.86</v>
+        <v>16.7</v>
       </c>
       <c r="BO37" t="n">
-        <v>269.53</v>
+        <v>269.02</v>
       </c>
       <c r="BP37" t="inlineStr">
         <is>
@@ -11497,16 +11502,16 @@
         <v>61.4</v>
       </c>
       <c r="BY37" t="n">
-        <v>-13.8</v>
+        <v>-13.9</v>
       </c>
       <c r="BZ37" t="n">
-        <v>-12.2</v>
+        <v>-12.4</v>
       </c>
       <c r="CA37" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="CB37" t="n">
-        <v>373.4</v>
+        <v>372.8</v>
       </c>
       <c r="CC37" t="inlineStr">
         <is>
@@ -11514,13 +11519,13 @@
         </is>
       </c>
       <c r="CE37" t="n">
-        <v>-1.37</v>
+        <v>-1.5</v>
       </c>
       <c r="CF37" t="n">
-        <v>472.1</v>
+        <v>472</v>
       </c>
       <c r="CG37" t="n">
-        <v>841.2</v>
+        <v>841.1</v>
       </c>
       <c r="CH37" t="n">
         <v>727.8</v>
@@ -11571,16 +11576,16 @@
         <v>4865</v>
       </c>
       <c r="DA37" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="DB37" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="DC37" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="DD37" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="38">
@@ -11925,13 +11930,13 @@
         <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="M39" t="n">
-        <v>37.5</v>
+        <v>36.6</v>
       </c>
       <c r="N39" t="n">
-        <v>18.4</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
         <v>0.3</v>
@@ -11996,7 +12001,7 @@
         <v>89</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AL39" t="n">
         <v>14.7</v>
@@ -12030,7 +12035,7 @@
         </is>
       </c>
       <c r="AW39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX39" t="n">
         <v>0.3</v>
@@ -12119,16 +12124,16 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="CF39" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="CG39" t="n">
-        <v>130.9</v>
+        <v>130.1</v>
       </c>
       <c r="CH39" t="n">
-        <v>205.3</v>
+        <v>204.9</v>
       </c>
       <c r="CI39" t="n">
-        <v>118.1</v>
+        <v>117.9</v>
       </c>
       <c r="CJ39" t="n">
         <v>65.3</v>
@@ -12226,10 +12231,10 @@
         <v>49.5</v>
       </c>
       <c r="M40" t="n">
-        <v>93.5</v>
+        <v>89</v>
       </c>
       <c r="N40" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.4</v>
@@ -12285,7 +12290,7 @@
         <v>53</v>
       </c>
       <c r="AJ40" t="n">
-        <v>26.44</v>
+        <v>26.65</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -12409,16 +12414,16 @@
         <v>0.64</v>
       </c>
       <c r="CF40" t="n">
-        <v>2378.2</v>
+        <v>2374.4</v>
       </c>
       <c r="CG40" t="n">
-        <v>2269.5</v>
+        <v>2267.7</v>
       </c>
       <c r="CH40" t="n">
-        <v>2158.4</v>
+        <v>2157.4</v>
       </c>
       <c r="CI40" t="n">
-        <v>1998.1</v>
+        <v>1997.7</v>
       </c>
       <c r="CJ40" t="n">
         <v>30</v>
@@ -13310,13 +13315,13 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="M44" t="n">
-        <v>42.2</v>
+        <v>44</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="O44" t="n">
         <v>2.1</v>
@@ -13381,7 +13386,7 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="n">
-        <v>17.72</v>
+        <v>18.6</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -13425,7 +13430,7 @@
         </is>
       </c>
       <c r="AW44" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AX44" t="n">
         <v>0.8</v>
@@ -13514,13 +13519,13 @@
         <v>-2.23</v>
       </c>
       <c r="CF44" t="n">
-        <v>389.2</v>
+        <v>389.4</v>
       </c>
       <c r="CG44" t="n">
-        <v>354</v>
+        <v>354.1</v>
       </c>
       <c r="CH44" t="n">
-        <v>433.8</v>
+        <v>433.9</v>
       </c>
       <c r="CI44" t="n">
         <v>430.3</v>
@@ -13930,7 +13935,7 @@
         <v>88.40000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="N46" t="n">
         <v>16.6</v>
@@ -14121,10 +14126,10 @@
         <v>-1.12</v>
       </c>
       <c r="CF46" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="CG46" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="CH46" t="n">
         <v>11.2</v>
@@ -14228,7 +14233,7 @@
         <v>100</v>
       </c>
       <c r="M47" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
         <v>0.8</v>
@@ -14539,13 +14544,13 @@
         <v>0.5</v>
       </c>
       <c r="L48" t="n">
-        <v>55.8</v>
+        <v>57.5</v>
       </c>
       <c r="M48" t="n">
-        <v>46.3</v>
+        <v>60.2</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
@@ -14610,7 +14615,7 @@
         <v>10</v>
       </c>
       <c r="AJ48" t="n">
-        <v>5.24</v>
+        <v>5.66</v>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
@@ -14618,10 +14623,10 @@
         </is>
       </c>
       <c r="AL48" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="AM48" t="n">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="AN48" t="n">
         <v>13.58</v>
@@ -14654,7 +14659,7 @@
         </is>
       </c>
       <c r="AW48" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AX48" t="n">
         <v>0.6</v>
@@ -14663,7 +14668,7 @@
         <v>0.6</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BB48" t="inlineStr">
         <is>
@@ -14676,22 +14681,22 @@
         </is>
       </c>
       <c r="BI48" t="n">
-        <v>-4</v>
+        <v>-4.18</v>
       </c>
       <c r="BJ48" t="n">
-        <v>-4.35</v>
+        <v>-4.53</v>
       </c>
       <c r="BL48" t="n">
-        <v>-1.68</v>
+        <v>-1.86</v>
       </c>
       <c r="BM48" t="n">
-        <v>-4.35</v>
+        <v>-4.53</v>
       </c>
       <c r="BN48" t="n">
-        <v>-16.22</v>
+        <v>-16.38</v>
       </c>
       <c r="BO48" t="n">
-        <v>98.14</v>
+        <v>97.77</v>
       </c>
       <c r="BP48" t="inlineStr">
         <is>
@@ -14723,16 +14728,16 @@
         <v>26.7</v>
       </c>
       <c r="BY48" t="n">
-        <v>-19.9</v>
+        <v>-20</v>
       </c>
       <c r="BZ48" t="n">
-        <v>-33.4</v>
+        <v>-33.6</v>
       </c>
       <c r="CA48" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="CB48" t="n">
-        <v>5026</v>
+        <v>5016.3</v>
       </c>
       <c r="CC48" t="inlineStr">
         <is>
@@ -14740,13 +14745,13 @@
         </is>
       </c>
       <c r="CE48" t="n">
-        <v>-1.68</v>
+        <v>-1.86</v>
       </c>
       <c r="CF48" t="n">
-        <v>188.4</v>
+        <v>188.6</v>
       </c>
       <c r="CG48" t="n">
-        <v>176.6</v>
+        <v>176.7</v>
       </c>
       <c r="CH48" t="n">
         <v>165.4</v>
@@ -14797,16 +14802,16 @@
         <v>6130</v>
       </c>
       <c r="DA48" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="DB48" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="DC48" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="DD48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49">
@@ -14850,13 +14855,13 @@
         <v>1.2</v>
       </c>
       <c r="L49" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="M49" t="n">
-        <v>29.4</v>
+        <v>27.6</v>
       </c>
       <c r="N49" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O49" t="n">
         <v>0.8</v>
@@ -14921,7 +14926,7 @@
         <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>120.53</v>
+        <v>127.09</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -14929,10 +14934,10 @@
         </is>
       </c>
       <c r="AL49" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="AM49" t="n">
-        <v>57.1</v>
+        <v>55.8</v>
       </c>
       <c r="AN49" t="n">
         <v>11.37</v>
@@ -14965,7 +14970,7 @@
         </is>
       </c>
       <c r="AW49" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX49" t="n">
         <v>0.3</v>
@@ -14992,22 +14997,22 @@
         </is>
       </c>
       <c r="BI49" t="n">
-        <v>-3.69</v>
+        <v>-4.22</v>
       </c>
       <c r="BJ49" t="n">
-        <v>6.73</v>
+        <v>6.14</v>
       </c>
       <c r="BL49" t="n">
-        <v>-1.35</v>
+        <v>-1.89</v>
       </c>
       <c r="BM49" t="n">
-        <v>6.73</v>
+        <v>6.14</v>
       </c>
       <c r="BN49" t="n">
-        <v>-7.71</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="BO49" t="n">
-        <v>255.71</v>
+        <v>253.76</v>
       </c>
       <c r="BP49" t="inlineStr">
         <is>
@@ -15039,16 +15044,16 @@
         <v>10.3</v>
       </c>
       <c r="BY49" t="n">
-        <v>-12.9</v>
+        <v>-13.4</v>
       </c>
       <c r="BZ49" t="n">
-        <v>-18.8</v>
+        <v>-19.2</v>
       </c>
       <c r="CA49" t="n">
-        <v>70.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="CB49" t="n">
-        <v>848.4</v>
+        <v>843.2</v>
       </c>
       <c r="CC49" t="inlineStr">
         <is>
@@ -15056,19 +15061,19 @@
         </is>
       </c>
       <c r="CE49" t="n">
-        <v>-1.35</v>
+        <v>-1.89</v>
       </c>
       <c r="CF49" t="n">
-        <v>7478.4</v>
+        <v>7483.7</v>
       </c>
       <c r="CG49" t="n">
-        <v>10089</v>
+        <v>10091.6</v>
       </c>
       <c r="CH49" t="n">
-        <v>9972.299999999999</v>
+        <v>9973.6</v>
       </c>
       <c r="CI49" t="n">
-        <v>8726.5</v>
+        <v>8727.1</v>
       </c>
       <c r="CJ49" t="n">
         <v>78.59999999999999</v>
@@ -15113,16 +15118,16 @@
         <v>2649</v>
       </c>
       <c r="DA49" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="DB49" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="DC49" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="DD49" t="n">
-        <v>17.8</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="50">
@@ -15166,13 +15171,13 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>60.9</v>
+        <v>60.5</v>
       </c>
       <c r="M50" t="n">
-        <v>36.7</v>
+        <v>78.8</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="O50" t="n">
         <v>1.2</v>
@@ -15237,7 +15242,7 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="n">
-        <v>31.35</v>
+        <v>32.01</v>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
@@ -15245,10 +15250,10 @@
         </is>
       </c>
       <c r="AL50" t="n">
-        <v>65.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AM50" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="AN50" t="n">
         <v>49</v>
@@ -15303,22 +15308,22 @@
         </is>
       </c>
       <c r="BI50" t="n">
-        <v>-4.52</v>
+        <v>-4.66</v>
       </c>
       <c r="BJ50" t="n">
-        <v>-4.38</v>
+        <v>-4.53</v>
       </c>
       <c r="BL50" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="BM50" t="n">
-        <v>-4.38</v>
+        <v>-4.53</v>
       </c>
       <c r="BN50" t="n">
-        <v>8.619999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="BO50" t="n">
-        <v>243.1</v>
+        <v>242.57</v>
       </c>
       <c r="BP50" t="inlineStr">
         <is>
@@ -15350,16 +15355,16 @@
         <v>27.2</v>
       </c>
       <c r="BY50" t="n">
-        <v>-8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BZ50" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="CA50" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="CB50" t="n">
-        <v>14879.9</v>
+        <v>14857</v>
       </c>
       <c r="CC50" t="inlineStr">
         <is>
@@ -15367,19 +15372,19 @@
         </is>
       </c>
       <c r="CE50" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="CF50" t="n">
-        <v>968.9</v>
+        <v>970.4</v>
       </c>
       <c r="CG50" t="n">
-        <v>1143.8</v>
+        <v>1144.5</v>
       </c>
       <c r="CH50" t="n">
-        <v>1163.2</v>
+        <v>1163.6</v>
       </c>
       <c r="CI50" t="n">
-        <v>1047.1</v>
+        <v>1047.2</v>
       </c>
       <c r="CJ50" t="n">
         <v>57.3</v>
@@ -15424,16 +15429,16 @@
         <v>4418</v>
       </c>
       <c r="DA50" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="DB50" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="DC50" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="DD50" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="51">
@@ -15477,13 +15482,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>47.5</v>
+        <v>47.1</v>
       </c>
       <c r="M51" t="n">
-        <v>80.2</v>
+        <v>76.7</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O51" t="n">
         <v>1.5</v>
@@ -15544,7 +15549,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1296.89</v>
+        <v>1338.09</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -15552,10 +15557,10 @@
         </is>
       </c>
       <c r="AL51" t="n">
-        <v>18.05</v>
+        <v>18</v>
       </c>
       <c r="AM51" t="n">
-        <v>72.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="AN51" t="n">
         <v>5.15</v>
@@ -15588,16 +15593,16 @@
         </is>
       </c>
       <c r="AW51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AY51" t="n">
         <v>0.7</v>
       </c>
-      <c r="AX51" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AZ51" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="BB51" t="inlineStr">
         <is>
@@ -15610,22 +15615,22 @@
         </is>
       </c>
       <c r="BI51" t="n">
-        <v>7.91</v>
+        <v>7.61</v>
       </c>
       <c r="BJ51" t="n">
-        <v>43.63</v>
+        <v>43.23</v>
       </c>
       <c r="BL51" t="n">
-        <v>-2.43</v>
+        <v>-2.7</v>
       </c>
       <c r="BM51" t="n">
-        <v>43.63</v>
+        <v>43.23</v>
       </c>
       <c r="BN51" t="n">
-        <v>121.67</v>
+        <v>121.05</v>
       </c>
       <c r="BO51" t="n">
-        <v>232.91</v>
+        <v>231.99</v>
       </c>
       <c r="BP51" t="inlineStr">
         <is>
@@ -15651,16 +15656,16 @@
         <v>8.9</v>
       </c>
       <c r="BY51" t="n">
-        <v>-7.2</v>
+        <v>-7.5</v>
       </c>
       <c r="BZ51" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="CA51" t="n">
-        <v>133.8</v>
+        <v>133.2</v>
       </c>
       <c r="CB51" t="n">
-        <v>1566.6</v>
+        <v>1562</v>
       </c>
       <c r="CC51" t="inlineStr">
         <is>
@@ -15668,19 +15673,19 @@
         </is>
       </c>
       <c r="CE51" t="n">
-        <v>-2.43</v>
+        <v>-2.7</v>
       </c>
       <c r="CF51" t="n">
-        <v>95609.2</v>
+        <v>95565.8</v>
       </c>
       <c r="CG51" t="n">
-        <v>96035.89999999999</v>
+        <v>96014.2</v>
       </c>
       <c r="CH51" t="n">
-        <v>110391.1</v>
+        <v>110380.2</v>
       </c>
       <c r="CI51" t="n">
-        <v>84779.10000000001</v>
+        <v>84774.7</v>
       </c>
       <c r="CJ51" t="n">
         <v>15.5</v>
@@ -15725,16 +15730,16 @@
         <v>2379</v>
       </c>
       <c r="DA51" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="DB51" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="DC51" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="DD51" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="52">
@@ -16432,13 +16437,13 @@
         <v>0.7</v>
       </c>
       <c r="L55" t="n">
-        <v>50.4</v>
+        <v>54.1</v>
       </c>
       <c r="M55" t="n">
-        <v>34.4</v>
+        <v>37.8</v>
       </c>
       <c r="N55" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="O55" t="n">
         <v>0.6</v>
@@ -16455,6 +16460,11 @@
       <c r="S55" t="n">
         <v>7.2</v>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="U55" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -16503,7 +16513,7 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
@@ -16511,10 +16521,10 @@
         </is>
       </c>
       <c r="AL55" t="n">
-        <v>35.75</v>
+        <v>35.9</v>
       </c>
       <c r="AM55" t="n">
-        <v>59.8</v>
+        <v>61.7</v>
       </c>
       <c r="AN55" t="n">
         <v>6.12</v>
@@ -16524,7 +16534,7 @@
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR55" t="n">
@@ -16564,22 +16574,22 @@
         </is>
       </c>
       <c r="BI55" t="n">
-        <v>0.7</v>
+        <v>1.13</v>
       </c>
       <c r="BJ55" t="n">
-        <v>3.32</v>
+        <v>3.76</v>
       </c>
       <c r="BL55" t="n">
-        <v>-0.14</v>
+        <v>0.28</v>
       </c>
       <c r="BM55" t="n">
-        <v>3.32</v>
+        <v>3.76</v>
       </c>
       <c r="BN55" t="n">
-        <v>8.91</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="BO55" t="n">
-        <v>123.69</v>
+        <v>124.63</v>
       </c>
       <c r="BP55" t="inlineStr">
         <is>
@@ -16611,16 +16621,16 @@
         <v>32.3</v>
       </c>
       <c r="BY55" t="n">
-        <v>-15</v>
+        <v>-14.6</v>
       </c>
       <c r="BZ55" t="n">
-        <v>-14.9</v>
+        <v>-14.5</v>
       </c>
       <c r="CA55" t="n">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="CB55" t="n">
-        <v>1158.4</v>
+        <v>1163.6</v>
       </c>
       <c r="CC55" t="inlineStr">
         <is>
@@ -16628,7 +16638,7 @@
         </is>
       </c>
       <c r="CE55" t="n">
-        <v>-0.14</v>
+        <v>0.28</v>
       </c>
       <c r="CF55" t="n">
         <v>49.2</v>
@@ -16685,16 +16695,16 @@
         <v>5003</v>
       </c>
       <c r="DA55" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="DB55" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="DC55" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="DD55" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="56">
@@ -17321,7 +17331,7 @@
         <v>56.4</v>
       </c>
       <c r="M58" t="n">
-        <v>60.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="N58" t="n">
         <v>0.5</v>
@@ -17624,13 +17634,13 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>32.9</v>
+        <v>32</v>
       </c>
       <c r="M59" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
         <v>1.4</v>
@@ -17695,7 +17705,7 @@
         <v>6</v>
       </c>
       <c r="AJ59" t="n">
-        <v>18.54</v>
+        <v>19.32</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -17703,10 +17713,10 @@
         </is>
       </c>
       <c r="AL59" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AM59" t="n">
-        <v>46</v>
+        <v>45.2</v>
       </c>
       <c r="AN59" t="n">
         <v>16.7</v>
@@ -17721,7 +17731,7 @@
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Bán mạnh</t>
         </is>
       </c>
       <c r="AR59" t="n">
@@ -17739,7 +17749,7 @@
         </is>
       </c>
       <c r="AW59" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AX59" t="n">
         <v>0.4</v>
@@ -17752,7 +17762,7 @@
       </c>
       <c r="BB59" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(50)</t>
+          <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
       <c r="BH59" t="inlineStr">
@@ -17761,22 +17771,22 @@
         </is>
       </c>
       <c r="BI59" t="n">
-        <v>-5.91</v>
+        <v>-6.36</v>
       </c>
       <c r="BJ59" t="n">
-        <v>-1.9</v>
+        <v>-2.37</v>
       </c>
       <c r="BL59" t="n">
-        <v>-1.9</v>
+        <v>-2.37</v>
       </c>
       <c r="BM59" t="n">
-        <v>-1.9</v>
+        <v>-2.37</v>
       </c>
       <c r="BN59" t="n">
-        <v>-19.88</v>
+        <v>-20.27</v>
       </c>
       <c r="BO59" t="n">
-        <v>217.83</v>
+        <v>216.29</v>
       </c>
       <c r="BP59" t="inlineStr">
         <is>
@@ -17808,16 +17818,16 @@
         <v>3.4</v>
       </c>
       <c r="BY59" t="n">
-        <v>-22.9</v>
+        <v>-23.3</v>
       </c>
       <c r="BZ59" t="n">
-        <v>-24.4</v>
+        <v>-24.8</v>
       </c>
       <c r="CA59" t="n">
-        <v>63.9</v>
+        <v>63.1</v>
       </c>
       <c r="CB59" t="n">
-        <v>3096.8</v>
+        <v>3081.4</v>
       </c>
       <c r="CC59" t="inlineStr">
         <is>
@@ -17825,19 +17835,19 @@
         </is>
       </c>
       <c r="CE59" t="n">
-        <v>-1.9</v>
+        <v>-2.37</v>
       </c>
       <c r="CF59" t="n">
-        <v>1634.1</v>
+        <v>1637.5</v>
       </c>
       <c r="CG59" t="n">
-        <v>2477.4</v>
+        <v>2479.1</v>
       </c>
       <c r="CH59" t="n">
-        <v>2317.1</v>
+        <v>2318</v>
       </c>
       <c r="CI59" t="n">
-        <v>2155.1</v>
+        <v>2155.5</v>
       </c>
       <c r="CJ59" t="n">
         <v>25.2</v>
@@ -17887,16 +17897,16 @@
         <v>2841</v>
       </c>
       <c r="DA59" t="n">
-        <v>-1.1</v>
+        <v>-1.6</v>
       </c>
       <c r="DB59" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="DC59" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="DD59" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -17939,8 +17949,14 @@
       <c r="K60" t="n">
         <v>0.5</v>
       </c>
+      <c r="L60" t="n">
+        <v>100</v>
+      </c>
       <c r="M60" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>14.7</v>
       </c>
       <c r="P60" t="n">
         <v>9</v>
@@ -17954,6 +17970,16 @@
       <c r="S60" t="n">
         <v>0</v>
       </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(20)</t>
+        </is>
+      </c>
       <c r="V60" t="n">
         <v>26.62</v>
       </c>
@@ -17984,9 +18010,23 @@
       <c r="AE60" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>49</v>
+      </c>
       <c r="AN60" t="n">
         <v>0.18</v>
       </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
       <c r="AR60" t="n">
         <v>3</v>
       </c>
@@ -17999,6 +18039,66 @@
       <c r="AU60" t="n">
         <v>1345</v>
       </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
+      </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(50)</t>
+        </is>
+      </c>
+      <c r="BF60" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
+      <c r="BG60" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
+      <c r="BH60" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI60" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>8.42</v>
+      </c>
       <c r="BP60" t="inlineStr">
         <is>
           <t>Có</t>
@@ -18028,6 +18128,38 @@
       <c r="BX60" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="BY60" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>1077.8</v>
+      </c>
+      <c r="CC60" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(100)</t>
+        </is>
+      </c>
+      <c r="CE60" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CG60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="CH60" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>2.4</v>
+      </c>
       <c r="CJ60" t="n">
         <v>51</v>
       </c>
@@ -18066,6 +18198,18 @@
       </c>
       <c r="CZ60" t="n">
         <v>1345</v>
+      </c>
+      <c r="DA60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="DB60" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="DC60" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="DD60" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="61">
@@ -18109,13 +18253,13 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>36.6</v>
+        <v>39.6</v>
       </c>
       <c r="M61" t="n">
-        <v>88.8</v>
+        <v>63</v>
       </c>
       <c r="N61" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="O61" t="n">
         <v>0.7</v>
@@ -18180,7 +18324,7 @@
         <v>92</v>
       </c>
       <c r="AJ61" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
@@ -18188,10 +18332,10 @@
         </is>
       </c>
       <c r="AL61" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="AM61" t="n">
-        <v>58</v>
+        <v>59.3</v>
       </c>
       <c r="AN61" t="n">
         <v>2.91</v>
@@ -18224,7 +18368,7 @@
         </is>
       </c>
       <c r="AW61" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX61" t="n">
         <v>0.4</v>
@@ -18246,22 +18390,22 @@
         </is>
       </c>
       <c r="BI61" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1.03</v>
+        <v>1.47</v>
       </c>
       <c r="BL61" t="n">
-        <v>-1</v>
+        <v>-0.57</v>
       </c>
       <c r="BM61" t="n">
-        <v>1.03</v>
+        <v>1.47</v>
       </c>
       <c r="BN61" t="n">
-        <v>90.33</v>
+        <v>91.16</v>
       </c>
       <c r="BO61" t="n">
-        <v>154.89</v>
+        <v>156</v>
       </c>
       <c r="BP61" t="inlineStr">
         <is>
@@ -18293,16 +18437,16 @@
         <v>357.7</v>
       </c>
       <c r="BY61" t="n">
-        <v>-19.1</v>
+        <v>-18.7</v>
       </c>
       <c r="BZ61" t="n">
-        <v>-18</v>
+        <v>-17.7</v>
       </c>
       <c r="CA61" t="n">
-        <v>92.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="CB61" t="n">
-        <v>918.6</v>
+        <v>923</v>
       </c>
       <c r="CC61" t="inlineStr">
         <is>
@@ -18310,13 +18454,13 @@
         </is>
       </c>
       <c r="CE61" t="n">
-        <v>-1</v>
+        <v>-0.57</v>
       </c>
       <c r="CF61" t="n">
         <v>210</v>
       </c>
       <c r="CG61" t="n">
-        <v>182.7</v>
+        <v>182.8</v>
       </c>
       <c r="CH61" t="n">
         <v>225.7</v>
@@ -18367,16 +18511,16 @@
         <v>10244</v>
       </c>
       <c r="DA61" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="DB61" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="DC61" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="DD61" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="62">
@@ -18607,7 +18751,7 @@
         <v>52.9</v>
       </c>
       <c r="M63" t="n">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="N63" t="n">
         <v>2</v>
@@ -18675,7 +18819,7 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AL63" t="n">
         <v>17.2</v>
@@ -18902,13 +19046,13 @@
         <v>0.7</v>
       </c>
       <c r="L64" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="M64" t="n">
         <v>40.2</v>
       </c>
       <c r="N64" t="n">
-        <v>19.4</v>
+        <v>0.4</v>
       </c>
       <c r="O64" t="n">
         <v>1.5</v>
@@ -18973,7 +19117,7 @@
         <v>70</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AL64" t="n">
         <v>24.5</v>
@@ -19508,13 +19652,13 @@
         <v>1.1</v>
       </c>
       <c r="L66" t="n">
-        <v>30.5</v>
+        <v>30.1</v>
       </c>
       <c r="M66" t="n">
-        <v>78.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0.7</v>
@@ -19570,7 +19714,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>19.85</v>
+        <v>20.23</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -19683,16 +19827,16 @@
         <v>-1.09</v>
       </c>
       <c r="CF66" t="n">
-        <v>3040.3</v>
+        <v>3039.1</v>
       </c>
       <c r="CG66" t="n">
-        <v>3827</v>
+        <v>3826.4</v>
       </c>
       <c r="CH66" t="n">
-        <v>3369.1</v>
+        <v>3368.8</v>
       </c>
       <c r="CI66" t="n">
-        <v>2127.1</v>
+        <v>2127</v>
       </c>
       <c r="CJ66" t="n">
         <v>14.9</v>
@@ -19790,7 +19934,7 @@
         <v>0.5</v>
       </c>
       <c r="M67" t="n">
-        <v>46</v>
+        <v>45.1</v>
       </c>
       <c r="P67" t="n">
         <v>6.4</v>
@@ -19971,13 +20115,13 @@
         <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="M68" t="n">
-        <v>21.4</v>
+        <v>24</v>
       </c>
       <c r="N68" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.8</v>
@@ -20042,7 +20186,7 @@
         <v>7</v>
       </c>
       <c r="AJ68" t="n">
-        <v>16.43</v>
+        <v>16.73</v>
       </c>
       <c r="AL68" t="n">
         <v>12.5</v>
@@ -20170,16 +20314,16 @@
         <v>-2.55</v>
       </c>
       <c r="CF68" t="n">
-        <v>1502.7</v>
+        <v>1497.3</v>
       </c>
       <c r="CG68" t="n">
-        <v>2332</v>
+        <v>2329.3</v>
       </c>
       <c r="CH68" t="n">
-        <v>2572.8</v>
+        <v>2571.5</v>
       </c>
       <c r="CI68" t="n">
-        <v>2102.7</v>
+        <v>2102.2</v>
       </c>
       <c r="CJ68" t="n">
         <v>70.7</v>
@@ -20282,13 +20426,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="M69" t="n">
-        <v>83.09999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="N69" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -20344,7 +20488,7 @@
         <v>91</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1084.56</v>
+        <v>1152.67</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -20352,10 +20496,10 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>34.55</v>
+        <v>34.15</v>
       </c>
       <c r="AM69" t="n">
-        <v>88.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="AN69" t="n">
         <v>25.84</v>
@@ -20391,46 +20535,41 @@
         <v>0.8</v>
       </c>
       <c r="AX69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AY69" t="n">
         <v>0.7</v>
       </c>
-      <c r="AY69" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AZ69" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BB69" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
-      <c r="BC69" t="inlineStr">
-        <is>
-          <t>Tín hiệu vượt đỉnh</t>
-        </is>
-      </c>
       <c r="BH69" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>16.72</v>
+        <v>15.37</v>
       </c>
       <c r="BJ69" t="n">
-        <v>61.83</v>
+        <v>59.95</v>
       </c>
       <c r="BL69" t="n">
-        <v>1.02</v>
+        <v>-0.15</v>
       </c>
       <c r="BM69" t="n">
-        <v>61.83</v>
+        <v>59.95</v>
       </c>
       <c r="BN69" t="n">
-        <v>92.36</v>
+        <v>90.13</v>
       </c>
       <c r="BO69" t="n">
-        <v>394.68</v>
+        <v>388.96</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -20456,16 +20595,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="BZ69" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="CA69" t="n">
-        <v>134.2</v>
+        <v>131.5</v>
       </c>
       <c r="CB69" t="n">
-        <v>524.6</v>
+        <v>517.3</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -20478,19 +20617,19 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>1.02</v>
+        <v>-0.15</v>
       </c>
       <c r="CF69" t="n">
-        <v>40526.3</v>
+        <v>40622</v>
       </c>
       <c r="CG69" t="n">
-        <v>42302.1</v>
+        <v>42349.9</v>
       </c>
       <c r="CH69" t="n">
-        <v>49260.2</v>
+        <v>49284.1</v>
       </c>
       <c r="CI69" t="n">
-        <v>42261.2</v>
+        <v>42270.8</v>
       </c>
       <c r="CJ69" t="n">
         <v>26.6</v>
@@ -20535,16 +20674,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>78.2</v>
+        <v>76.2</v>
       </c>
       <c r="DB69" t="n">
-        <v>22.9</v>
+        <v>21.6</v>
       </c>
       <c r="DC69" t="n">
-        <v>50.3</v>
+        <v>48.6</v>
       </c>
       <c r="DD69" t="n">
-        <v>71.40000000000001</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="70">
@@ -20588,13 +20727,13 @@
         <v>1.2</v>
       </c>
       <c r="L70" t="n">
-        <v>48.9</v>
+        <v>50.5</v>
       </c>
       <c r="M70" t="n">
-        <v>56.6</v>
+        <v>79.3</v>
       </c>
       <c r="N70" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="O70" t="n">
         <v>1</v>
@@ -20659,7 +20798,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -20667,10 +20806,10 @@
         </is>
       </c>
       <c r="AL70" t="n">
-        <v>9.199999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="AM70" t="n">
-        <v>52.4</v>
+        <v>52.2</v>
       </c>
       <c r="AN70" t="n">
         <v>0.66</v>
@@ -20680,7 +20819,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR70" t="n">
@@ -20698,7 +20837,7 @@
         </is>
       </c>
       <c r="AW70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX70" t="n">
         <v>0.2</v>
@@ -20720,22 +20859,22 @@
         </is>
       </c>
       <c r="BI70" t="n">
-        <v>-5.15</v>
+        <v>-5.26</v>
       </c>
       <c r="BJ70" t="n">
-        <v>14</v>
+        <v>13.88</v>
       </c>
       <c r="BL70" t="n">
-        <v>-2.23</v>
+        <v>-2.34</v>
       </c>
       <c r="BM70" t="n">
-        <v>14</v>
+        <v>13.88</v>
       </c>
       <c r="BN70" t="n">
-        <v>-27.84</v>
+        <v>-27.92</v>
       </c>
       <c r="BO70" t="n">
-        <v>35.23</v>
+        <v>35.08</v>
       </c>
       <c r="BP70" t="inlineStr">
         <is>
@@ -20767,16 +20906,16 @@
         <v>958.9</v>
       </c>
       <c r="BY70" t="n">
-        <v>-35.2</v>
+        <v>-35.3</v>
       </c>
       <c r="BZ70" t="n">
         <v>-82.3</v>
       </c>
       <c r="CA70" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="CB70" t="n">
-        <v>155.8</v>
+        <v>155.6</v>
       </c>
       <c r="CC70" t="inlineStr">
         <is>
@@ -20784,19 +20923,19 @@
         </is>
       </c>
       <c r="CE70" t="n">
-        <v>-2.23</v>
+        <v>-2.34</v>
       </c>
       <c r="CF70" t="n">
-        <v>735.4</v>
+        <v>734.7</v>
       </c>
       <c r="CG70" t="n">
-        <v>1431.2</v>
+        <v>1430.8</v>
       </c>
       <c r="CH70" t="n">
-        <v>1515.2</v>
+        <v>1515</v>
       </c>
       <c r="CI70" t="n">
-        <v>1171.1</v>
+        <v>1171</v>
       </c>
       <c r="CK70" t="n">
         <v>5</v>
@@ -20835,16 +20974,16 @@
         <v>1558</v>
       </c>
       <c r="DA70" t="n">
-        <v>-15.8</v>
+        <v>-15.9</v>
       </c>
       <c r="DB70" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DC70" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="DD70" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="71">
@@ -20888,10 +21027,10 @@
         <v>0.1</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M71" t="n">
-        <v>63</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="N71" t="n">
         <v>4</v>
@@ -20911,6 +21050,11 @@
       <c r="S71" t="n">
         <v>4.2</v>
       </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
       <c r="U71" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -20967,10 +21111,10 @@
         </is>
       </c>
       <c r="AL71" t="n">
-        <v>46.95</v>
+        <v>46.9</v>
       </c>
       <c r="AM71" t="n">
-        <v>45.6</v>
+        <v>45</v>
       </c>
       <c r="AN71" t="n">
         <v>11.06</v>
@@ -21006,7 +21150,7 @@
         </is>
       </c>
       <c r="AW71" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AX71" t="n">
         <v>0.8</v>
@@ -21028,22 +21172,22 @@
         </is>
       </c>
       <c r="BI71" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="BJ71" t="n">
-        <v>-1.54</v>
+        <v>-1.64</v>
       </c>
       <c r="BL71" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BM71" t="n">
-        <v>-1.54</v>
+        <v>-1.64</v>
       </c>
       <c r="BN71" t="n">
-        <v>-2.11</v>
+        <v>-2.21</v>
       </c>
       <c r="BO71" t="n">
-        <v>269.58</v>
+        <v>269.18</v>
       </c>
       <c r="BP71" t="inlineStr">
         <is>
@@ -21078,13 +21222,13 @@
         <v>-11.8</v>
       </c>
       <c r="BZ71" t="n">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="CA71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="CB71" t="n">
-        <v>2068.8</v>
+        <v>2066.5</v>
       </c>
       <c r="CC71" t="inlineStr">
         <is>
@@ -21092,7 +21236,7 @@
         </is>
       </c>
       <c r="CE71" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="CF71" t="n">
         <v>4.9</v>
@@ -21149,16 +21293,16 @@
         <v>3449</v>
       </c>
       <c r="DA71" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="DB71" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="DC71" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="DD71" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="72">
@@ -21202,7 +21346,7 @@
         <v>31.4</v>
       </c>
       <c r="M72" t="n">
-        <v>17.3</v>
+        <v>18.9</v>
       </c>
       <c r="N72" t="n">
         <v>1.4</v>
@@ -21384,7 +21528,7 @@
         <v>-1.29</v>
       </c>
       <c r="CF72" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="CG72" t="n">
         <v>81.7</v>

--- a/market_filtered.xlsx
+++ b/market_filtered.xlsx
@@ -1133,16 +1133,16 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>63.3</v>
+        <v>56.2</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4</v>
+        <v>38.8</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P2" t="n">
         <v>9.199999999999999</v>
@@ -1200,18 +1200,18 @@
         <v>84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>170.3</v>
+        <v>208.88</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="AM2" t="n">
-        <v>71.8</v>
+        <v>71</v>
       </c>
       <c r="AN2" t="n">
         <v>16.49</v>
@@ -1242,16 +1242,16 @@
         </is>
       </c>
       <c r="AW2" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AX2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY2" t="n">
         <v>1.3</v>
       </c>
-      <c r="AY2" t="n">
-        <v>1.1</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
@@ -1269,19 +1269,19 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>3.32</v>
+        <v>2.54</v>
       </c>
       <c r="BJ2" t="n">
-        <v>47.67</v>
+        <v>46.57</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="BM2" t="n">
-        <v>47.67</v>
+        <v>46.57</v>
       </c>
       <c r="BN2" t="n">
-        <v>73.58</v>
+        <v>72.28</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1307,16 +1307,16 @@
         <v>116.3</v>
       </c>
       <c r="BY2" t="n">
-        <v>-3.6</v>
+        <v>-4.3</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-18.5</v>
+        <v>-19.1</v>
       </c>
       <c r="CA2" t="n">
-        <v>119.7</v>
+        <v>118</v>
       </c>
       <c r="CB2" t="n">
-        <v>138.6</v>
+        <v>136.8</v>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="CF2" t="n">
-        <v>8889.299999999999</v>
+        <v>8888.9</v>
       </c>
       <c r="CG2" t="n">
-        <v>9629.700000000001</v>
+        <v>9629.5</v>
       </c>
       <c r="CH2" t="n">
-        <v>11589.6</v>
+        <v>11589.5</v>
       </c>
       <c r="CI2" t="n">
-        <v>6632.3</v>
+        <v>6632.2</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1381,16 +1381,16 @@
         <v>1406</v>
       </c>
       <c r="DA2" t="n">
-        <v>63.1</v>
+        <v>61.9</v>
       </c>
       <c r="DB2" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="DC2" t="n">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
       <c r="DD2" t="n">
-        <v>50.4</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="3">
@@ -1437,13 +1437,13 @@
         <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
-        <v>93.40000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P3" t="n">
         <v>17.9</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="AL3" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>69.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="AN3" t="n">
         <v>2.28</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>Mua mạnh</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR3" t="n">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AX3" t="n">
         <v>0.4</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>0.3</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.2</v>
       </c>
       <c r="AZ3" t="n">
         <v>0.1</v>
@@ -1569,22 +1569,22 @@
         </is>
       </c>
       <c r="BI3" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BL3" t="n">
         <v>0</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>1.11</v>
-      </c>
       <c r="BM3" t="n">
-        <v>13.75</v>
+        <v>12.5</v>
       </c>
       <c r="BN3" t="n">
-        <v>65.45</v>
+        <v>63.64</v>
       </c>
       <c r="BO3" t="n">
-        <v>21.33</v>
+        <v>20</v>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         <v>48.4</v>
       </c>
       <c r="BY3" t="n">
-        <v>-2.1</v>
+        <v>-3.2</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-55</v>
+        <v>-55.5</v>
       </c>
       <c r="CA3" t="n">
-        <v>111.6</v>
+        <v>109.3</v>
       </c>
       <c r="CB3" t="n">
-        <v>651.9</v>
+        <v>643.7</v>
       </c>
       <c r="CC3" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="CE3" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
         <v>0.5</v>
@@ -1687,16 +1687,16 @@
         <v>503</v>
       </c>
       <c r="DA3" t="n">
-        <v>68</v>
+        <v>66.2</v>
       </c>
       <c r="DB3" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="DC3" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="DD3" t="n">
-        <v>52.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="4">
@@ -1740,13 +1740,13 @@
         <v>0.3</v>
       </c>
       <c r="M4" t="n">
-        <v>62.8</v>
+        <v>61.5</v>
       </c>
       <c r="N4" t="n">
         <v>48.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="P4" t="n">
         <v>11.6</v>
@@ -1808,7 +1808,7 @@
         <v>35</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AL4" t="n">
         <v>54.8</v>
@@ -1845,16 +1845,16 @@
         </is>
       </c>
       <c r="AW4" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
         <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>79.40000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="M5" t="n">
-        <v>54.4</v>
+        <v>46.2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P5" t="n">
         <v>14.8</v>
@@ -2108,7 +2108,7 @@
         <v>73</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="AM5" t="n">
-        <v>65.7</v>
+        <v>62.8</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>Mua mạnh</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR5" t="n">
@@ -2147,16 +2147,16 @@
         </is>
       </c>
       <c r="AW5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
@@ -2169,22 +2169,22 @@
         </is>
       </c>
       <c r="BI5" t="n">
-        <v>7.09</v>
+        <v>5.67</v>
       </c>
       <c r="BJ5" t="n">
-        <v>22.76</v>
+        <v>21.14</v>
       </c>
       <c r="BL5" t="n">
-        <v>-3.21</v>
+        <v>-4.49</v>
       </c>
       <c r="BM5" t="n">
-        <v>22.76</v>
+        <v>21.14</v>
       </c>
       <c r="BN5" t="n">
-        <v>38.03</v>
+        <v>36.2</v>
       </c>
       <c r="BO5" t="n">
-        <v>20.76</v>
+        <v>19.16</v>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
@@ -2210,16 +2210,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BY5" t="n">
-        <v>-7.4</v>
+        <v>-8.6</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-40.4</v>
+        <v>-41.2</v>
       </c>
       <c r="CA5" t="n">
-        <v>56.8</v>
+        <v>54.7</v>
       </c>
       <c r="CB5" t="n">
-        <v>55.2</v>
+        <v>53.1</v>
       </c>
       <c r="CC5" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="CE5" t="n">
-        <v>-3.21</v>
+        <v>-4.49</v>
       </c>
       <c r="CF5" t="n">
         <v>94.90000000000001</v>
@@ -2281,16 +2281,16 @@
         <v>1057</v>
       </c>
       <c r="DA5" t="n">
-        <v>30.8</v>
+        <v>29</v>
       </c>
       <c r="DB5" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="DC5" t="n">
-        <v>18.7</v>
+        <v>17.2</v>
       </c>
       <c r="DD5" t="n">
-        <v>27.1</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="6">
@@ -2334,16 +2334,16 @@
         <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>35.8</v>
+        <v>36.2</v>
       </c>
       <c r="M6" t="n">
-        <v>60.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>9.800000000000001</v>
@@ -2405,7 +2405,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.76</v>
+        <v>14.42</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>134.6</v>
+        <v>133.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>30.9</v>
+        <v>28.7</v>
       </c>
       <c r="AN6" t="n">
         <v>84.93000000000001</v>
@@ -2449,16 +2449,16 @@
         </is>
       </c>
       <c r="AW6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
@@ -2467,26 +2467,26 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Vào vùng quá bán</t>
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>-4.2</v>
+        <v>-4.98</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-5.61</v>
+        <v>-6.38</v>
       </c>
       <c r="BL6" t="n">
-        <v>-1.03</v>
+        <v>-1.84</v>
       </c>
       <c r="BM6" t="n">
-        <v>-5.61</v>
+        <v>-6.38</v>
       </c>
       <c r="BN6" t="n">
-        <v>44.5</v>
+        <v>43.31</v>
       </c>
       <c r="BO6" t="n">
-        <v>301.65</v>
+        <v>298.37</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
         <v>51.1</v>
       </c>
       <c r="BY6" t="n">
-        <v>-10.9</v>
+        <v>-11.6</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-7.8</v>
+        <v>-8.6</v>
       </c>
       <c r="CA6" t="n">
-        <v>45.1</v>
+        <v>43.9</v>
       </c>
       <c r="CB6" t="n">
-        <v>9054.1</v>
+        <v>8979.299999999999</v>
       </c>
       <c r="CC6" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
         </is>
       </c>
       <c r="CE6" t="n">
-        <v>-1.03</v>
+        <v>-1.84</v>
       </c>
       <c r="CF6" t="n">
-        <v>190.8</v>
+        <v>190.3</v>
       </c>
       <c r="CG6" t="n">
-        <v>166</v>
+        <v>165.8</v>
       </c>
       <c r="CH6" t="n">
-        <v>146.7</v>
+        <v>146.6</v>
       </c>
       <c r="CI6" t="n">
         <v>153.4</v>
@@ -2592,16 +2592,16 @@
         <v>13894</v>
       </c>
       <c r="DA6" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="DB6" t="n">
-        <v>-4.2</v>
+        <v>-4.9</v>
       </c>
       <c r="DC6" t="n">
-        <v>-4.2</v>
+        <v>-5</v>
       </c>
       <c r="DD6" t="n">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -2645,13 +2645,13 @@
         <v>0.3</v>
       </c>
       <c r="M7" t="n">
-        <v>86.5</v>
+        <v>77</v>
       </c>
       <c r="N7" t="n">
-        <v>25.6</v>
+        <v>51.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P7" t="n">
         <v>13</v>
@@ -2713,7 +2713,7 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AL7" t="n">
         <v>23.2</v>
@@ -2750,16 +2750,16 @@
         </is>
       </c>
       <c r="AW7" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
@@ -2943,16 +2943,16 @@
         <v>0.5</v>
       </c>
       <c r="L8" t="n">
-        <v>81.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="M8" t="n">
-        <v>42.7</v>
+        <v>53.7</v>
       </c>
       <c r="N8" t="n">
-        <v>12.7</v>
+        <v>16.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>6.9</v>
@@ -3016,13 +3016,13 @@
         <v>92</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="AL8" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="AM8" t="n">
-        <v>63.3</v>
+        <v>59.7</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR8" t="n">
@@ -3050,16 +3050,21 @@
         </is>
       </c>
       <c r="AW8" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
@@ -3072,19 +3077,19 @@
         </is>
       </c>
       <c r="BI8" t="n">
-        <v>0.87</v>
+        <v>-1.13</v>
       </c>
       <c r="BJ8" t="n">
-        <v>36.34</v>
+        <v>33.63</v>
       </c>
       <c r="BL8" t="n">
-        <v>-1.04</v>
+        <v>-3.01</v>
       </c>
       <c r="BM8" t="n">
-        <v>36.34</v>
+        <v>33.63</v>
       </c>
       <c r="BN8" t="n">
-        <v>95.56999999999999</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
@@ -3116,16 +3121,16 @@
         <v>37553.8</v>
       </c>
       <c r="BY8" t="n">
-        <v>-5.6</v>
+        <v>-7.5</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-52.7</v>
+        <v>-53.7</v>
       </c>
       <c r="CA8" t="n">
-        <v>171.4</v>
+        <v>166</v>
       </c>
       <c r="CB8" t="n">
-        <v>195.2</v>
+        <v>189.3</v>
       </c>
       <c r="CC8" t="inlineStr">
         <is>
@@ -3133,7 +3138,7 @@
         </is>
       </c>
       <c r="CE8" t="n">
-        <v>-1.04</v>
+        <v>-3.01</v>
       </c>
       <c r="CF8" t="n">
         <v>24.1</v>
@@ -3184,16 +3189,16 @@
         <v>2936</v>
       </c>
       <c r="DA8" t="n">
-        <v>74.2</v>
+        <v>70.7</v>
       </c>
       <c r="DB8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DC8" t="n">
-        <v>22.7</v>
+        <v>20.3</v>
       </c>
       <c r="DD8" t="n">
-        <v>44.4</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="9">
@@ -3237,16 +3242,16 @@
         <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>47.9</v>
+        <v>46.1</v>
       </c>
       <c r="M9" t="n">
-        <v>29.7</v>
+        <v>33.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P9" t="n">
         <v>10.7</v>
@@ -3308,7 +3313,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
@@ -3316,10 +3321,10 @@
         </is>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>33.95</v>
       </c>
       <c r="AM9" t="n">
-        <v>38.3</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="n">
         <v>3.35</v>
@@ -3356,7 +3361,7 @@
         <v>0.3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
@@ -3374,22 +3379,22 @@
         </is>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-3.27</v>
+        <v>-3.41</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.15</v>
+        <v>-0.29</v>
       </c>
       <c r="BM9" t="n">
-        <v>-3.27</v>
+        <v>-3.41</v>
       </c>
       <c r="BN9" t="n">
-        <v>5.31</v>
+        <v>5.16</v>
       </c>
       <c r="BO9" t="n">
-        <v>165</v>
+        <v>164.61</v>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
@@ -3421,16 +3426,16 @@
         <v>286.4</v>
       </c>
       <c r="BY9" t="n">
-        <v>-13.1</v>
+        <v>-13.2</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-11.2</v>
+        <v>-11.4</v>
       </c>
       <c r="CA9" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="CB9" t="n">
-        <v>951.2</v>
+        <v>949.6</v>
       </c>
       <c r="CC9" t="inlineStr">
         <is>
@@ -3438,7 +3443,7 @@
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>-0.15</v>
+        <v>-0.29</v>
       </c>
       <c r="CF9" t="n">
         <v>86.5</v>
@@ -3495,16 +3500,16 @@
         <v>3179</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="DB9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="DD9" t="n">
         <v>-0.6</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3548,16 +3553,16 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>59.6</v>
+        <v>56.1</v>
       </c>
       <c r="M10" t="n">
-        <v>67.7</v>
+        <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>8.800000000000001</v>
@@ -3610,7 +3615,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="n">
-        <v>346.42</v>
+        <v>529.37</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3618,10 +3623,10 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="AN10" t="n">
         <v>26.83</v>
@@ -3654,16 +3659,16 @@
         </is>
       </c>
       <c r="AW10" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
@@ -3676,22 +3681,22 @@
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>4.38</v>
+        <v>4.17</v>
       </c>
       <c r="BJ10" t="n">
-        <v>11.21</v>
+        <v>10.99</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BM10" t="n">
-        <v>11.21</v>
+        <v>10.99</v>
       </c>
       <c r="BN10" t="n">
-        <v>53.45</v>
+        <v>53.14</v>
       </c>
       <c r="BO10" t="n">
-        <v>222.25</v>
+        <v>221.6</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -3717,16 +3722,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="CA10" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="CB10" t="n">
-        <v>825</v>
+        <v>823.2</v>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
@@ -3734,19 +3739,19 @@
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="CF10" t="n">
-        <v>11744.7</v>
+        <v>11735.7</v>
       </c>
       <c r="CG10" t="n">
-        <v>12120.3</v>
+        <v>12115.7</v>
       </c>
       <c r="CH10" t="n">
-        <v>12931</v>
+        <v>12928.7</v>
       </c>
       <c r="CI10" t="n">
-        <v>9818</v>
+        <v>9817.1</v>
       </c>
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
@@ -3791,16 +3796,16 @@
         <v>5608</v>
       </c>
       <c r="DA10" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="DB10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="DC10" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="DD10" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="11">
@@ -3844,16 +3849,16 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>41.7</v>
+        <v>46.5</v>
       </c>
       <c r="M11" t="n">
-        <v>70.09999999999999</v>
+        <v>50.8</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="P11" t="n">
         <v>12</v>
@@ -3915,7 +3920,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>43.89</v>
+        <v>74.78</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3923,10 +3928,10 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>26.15</v>
+        <v>25.9</v>
       </c>
       <c r="AM11" t="n">
-        <v>49.5</v>
+        <v>47.6</v>
       </c>
       <c r="AN11" t="n">
         <v>2.5</v>
@@ -3954,16 +3959,16 @@
         </is>
       </c>
       <c r="AW11" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
@@ -3981,22 +3986,22 @@
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>-4.21</v>
+        <v>-5.13</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2.75</v>
+        <v>1.77</v>
       </c>
       <c r="BL11" t="n">
-        <v>-4.04</v>
+        <v>-4.95</v>
       </c>
       <c r="BM11" t="n">
-        <v>2.75</v>
+        <v>1.77</v>
       </c>
       <c r="BN11" t="n">
-        <v>64.98</v>
+        <v>63.41</v>
       </c>
       <c r="BO11" t="n">
-        <v>131.04</v>
+        <v>128.83</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -4028,16 +4033,16 @@
         <v>36.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>-9.699999999999999</v>
+        <v>-10.5</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-15.1</v>
+        <v>-15.9</v>
       </c>
       <c r="CA11" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="CB11" t="n">
-        <v>763.1</v>
+        <v>754.8</v>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
@@ -4045,19 +4050,19 @@
         </is>
       </c>
       <c r="CE11" t="n">
-        <v>-4.04</v>
+        <v>-4.95</v>
       </c>
       <c r="CF11" t="n">
-        <v>1784.1</v>
+        <v>1773</v>
       </c>
       <c r="CG11" t="n">
-        <v>2051.7</v>
+        <v>2046.1</v>
       </c>
       <c r="CH11" t="n">
-        <v>2568.7</v>
+        <v>2565.9</v>
       </c>
       <c r="CI11" t="n">
-        <v>2425.7</v>
+        <v>2424.6</v>
       </c>
       <c r="CJ11" t="n">
         <v>18.3</v>
@@ -4102,16 +4107,16 @@
         <v>2263</v>
       </c>
       <c r="DA11" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="DB11" t="n">
-        <v>-1.6</v>
+        <v>-2.5</v>
       </c>
       <c r="DC11" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="DD11" t="n">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="12">
@@ -4155,16 +4160,16 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>44.2</v>
+        <v>40.9</v>
       </c>
       <c r="M12" t="n">
-        <v>84.40000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>7.2</v>
@@ -4226,18 +4231,18 @@
         <v>61</v>
       </c>
       <c r="AJ12" t="n">
-        <v>94.47</v>
+        <v>192.22</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Mua &gt; Bán</t>
+          <t>Mua &lt; Bán</t>
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>29.25</v>
+        <v>28.6</v>
       </c>
       <c r="AM12" t="n">
-        <v>45.3</v>
+        <v>41.1</v>
       </c>
       <c r="AN12" t="n">
         <v>4.29</v>
@@ -4252,7 +4257,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR12" t="n">
@@ -4270,20 +4275,20 @@
         </is>
       </c>
       <c r="AW12" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(50)</t>
+          <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
@@ -4292,22 +4297,22 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-6.4</v>
+        <v>-8.48</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.19</v>
+        <v>-2.41</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.17</v>
+        <v>-2.39</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.19</v>
+        <v>-2.41</v>
       </c>
       <c r="BN12" t="n">
-        <v>18.23</v>
+        <v>15.6</v>
       </c>
       <c r="BO12" t="n">
-        <v>104.7</v>
+        <v>100.15</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4339,16 +4344,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-9.6</v>
+        <v>-11.6</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-6.4</v>
+        <v>-8.5</v>
       </c>
       <c r="CA12" t="n">
-        <v>53.2</v>
+        <v>49.8</v>
       </c>
       <c r="CB12" t="n">
-        <v>2556.2</v>
+        <v>2497.2</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4356,19 +4361,19 @@
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>-0.17</v>
+        <v>-2.39</v>
       </c>
       <c r="CF12" t="n">
-        <v>9849.1</v>
+        <v>9846</v>
       </c>
       <c r="CG12" t="n">
-        <v>10610.6</v>
+        <v>10609.1</v>
       </c>
       <c r="CH12" t="n">
-        <v>12013.7</v>
+        <v>12012.9</v>
       </c>
       <c r="CI12" t="n">
-        <v>11361.8</v>
+        <v>11361.5</v>
       </c>
       <c r="CJ12" t="n">
         <v>27.8</v>
@@ -4413,16 +4418,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>15.2</v>
+        <v>12.7</v>
       </c>
       <c r="DB12" t="n">
-        <v>-3</v>
+        <v>-5.1</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.1</v>
+        <v>-2</v>
       </c>
       <c r="DD12" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13">
@@ -4466,16 +4471,16 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>40.2</v>
+        <v>39.3</v>
       </c>
       <c r="M13" t="n">
-        <v>45.5</v>
+        <v>4.4</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
         <v>13</v>
@@ -4542,7 +4547,7 @@
         <v>57</v>
       </c>
       <c r="AJ13" t="n">
-        <v>179.93</v>
+        <v>284.66</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4550,10 +4555,10 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>40.8</v>
+        <v>40.65</v>
       </c>
       <c r="AM13" t="n">
-        <v>61.4</v>
+        <v>60.6</v>
       </c>
       <c r="AN13" t="n">
         <v>6.47</v>
@@ -4586,16 +4591,16 @@
         </is>
       </c>
       <c r="AW13" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
@@ -4613,22 +4618,22 @@
         </is>
       </c>
       <c r="BI13" t="n">
-        <v>-1.21</v>
+        <v>-1.57</v>
       </c>
       <c r="BJ13" t="n">
-        <v>20.71</v>
+        <v>20.27</v>
       </c>
       <c r="BL13" t="n">
-        <v>-2.86</v>
+        <v>-3.21</v>
       </c>
       <c r="BM13" t="n">
-        <v>20.71</v>
+        <v>20.27</v>
       </c>
       <c r="BN13" t="n">
-        <v>14.43</v>
+        <v>14.01</v>
       </c>
       <c r="BO13" t="n">
-        <v>571.1900000000001</v>
+        <v>568.72</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
@@ -4660,16 +4665,16 @@
         <v>18.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="CA13" t="n">
-        <v>74.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="CB13" t="n">
-        <v>997.5</v>
+        <v>993.5</v>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
@@ -4677,19 +4682,19 @@
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>-2.86</v>
+        <v>-3.21</v>
       </c>
       <c r="CF13" t="n">
-        <v>6289.7</v>
+        <v>6269.1</v>
       </c>
       <c r="CG13" t="n">
-        <v>7355.2</v>
+        <v>7344.9</v>
       </c>
       <c r="CH13" t="n">
-        <v>7847.2</v>
+        <v>7842.1</v>
       </c>
       <c r="CI13" t="n">
-        <v>6080.4</v>
+        <v>6078.4</v>
       </c>
       <c r="CJ13" t="n">
         <v>85.5</v>
@@ -4734,16 +4739,16 @@
         <v>3221</v>
       </c>
       <c r="DA13" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="DB13" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="DC13" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="DD13" t="n">
-        <v>22.7</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="14">
@@ -4787,16 +4792,16 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>30.1</v>
+        <v>35.9</v>
       </c>
       <c r="M14" t="n">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
         <v>13.7</v>
@@ -4858,13 +4863,13 @@
         <v>89</v>
       </c>
       <c r="AJ14" t="n">
-        <v>33.47</v>
+        <v>53.68</v>
       </c>
       <c r="AL14" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="AM14" t="n">
-        <v>49.9</v>
+        <v>48.3</v>
       </c>
       <c r="AN14" t="n">
         <v>4.86</v>
@@ -4897,16 +4902,16 @@
         </is>
       </c>
       <c r="AW14" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
@@ -4929,22 +4934,22 @@
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>-7.8</v>
+        <v>-8.67</v>
       </c>
       <c r="BJ14" t="n">
-        <v>6.33</v>
+        <v>5.33</v>
       </c>
       <c r="BL14" t="n">
-        <v>-3.49</v>
+        <v>-4.4</v>
       </c>
       <c r="BM14" t="n">
-        <v>6.33</v>
+        <v>5.33</v>
       </c>
       <c r="BN14" t="n">
-        <v>77.36</v>
+        <v>75.69</v>
       </c>
       <c r="BO14" t="n">
-        <v>569.49</v>
+        <v>563.2</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
@@ -4976,16 +4981,16 @@
         <v>361.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>-9.6</v>
+        <v>-10.5</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-8.1</v>
+        <v>-9</v>
       </c>
       <c r="CA14" t="n">
-        <v>161.5</v>
+        <v>159.1</v>
       </c>
       <c r="CB14" t="n">
-        <v>850.1</v>
+        <v>841.1</v>
       </c>
       <c r="CC14" t="inlineStr">
         <is>
@@ -4993,19 +4998,19 @@
         </is>
       </c>
       <c r="CE14" t="n">
-        <v>-3.49</v>
+        <v>-4.4</v>
       </c>
       <c r="CF14" t="n">
-        <v>1523.1</v>
+        <v>1515.3</v>
       </c>
       <c r="CG14" t="n">
-        <v>1465.9</v>
+        <v>1462</v>
       </c>
       <c r="CH14" t="n">
-        <v>1883.3</v>
+        <v>1881.3</v>
       </c>
       <c r="CI14" t="n">
-        <v>2047.6</v>
+        <v>2046.8</v>
       </c>
       <c r="CJ14" t="n">
         <v>70.09999999999999</v>
@@ -5047,16 +5052,16 @@
         <v>2413</v>
       </c>
       <c r="DA14" t="n">
-        <v>46</v>
+        <v>44.6</v>
       </c>
       <c r="DB14" t="n">
-        <v>-2.6</v>
+        <v>-3.4</v>
       </c>
       <c r="DC14" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="DD14" t="n">
-        <v>25</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="15">
@@ -5100,16 +5105,16 @@
         <v>1.4</v>
       </c>
       <c r="L15" t="n">
-        <v>57.2</v>
+        <v>43.4</v>
       </c>
       <c r="M15" t="n">
-        <v>32.1</v>
+        <v>32.7</v>
       </c>
       <c r="N15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
       </c>
       <c r="P15" t="n">
         <v>5.9</v>
@@ -5171,13 +5176,18 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.6</v>
+        <v>11.35</v>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Mua &lt; Bán</t>
+        </is>
       </c>
       <c r="AL15" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="AM15" t="n">
-        <v>39.4</v>
+        <v>37.4</v>
       </c>
       <c r="AN15" t="n">
         <v>0.85</v>
@@ -5205,16 +5215,16 @@
         </is>
       </c>
       <c r="AW15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
@@ -5227,22 +5237,22 @@
         </is>
       </c>
       <c r="BI15" t="n">
-        <v>-4.81</v>
+        <v>-5.58</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-5.63</v>
+        <v>-6.39</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.48</v>
+        <v>-1.28</v>
       </c>
       <c r="BM15" t="n">
-        <v>-5.63</v>
+        <v>-6.39</v>
       </c>
       <c r="BN15" t="n">
-        <v>28.84</v>
+        <v>27.8</v>
       </c>
       <c r="BO15" t="n">
-        <v>316.25</v>
+        <v>312.89</v>
       </c>
       <c r="BP15" t="inlineStr">
         <is>
@@ -5274,16 +5284,16 @@
         <v>167.2</v>
       </c>
       <c r="BY15" t="n">
-        <v>-24.4</v>
+        <v>-25</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-28.4</v>
+        <v>-28.9</v>
       </c>
       <c r="CA15" t="n">
-        <v>58.8</v>
+        <v>57.5</v>
       </c>
       <c r="CB15" t="n">
-        <v>409.9</v>
+        <v>405.8</v>
       </c>
       <c r="CC15" t="inlineStr">
         <is>
@@ -5291,19 +5301,19 @@
         </is>
       </c>
       <c r="CE15" t="n">
-        <v>-0.48</v>
+        <v>-1.28</v>
       </c>
       <c r="CF15" t="n">
-        <v>957</v>
+        <v>955.6</v>
       </c>
       <c r="CG15" t="n">
-        <v>1140</v>
+        <v>1139.3</v>
       </c>
       <c r="CH15" t="n">
-        <v>1413.6</v>
+        <v>1413.3</v>
       </c>
       <c r="CI15" t="n">
-        <v>1344.4</v>
+        <v>1344.3</v>
       </c>
       <c r="CJ15" t="n">
         <v>46.4</v>
@@ -5353,16 +5363,16 @@
         <v>2122</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="DB15" t="n">
-        <v>-3.8</v>
+        <v>-4.6</v>
       </c>
       <c r="DC15" t="n">
-        <v>-2.1</v>
+        <v>-2.9</v>
       </c>
       <c r="DD15" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
@@ -5406,16 +5416,16 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>35.3</v>
+        <v>41.9</v>
       </c>
       <c r="M16" t="n">
-        <v>22.7</v>
+        <v>26.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
         <v>6.9</v>
@@ -5482,7 +5492,7 @@
         <v>33</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.08</v>
+        <v>23.5</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5490,10 +5500,10 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="AM16" t="n">
-        <v>63.4</v>
+        <v>57.1</v>
       </c>
       <c r="AN16" t="n">
         <v>1.66</v>
@@ -5521,16 +5531,16 @@
         </is>
       </c>
       <c r="AW16" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
@@ -5548,22 +5558,22 @@
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>-2.6</v>
+        <v>-6.06</v>
       </c>
       <c r="BJ16" t="n">
-        <v>19.68</v>
+        <v>15.43</v>
       </c>
       <c r="BL16" t="n">
-        <v>-3.02</v>
+        <v>-6.47</v>
       </c>
       <c r="BM16" t="n">
-        <v>19.68</v>
+        <v>15.43</v>
       </c>
       <c r="BN16" t="n">
-        <v>-1.14</v>
+        <v>-4.65</v>
       </c>
       <c r="BO16" t="n">
-        <v>161.38</v>
+        <v>152.09</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -5595,16 +5605,16 @@
         <v>32.8</v>
       </c>
       <c r="BY16" t="n">
-        <v>-8.4</v>
+        <v>-11.7</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-24.3</v>
+        <v>-26.9</v>
       </c>
       <c r="CA16" t="n">
-        <v>93.3</v>
+        <v>86.5</v>
       </c>
       <c r="CB16" t="n">
-        <v>533.3</v>
+        <v>510.8</v>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
@@ -5612,13 +5622,13 @@
         </is>
       </c>
       <c r="CE16" t="n">
-        <v>-3.02</v>
+        <v>-6.47</v>
       </c>
       <c r="CF16" t="n">
-        <v>1137.2</v>
+        <v>1137.1</v>
       </c>
       <c r="CG16" t="n">
-        <v>1458.4</v>
+        <v>1458.3</v>
       </c>
       <c r="CH16" t="n">
         <v>1475.7</v>
@@ -5669,16 +5679,16 @@
         <v>3364</v>
       </c>
       <c r="DA16" t="n">
-        <v>16.3</v>
+        <v>12.2</v>
       </c>
       <c r="DB16" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="DC16" t="n">
-        <v>19.7</v>
+        <v>15.6</v>
       </c>
       <c r="DD16" t="n">
-        <v>31.2</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="17">
@@ -5722,16 +5732,16 @@
         <v>-0.1</v>
       </c>
       <c r="L17" t="n">
-        <v>69.2</v>
+        <v>79</v>
       </c>
       <c r="M17" t="n">
-        <v>64.8</v>
+        <v>55.1</v>
       </c>
       <c r="N17" t="n">
-        <v>9.5</v>
+        <v>38</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P17" t="n">
         <v>11</v>
@@ -5796,10 +5806,10 @@
         <v>0.02</v>
       </c>
       <c r="AL17" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>46.6</v>
+        <v>39.8</v>
       </c>
       <c r="AN17" t="n">
         <v>0.01</v>
@@ -5809,7 +5819,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Bán mạnh</t>
         </is>
       </c>
       <c r="AR17" t="n">
@@ -5826,20 +5836,20 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW17" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
@@ -5852,22 +5862,22 @@
         </is>
       </c>
       <c r="BI17" t="n">
-        <v>-0.8</v>
+        <v>-4</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0.77</v>
+        <v>-3.97</v>
       </c>
       <c r="BO17" t="n">
-        <v>98.73999999999999</v>
+        <v>92.33</v>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
@@ -5899,16 +5909,16 @@
         <v>10.5</v>
       </c>
       <c r="BY17" t="n">
-        <v>-12.8</v>
+        <v>-15.7</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-20.4</v>
+        <v>-22.9</v>
       </c>
       <c r="CA17" t="n">
-        <v>18.4</v>
+        <v>14.5</v>
       </c>
       <c r="CB17" t="n">
-        <v>150.6</v>
+        <v>142.5</v>
       </c>
       <c r="CC17" t="inlineStr">
         <is>
@@ -5916,7 +5926,7 @@
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="CF17" t="n">
         <v>2.6</v>
@@ -5978,16 +5988,16 @@
         <v>1131</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.1</v>
+        <v>-3.1</v>
       </c>
       <c r="DB17" t="n">
-        <v>-1.7</v>
+        <v>-4.8</v>
       </c>
       <c r="DC17" t="n">
-        <v>-1</v>
+        <v>-4.1</v>
       </c>
       <c r="DD17" t="n">
-        <v>-1.1</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="18">
@@ -6031,16 +6041,16 @@
         <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>42.8</v>
+        <v>37.9</v>
       </c>
       <c r="M18" t="n">
-        <v>67.90000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
         <v>16.4</v>
@@ -6102,7 +6112,7 @@
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.039999999999999</v>
+        <v>12.16</v>
       </c>
       <c r="AL18" t="n">
         <v>66</v>
@@ -6141,16 +6151,16 @@
         </is>
       </c>
       <c r="AW18" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
@@ -6509,16 +6519,16 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>31.5</v>
+        <v>29.9</v>
       </c>
       <c r="M20" t="n">
-        <v>85.40000000000001</v>
+        <v>49</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="n">
         <v>10.9</v>
@@ -6580,18 +6590,18 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.46</v>
+        <v>36.1</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="AM20" t="n">
-        <v>42.9</v>
+        <v>39.8</v>
       </c>
       <c r="AN20" t="n">
         <v>46.36</v>
@@ -6624,16 +6634,16 @@
         </is>
       </c>
       <c r="AW20" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
@@ -6646,22 +6656,22 @@
         </is>
       </c>
       <c r="BI20" t="n">
-        <v>-5.75</v>
+        <v>-7.47</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-1.5</v>
+        <v>-3.3</v>
       </c>
       <c r="BL20" t="n">
-        <v>-1.8</v>
+        <v>-3.59</v>
       </c>
       <c r="BM20" t="n">
-        <v>-1.5</v>
+        <v>-3.3</v>
       </c>
       <c r="BN20" t="n">
-        <v>34.01</v>
+        <v>31.55</v>
       </c>
       <c r="BO20" t="n">
-        <v>42.22</v>
+        <v>39.62</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -6693,16 +6703,16 @@
         <v>321.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>-11.1</v>
+        <v>-12.7</v>
       </c>
       <c r="BZ20" t="n">
-        <v>-31.9</v>
+        <v>-33.1</v>
       </c>
       <c r="CA20" t="n">
-        <v>56.9</v>
+        <v>54.1</v>
       </c>
       <c r="CB20" t="n">
-        <v>181.2</v>
+        <v>176</v>
       </c>
       <c r="CC20" t="inlineStr">
         <is>
@@ -6710,13 +6720,13 @@
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>-1.8</v>
+        <v>-3.59</v>
       </c>
       <c r="CF20" t="n">
-        <v>1698.4</v>
+        <v>1698.2</v>
       </c>
       <c r="CG20" t="n">
-        <v>2054.7</v>
+        <v>2054.6</v>
       </c>
       <c r="CH20" t="n">
         <v>2717.7</v>
@@ -6767,16 +6777,16 @@
         <v>1529</v>
       </c>
       <c r="DA20" t="n">
-        <v>18.4</v>
+        <v>16.3</v>
       </c>
       <c r="DB20" t="n">
-        <v>-4</v>
+        <v>-5.7</v>
       </c>
       <c r="DC20" t="n">
-        <v>-1.6</v>
+        <v>-3.3</v>
       </c>
       <c r="DD20" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21">
@@ -6820,16 +6830,16 @@
         <v>0.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.8</v>
+        <v>23</v>
       </c>
       <c r="M21" t="n">
-        <v>52.6</v>
+        <v>49.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.2</v>
+        <v>14.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P21" t="n">
         <v>7.6</v>
@@ -6891,13 +6901,13 @@
         <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AL21" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="AM21" t="n">
-        <v>54.1</v>
+        <v>56.1</v>
       </c>
       <c r="AN21" t="n">
         <v>0.01</v>
@@ -6907,7 +6917,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR21" t="n">
@@ -6928,16 +6938,21 @@
         </is>
       </c>
       <c r="AW21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>0.4</v>
       </c>
-      <c r="AX21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0.3</v>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(10)</t>
+        </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
@@ -6955,22 +6970,22 @@
         </is>
       </c>
       <c r="BI21" t="n">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="BJ21" t="n">
-        <v>3.16</v>
+        <v>3.5</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="BM21" t="n">
-        <v>3.16</v>
+        <v>3.5</v>
       </c>
       <c r="BN21" t="n">
-        <v>47.34</v>
+        <v>47.82</v>
       </c>
       <c r="BO21" t="n">
-        <v>310.17</v>
+        <v>311.49</v>
       </c>
       <c r="BP21" t="inlineStr">
         <is>
@@ -7002,16 +7017,16 @@
         <v>1707.4</v>
       </c>
       <c r="BY21" t="n">
-        <v>-8.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BZ21" t="n">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="CA21" t="n">
-        <v>51.7</v>
+        <v>52.2</v>
       </c>
       <c r="CB21" t="n">
-        <v>609.9</v>
+        <v>612.2</v>
       </c>
       <c r="CC21" t="inlineStr">
         <is>
@@ -7019,7 +7034,7 @@
         </is>
       </c>
       <c r="CE21" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="CF21" t="n">
         <v>15.7</v>
@@ -7073,16 +7088,16 @@
         <v>4066</v>
       </c>
       <c r="DA21" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="DC21" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="DD21" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22">
@@ -7126,16 +7141,16 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="M22" t="n">
-        <v>95.7</v>
+        <v>68.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
         <v>9.9</v>
@@ -7202,7 +7217,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="n">
-        <v>102.45</v>
+        <v>166.61</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7210,10 +7225,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>61.6</v>
+        <v>61</v>
       </c>
       <c r="AM22" t="n">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7246,16 +7261,21 @@
         </is>
       </c>
       <c r="AW22" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
@@ -7268,22 +7288,22 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-2.22</v>
+        <v>-3.17</v>
       </c>
       <c r="BJ22" t="n">
-        <v>15.93</v>
+        <v>14.8</v>
       </c>
       <c r="BL22" t="n">
-        <v>-2.69</v>
+        <v>-3.63</v>
       </c>
       <c r="BM22" t="n">
-        <v>15.93</v>
+        <v>14.8</v>
       </c>
       <c r="BN22" t="n">
-        <v>93.44</v>
+        <v>91.56</v>
       </c>
       <c r="BO22" t="n">
-        <v>1656.99</v>
+        <v>1639.88</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7315,16 +7335,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.7</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-4.3</v>
+        <v>-5.3</v>
       </c>
       <c r="CA22" t="n">
-        <v>109.4</v>
+        <v>107.4</v>
       </c>
       <c r="CB22" t="n">
-        <v>2616.3</v>
+        <v>2589.9</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7332,13 +7352,13 @@
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>-2.69</v>
+        <v>-3.63</v>
       </c>
       <c r="CF22" t="n">
-        <v>2974.5</v>
+        <v>2974.3</v>
       </c>
       <c r="CG22" t="n">
-        <v>3844.9</v>
+        <v>3844.8</v>
       </c>
       <c r="CH22" t="n">
         <v>5117.9</v>
@@ -7389,16 +7409,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>37</v>
+        <v>35.6</v>
       </c>
       <c r="DB22" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="DC22" t="n">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="DD22" t="n">
-        <v>18</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="23">
@@ -7442,16 +7462,16 @@
         <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>53.9</v>
+        <v>51.7</v>
       </c>
       <c r="M23" t="n">
-        <v>38.6</v>
+        <v>66.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
         <v>8</v>
@@ -7504,7 +7524,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>339.26</v>
+        <v>585.33</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7512,10 +7532,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="AM23" t="n">
-        <v>77</v>
+        <v>71.8</v>
       </c>
       <c r="AN23" t="n">
         <v>17.47</v>
@@ -7544,20 +7564,20 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>MACD Histogram &gt; 0 và tăng dần</t>
+          <t>MACD Histogram &gt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW23" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
@@ -7570,22 +7590,22 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>11.42</v>
+        <v>9.34</v>
       </c>
       <c r="BJ23" t="n">
-        <v>31.97</v>
+        <v>29.51</v>
       </c>
       <c r="BL23" t="n">
-        <v>-0.92</v>
+        <v>-2.77</v>
       </c>
       <c r="BM23" t="n">
-        <v>31.97</v>
+        <v>29.51</v>
       </c>
       <c r="BN23" t="n">
-        <v>43.12</v>
+        <v>40.45</v>
       </c>
       <c r="BO23" t="n">
-        <v>363.07</v>
+        <v>354.44</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7611,16 +7631,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
-        <v>-1.2</v>
+        <v>-3.1</v>
       </c>
       <c r="BZ23" t="n">
-        <v>-0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="CA23" t="n">
-        <v>78.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="CB23" t="n">
-        <v>628.8</v>
+        <v>615.2</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7628,19 +7648,19 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>-0.92</v>
+        <v>-2.77</v>
       </c>
       <c r="CF23" t="n">
-        <v>29340.1</v>
+        <v>29315.8</v>
       </c>
       <c r="CG23" t="n">
-        <v>26905.6</v>
+        <v>26893.5</v>
       </c>
       <c r="CH23" t="n">
-        <v>26748.7</v>
+        <v>26742.6</v>
       </c>
       <c r="CI23" t="n">
-        <v>20191.1</v>
+        <v>20188.7</v>
       </c>
       <c r="CJ23" t="n">
         <v>21.6</v>
@@ -7685,16 +7705,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>40</v>
+        <v>37.4</v>
       </c>
       <c r="DB23" t="n">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="DC23" t="n">
-        <v>27.2</v>
+        <v>24.9</v>
       </c>
       <c r="DD23" t="n">
-        <v>37.9</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="24">
@@ -7738,16 +7758,16 @@
         <v>0.8</v>
       </c>
       <c r="L24" t="n">
-        <v>41.2</v>
+        <v>26.7</v>
       </c>
       <c r="M24" t="n">
-        <v>51.8</v>
+        <v>46.2</v>
       </c>
       <c r="N24" t="n">
         <v>15.6</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -7809,13 +7829,13 @@
         <v>69</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="AL24" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="AM24" t="n">
-        <v>48.5</v>
+        <v>46.5</v>
       </c>
       <c r="AN24" t="n">
         <v>0.09</v>
@@ -7839,20 +7859,20 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW24" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
@@ -7865,22 +7885,22 @@
         </is>
       </c>
       <c r="BI24" t="n">
-        <v>-2.16</v>
+        <v>-2.72</v>
       </c>
       <c r="BJ24" t="n">
-        <v>-1.83</v>
+        <v>-2.39</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.49</v>
+        <v>-0.08</v>
       </c>
       <c r="BM24" t="n">
-        <v>-1.83</v>
+        <v>-2.39</v>
       </c>
       <c r="BN24" t="n">
-        <v>15.58</v>
+        <v>14.92</v>
       </c>
       <c r="BO24" t="n">
-        <v>584.76</v>
+        <v>580.87</v>
       </c>
       <c r="BP24" t="inlineStr">
         <is>
@@ -7912,16 +7932,16 @@
         <v>40.5</v>
       </c>
       <c r="BY24" t="n">
-        <v>-7.4</v>
+        <v>-7.9</v>
       </c>
       <c r="BZ24" t="n">
-        <v>-7</v>
+        <v>-7.5</v>
       </c>
       <c r="CA24" t="n">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="CB24" t="n">
-        <v>11777</v>
+        <v>11709.5</v>
       </c>
       <c r="CC24" t="inlineStr">
         <is>
@@ -7929,7 +7949,7 @@
         </is>
       </c>
       <c r="CE24" t="n">
-        <v>0.49</v>
+        <v>-0.08</v>
       </c>
       <c r="CF24" t="n">
         <v>5.5</v>
@@ -7983,16 +8003,16 @@
         <v>7073</v>
       </c>
       <c r="DA24" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="DB24" t="n">
-        <v>-2.1</v>
+        <v>-2.7</v>
       </c>
       <c r="DC24" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="DD24" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="25">
@@ -8039,7 +8059,7 @@
         <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="N25" t="n">
         <v>4.6</v>
@@ -8334,16 +8354,16 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>39.9</v>
+        <v>38.9</v>
       </c>
       <c r="M26" t="n">
-        <v>78</v>
+        <v>60.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
         <v>15.9</v>
@@ -8357,6 +8377,11 @@
       <c r="S26" t="n">
         <v>0</v>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -8405,7 +8430,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>166.3</v>
+        <v>296.97</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -8413,10 +8438,10 @@
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>15.45</v>
+        <v>15.2</v>
       </c>
       <c r="AM26" t="n">
-        <v>70.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="AN26" t="n">
         <v>10.66</v>
@@ -8431,7 +8456,7 @@
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>Mua mạnh</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR26" t="n">
@@ -8449,16 +8474,16 @@
         </is>
       </c>
       <c r="AW26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
@@ -8467,26 +8492,26 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Thoát vùng quá mua</t>
         </is>
       </c>
       <c r="BI26" t="n">
-        <v>2.66</v>
+        <v>1</v>
       </c>
       <c r="BJ26" t="n">
-        <v>19.77</v>
+        <v>17.83</v>
       </c>
       <c r="BL26" t="n">
-        <v>-2.83</v>
+        <v>-4.4</v>
       </c>
       <c r="BM26" t="n">
-        <v>19.77</v>
+        <v>17.83</v>
       </c>
       <c r="BN26" t="n">
-        <v>38.65</v>
+        <v>36.41</v>
       </c>
       <c r="BO26" t="n">
-        <v>26.38</v>
+        <v>24.34</v>
       </c>
       <c r="BP26" t="inlineStr">
         <is>
@@ -8518,16 +8543,16 @@
         <v>52.3</v>
       </c>
       <c r="BY26" t="n">
-        <v>-8</v>
+        <v>-9.5</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-27.5</v>
+        <v>-28.6</v>
       </c>
       <c r="CA26" t="n">
-        <v>66.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="CB26" t="n">
-        <v>582.8</v>
+        <v>571.7</v>
       </c>
       <c r="CC26" t="inlineStr">
         <is>
@@ -8535,19 +8560,19 @@
         </is>
       </c>
       <c r="CE26" t="n">
-        <v>-2.83</v>
+        <v>-4.4</v>
       </c>
       <c r="CF26" t="n">
-        <v>19551.4</v>
+        <v>19541</v>
       </c>
       <c r="CG26" t="n">
-        <v>22033.9</v>
+        <v>22028.7</v>
       </c>
       <c r="CH26" t="n">
-        <v>19890.9</v>
+        <v>19888.3</v>
       </c>
       <c r="CI26" t="n">
-        <v>14469.3</v>
+        <v>14468.3</v>
       </c>
       <c r="CJ26" t="n">
         <v>26.4</v>
@@ -8589,16 +8614,16 @@
         <v>1001</v>
       </c>
       <c r="DA26" t="n">
-        <v>31.6</v>
+        <v>29.5</v>
       </c>
       <c r="DB26" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="DC26" t="n">
-        <v>20.5</v>
+        <v>18.6</v>
       </c>
       <c r="DD26" t="n">
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="27">
@@ -8642,7 +8667,13 @@
         <v>0.1</v>
       </c>
       <c r="M27" t="n">
-        <v>63.2</v>
+        <v>60.9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.4</v>
       </c>
       <c r="P27" t="n">
         <v>11.1</v>
@@ -8656,6 +8687,11 @@
       <c r="S27" t="n">
         <v>5.5</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(20)</t>
+        </is>
+      </c>
       <c r="V27" t="n">
         <v>13.85</v>
       </c>
@@ -8698,12 +8734,26 @@
       <c r="AI27" t="n">
         <v>24</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>43.5</v>
+      </c>
       <c r="AN27" t="n">
         <v>0.14</v>
       </c>
       <c r="AO27" t="n">
         <v>30</v>
       </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
       <c r="AR27" t="n">
         <v>0</v>
       </c>
@@ -8716,6 +8766,51 @@
       <c r="AU27" t="n">
         <v>1660</v>
       </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(50)</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI27" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>84.37</v>
+      </c>
       <c r="BP27" t="inlineStr">
         <is>
           <t>Có</t>
@@ -8745,6 +8840,38 @@
       <c r="BX27" t="n">
         <v>6.9</v>
       </c>
+      <c r="BY27" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>376</v>
+      </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(100)</t>
+        </is>
+      </c>
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>3.9</v>
+      </c>
       <c r="CJ27" t="n">
         <v>80.59999999999999</v>
       </c>
@@ -8783,6 +8910,18 @@
       </c>
       <c r="CZ27" t="n">
         <v>1660</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="28">
@@ -8826,16 +8965,16 @@
         <v>0.8</v>
       </c>
       <c r="L28" t="n">
-        <v>38.7</v>
+        <v>37</v>
       </c>
       <c r="M28" t="n">
-        <v>35.6</v>
+        <v>15.5</v>
       </c>
       <c r="N28" t="n">
         <v>4.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>4.9</v>
@@ -8897,13 +9036,13 @@
         <v>54</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
       <c r="AL28" t="n">
-        <v>47.3</v>
+        <v>46.8</v>
       </c>
       <c r="AM28" t="n">
-        <v>51.9</v>
+        <v>49</v>
       </c>
       <c r="AN28" t="n">
         <v>0.02</v>
@@ -8918,7 +9057,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR28" t="n">
@@ -8936,16 +9075,16 @@
         </is>
       </c>
       <c r="AW28" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
@@ -8958,22 +9097,22 @@
         </is>
       </c>
       <c r="BI28" t="n">
-        <v>-2.67</v>
+        <v>-3.7</v>
       </c>
       <c r="BJ28" t="n">
-        <v>2.83</v>
+        <v>1.74</v>
       </c>
       <c r="BL28" t="n">
-        <v>-0.32</v>
+        <v>-1.37</v>
       </c>
       <c r="BM28" t="n">
-        <v>2.83</v>
+        <v>1.74</v>
       </c>
       <c r="BN28" t="n">
-        <v>16.88</v>
+        <v>15.65</v>
       </c>
       <c r="BO28" t="n">
-        <v>526.76</v>
+        <v>520.13</v>
       </c>
       <c r="BP28" t="inlineStr">
         <is>
@@ -9005,16 +9144,16 @@
         <v>24.5</v>
       </c>
       <c r="BY28" t="n">
-        <v>-9.9</v>
+        <v>-10.9</v>
       </c>
       <c r="BZ28" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="CA28" t="n">
-        <v>33.8</v>
+        <v>32.4</v>
       </c>
       <c r="CB28" t="n">
-        <v>737.5</v>
+        <v>728.6</v>
       </c>
       <c r="CC28" t="inlineStr">
         <is>
@@ -9022,7 +9161,7 @@
         </is>
       </c>
       <c r="CE28" t="n">
-        <v>-0.32</v>
+        <v>-1.37</v>
       </c>
       <c r="CF28" t="n">
         <v>45.7</v>
@@ -9079,16 +9218,16 @@
         <v>9749</v>
       </c>
       <c r="DA28" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="DB28" t="n">
-        <v>-1.3</v>
+        <v>-2.3</v>
       </c>
       <c r="DC28" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="DD28" t="n">
-        <v>10.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -9132,16 +9271,16 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>43.6</v>
+        <v>37</v>
       </c>
       <c r="M29" t="n">
-        <v>92.90000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="N29" t="n">
-        <v>13.1</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="P29" t="n">
         <v>4.5</v>
@@ -9203,7 +9342,7 @@
         <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -9211,10 +9350,10 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AM29" t="n">
-        <v>55.4</v>
+        <v>54.3</v>
       </c>
       <c r="AN29" t="n">
         <v>6.65</v>
@@ -9242,16 +9381,16 @@
         </is>
       </c>
       <c r="AW29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX29" t="n">
         <v>0.7</v>
       </c>
-      <c r="AX29" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AY29" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="BB29" t="inlineStr">
         <is>
@@ -9269,22 +9408,22 @@
         </is>
       </c>
       <c r="BI29" t="n">
-        <v>-4.02</v>
+        <v>-4.44</v>
       </c>
       <c r="BJ29" t="n">
-        <v>5.34</v>
+        <v>4.87</v>
       </c>
       <c r="BL29" t="n">
-        <v>-1.3</v>
+        <v>-1.74</v>
       </c>
       <c r="BM29" t="n">
-        <v>5.34</v>
+        <v>4.87</v>
       </c>
       <c r="BN29" t="n">
-        <v>57.12</v>
+        <v>56.43</v>
       </c>
       <c r="BO29" t="n">
-        <v>218.99</v>
+        <v>217.58</v>
       </c>
       <c r="BP29" t="inlineStr">
         <is>
@@ -9316,16 +9455,16 @@
         <v>299.6</v>
       </c>
       <c r="BY29" t="n">
-        <v>-7.7</v>
+        <v>-8.1</v>
       </c>
       <c r="BZ29" t="n">
-        <v>-6.8</v>
+        <v>-7.2</v>
       </c>
       <c r="CA29" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="CB29" t="n">
-        <v>1686.3</v>
+        <v>1678.5</v>
       </c>
       <c r="CC29" t="inlineStr">
         <is>
@@ -9333,19 +9472,19 @@
         </is>
       </c>
       <c r="CE29" t="n">
-        <v>-1.3</v>
+        <v>-1.74</v>
       </c>
       <c r="CF29" t="n">
-        <v>94.59999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="CG29" t="n">
-        <v>182.1</v>
+        <v>181.1</v>
       </c>
       <c r="CH29" t="n">
-        <v>220</v>
+        <v>219.5</v>
       </c>
       <c r="CI29" t="n">
-        <v>179.8</v>
+        <v>179.6</v>
       </c>
       <c r="CJ29" t="n">
         <v>72.09999999999999</v>
@@ -9387,16 +9526,16 @@
         <v>5146</v>
       </c>
       <c r="DA29" t="n">
-        <v>32.5</v>
+        <v>31.9</v>
       </c>
       <c r="DB29" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="DC29" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="DD29" t="n">
-        <v>20.1</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="30">
@@ -9440,7 +9579,7 @@
         <v>0.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.4</v>
+        <v>23.6</v>
       </c>
       <c r="P30" t="n">
         <v>8</v>
@@ -9624,16 +9763,16 @@
         <v>0.9</v>
       </c>
       <c r="L31" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M31" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="N31" t="n">
         <v>0.6</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P31" t="n">
         <v>9</v>
@@ -9695,13 +9834,13 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="AL31" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="AM31" t="n">
-        <v>31</v>
+        <v>29.8</v>
       </c>
       <c r="AN31" t="n">
         <v>1.09</v>
@@ -9729,16 +9868,16 @@
         </is>
       </c>
       <c r="AW31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AX31" t="n">
         <v>0.4</v>
       </c>
-      <c r="AX31" t="n">
+      <c r="AY31" t="n">
         <v>0.2</v>
       </c>
-      <c r="AY31" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BB31" t="inlineStr">
         <is>
@@ -9747,26 +9886,26 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Vào vùng quá bán</t>
         </is>
       </c>
       <c r="BI31" t="n">
-        <v>-5.03</v>
+        <v>-5.62</v>
       </c>
       <c r="BJ31" t="n">
-        <v>-10.83</v>
+        <v>-11.39</v>
       </c>
       <c r="BL31" t="n">
-        <v>-0.62</v>
+        <v>-1.24</v>
       </c>
       <c r="BM31" t="n">
-        <v>-10.83</v>
+        <v>-11.39</v>
       </c>
       <c r="BN31" t="n">
-        <v>2.28</v>
+        <v>1.64</v>
       </c>
       <c r="BO31" t="n">
-        <v>243.1</v>
+        <v>240.96</v>
       </c>
       <c r="BP31" t="inlineStr">
         <is>
@@ -9798,16 +9937,16 @@
         <v>55.1</v>
       </c>
       <c r="BY31" t="n">
-        <v>-32.7</v>
+        <v>-33.1</v>
       </c>
       <c r="BZ31" t="n">
-        <v>-29</v>
+        <v>-29.5</v>
       </c>
       <c r="CA31" t="n">
-        <v>17.1</v>
+        <v>16.3</v>
       </c>
       <c r="CB31" t="n">
-        <v>4162.1</v>
+        <v>4135.6</v>
       </c>
       <c r="CC31" t="inlineStr">
         <is>
@@ -9815,7 +9954,7 @@
         </is>
       </c>
       <c r="CE31" t="n">
-        <v>-0.62</v>
+        <v>-1.24</v>
       </c>
       <c r="CF31" t="n">
         <v>26.6</v>
@@ -9872,16 +10011,16 @@
         <v>3575</v>
       </c>
       <c r="DA31" t="n">
-        <v>-11.9</v>
+        <v>-12.4</v>
       </c>
       <c r="DB31" t="n">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="DC31" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
       </c>
       <c r="DD31" t="n">
-        <v>-2.6</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="32">
@@ -9925,13 +10064,13 @@
         <v>0.5</v>
       </c>
       <c r="L32" t="n">
-        <v>90</v>
+        <v>66.7</v>
       </c>
       <c r="M32" t="n">
-        <v>6.1</v>
+        <v>10.3</v>
       </c>
       <c r="N32" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="O32" t="n">
         <v>0.2</v>
@@ -10001,7 +10140,7 @@
         <v>49</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AL32" t="n">
         <v>29.2</v>
@@ -10035,7 +10174,7 @@
         </is>
       </c>
       <c r="AW32" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AX32" t="n">
         <v>0.1</v>
@@ -10044,7 +10183,7 @@
         <v>0.1</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BB32" t="inlineStr">
         <is>
@@ -10412,16 +10551,16 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>65</v>
+        <v>56.8</v>
       </c>
       <c r="M34" t="n">
-        <v>45.8</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2</v>
+        <v>10.5</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P34" t="n">
         <v>7</v>
@@ -10479,7 +10618,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>16.18</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10487,10 +10626,10 @@
         </is>
       </c>
       <c r="AL34" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AM34" t="n">
-        <v>64.3</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="AN34" t="n">
         <v>1.35</v>
@@ -10521,17 +10660,17 @@
         </is>
       </c>
       <c r="AW34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>1</v>
       </c>
-      <c r="AX34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>0.7</v>
-      </c>
       <c r="BA34" t="inlineStr">
         <is>
           <t>Giá cắt lên SMA(10)</t>
@@ -10548,22 +10687,22 @@
         </is>
       </c>
       <c r="BI34" t="n">
-        <v>0.71</v>
+        <v>1.15</v>
       </c>
       <c r="BJ34" t="n">
-        <v>11.44</v>
+        <v>11.92</v>
       </c>
       <c r="BL34" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="BM34" t="n">
-        <v>11.44</v>
+        <v>11.92</v>
       </c>
       <c r="BN34" t="n">
-        <v>93.41</v>
+        <v>94.25</v>
       </c>
       <c r="BO34" t="n">
-        <v>164.79</v>
+        <v>165.94</v>
       </c>
       <c r="BP34" t="inlineStr">
         <is>
@@ -10589,16 +10728,16 @@
         <v>66.8</v>
       </c>
       <c r="BY34" t="n">
-        <v>-5.3</v>
+        <v>-4.9</v>
       </c>
       <c r="BZ34" t="n">
-        <v>-42.2</v>
+        <v>-42</v>
       </c>
       <c r="CA34" t="n">
-        <v>144.2</v>
+        <v>145.3</v>
       </c>
       <c r="CB34" t="n">
-        <v>243.6</v>
+        <v>245.1</v>
       </c>
       <c r="CC34" t="inlineStr">
         <is>
@@ -10606,19 +10745,19 @@
         </is>
       </c>
       <c r="CE34" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="CF34" t="n">
-        <v>499.9</v>
+        <v>498.9</v>
       </c>
       <c r="CG34" t="n">
-        <v>517.9</v>
+        <v>517.4</v>
       </c>
       <c r="CH34" t="n">
-        <v>620.9</v>
+        <v>620.6</v>
       </c>
       <c r="CI34" t="n">
-        <v>709</v>
+        <v>708.9</v>
       </c>
       <c r="CJ34" t="n">
         <v>10.9</v>
@@ -10663,16 +10802,16 @@
         <v>3275</v>
       </c>
       <c r="DA34" t="n">
-        <v>62.2</v>
+        <v>62.9</v>
       </c>
       <c r="DB34" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="DC34" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="DD34" t="n">
-        <v>39.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -10716,16 +10855,16 @@
         <v>1.1</v>
       </c>
       <c r="L35" t="n">
-        <v>43.3</v>
+        <v>59.4</v>
       </c>
       <c r="M35" t="n">
-        <v>36.9</v>
+        <v>30.8</v>
       </c>
       <c r="N35" t="n">
-        <v>66.3</v>
+        <v>128.3</v>
       </c>
       <c r="O35" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35" t="n">
         <v>5.4</v>
@@ -10787,13 +10926,13 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="AL35" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AM35" t="n">
-        <v>43.9</v>
+        <v>42.1</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -10824,16 +10963,16 @@
         </is>
       </c>
       <c r="AW35" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AZ35" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="BB35" t="inlineStr">
         <is>
@@ -10846,22 +10985,22 @@
         </is>
       </c>
       <c r="BI35" t="n">
-        <v>-3.22</v>
+        <v>-3.67</v>
       </c>
       <c r="BJ35" t="n">
-        <v>1.43</v>
+        <v>0.95</v>
       </c>
       <c r="BL35" t="n">
-        <v>-1.5</v>
+        <v>-1.97</v>
       </c>
       <c r="BM35" t="n">
-        <v>1.43</v>
+        <v>0.95</v>
       </c>
       <c r="BN35" t="n">
-        <v>-4.51</v>
+        <v>-4.96</v>
       </c>
       <c r="BO35" t="n">
-        <v>93.73</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="BP35" t="inlineStr">
         <is>
@@ -10893,16 +11032,16 @@
         <v>19.5</v>
       </c>
       <c r="BY35" t="n">
-        <v>-22.6</v>
+        <v>-23</v>
       </c>
       <c r="BZ35" t="n">
-        <v>-18.3</v>
+        <v>-18.7</v>
       </c>
       <c r="CA35" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="CB35" t="n">
-        <v>126.1</v>
+        <v>125.1</v>
       </c>
       <c r="CC35" t="inlineStr">
         <is>
@@ -10910,7 +11049,7 @@
         </is>
       </c>
       <c r="CE35" t="n">
-        <v>-1.5</v>
+        <v>-1.97</v>
       </c>
       <c r="CF35" t="n">
         <v>10.1</v>
@@ -10967,16 +11106,16 @@
         <v>4014</v>
       </c>
       <c r="DA35" t="n">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="DB35" t="n">
-        <v>-2.6</v>
+        <v>-3.1</v>
       </c>
       <c r="DC35" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="DD35" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="36">
@@ -11023,13 +11162,13 @@
         <v>56.2</v>
       </c>
       <c r="M36" t="n">
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="N36" t="n">
         <v>25</v>
       </c>
       <c r="O36" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P36" t="n">
         <v>4.8</v>
@@ -11318,16 +11457,16 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>35.5</v>
+        <v>28.1</v>
       </c>
       <c r="M37" t="n">
-        <v>71.3</v>
+        <v>58.2</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P37" t="n">
         <v>7.5</v>
@@ -11389,18 +11528,18 @@
         <v>58</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10.23</v>
+        <v>16.64</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Mua &gt; Bán</t>
+          <t>Mua &lt; Bán</t>
         </is>
       </c>
       <c r="AL37" t="n">
-        <v>36.05</v>
+        <v>35.65</v>
       </c>
       <c r="AM37" t="n">
-        <v>39.5</v>
+        <v>37.7</v>
       </c>
       <c r="AN37" t="n">
         <v>5.15</v>
@@ -11415,7 +11554,7 @@
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Bán mạnh</t>
         </is>
       </c>
       <c r="AR37" t="n">
@@ -11433,16 +11572,16 @@
         </is>
       </c>
       <c r="AW37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY37" t="n">
         <v>0.6</v>
       </c>
-      <c r="AX37" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AZ37" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="BB37" t="inlineStr">
         <is>
@@ -11455,22 +11594,22 @@
         </is>
       </c>
       <c r="BI37" t="n">
-        <v>-7.56</v>
+        <v>-8.59</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-5.13</v>
+        <v>-6.18</v>
       </c>
       <c r="BL37" t="n">
-        <v>-1.5</v>
+        <v>-2.6</v>
       </c>
       <c r="BM37" t="n">
-        <v>-5.13</v>
+        <v>-6.18</v>
       </c>
       <c r="BN37" t="n">
-        <v>16.7</v>
+        <v>15.41</v>
       </c>
       <c r="BO37" t="n">
-        <v>269.02</v>
+        <v>264.92</v>
       </c>
       <c r="BP37" t="inlineStr">
         <is>
@@ -11502,16 +11641,16 @@
         <v>61.4</v>
       </c>
       <c r="BY37" t="n">
-        <v>-13.9</v>
+        <v>-14.8</v>
       </c>
       <c r="BZ37" t="n">
-        <v>-12.4</v>
+        <v>-13.3</v>
       </c>
       <c r="CA37" t="n">
-        <v>43.2</v>
+        <v>41.6</v>
       </c>
       <c r="CB37" t="n">
-        <v>372.8</v>
+        <v>367.5</v>
       </c>
       <c r="CC37" t="inlineStr">
         <is>
@@ -11519,7 +11658,7 @@
         </is>
       </c>
       <c r="CE37" t="n">
-        <v>-1.5</v>
+        <v>-2.6</v>
       </c>
       <c r="CF37" t="n">
         <v>472</v>
@@ -11576,16 +11715,16 @@
         <v>4865</v>
       </c>
       <c r="DA37" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="DB37" t="n">
-        <v>-5.2</v>
+        <v>-6.2</v>
       </c>
       <c r="DC37" t="n">
-        <v>-3.8</v>
+        <v>-4.9</v>
       </c>
       <c r="DD37" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="38">
@@ -11632,13 +11771,13 @@
         <v>100</v>
       </c>
       <c r="M38" t="n">
-        <v>65.8</v>
+        <v>63.2</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P38" t="n">
         <v>7.1</v>
@@ -11700,13 +11839,13 @@
         <v>13</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AL38" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="AM38" t="n">
-        <v>46.6</v>
+        <v>41.8</v>
       </c>
       <c r="AN38" t="n">
         <v>0.07000000000000001</v>
@@ -11716,7 +11855,7 @@
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Bán mạnh</t>
         </is>
       </c>
       <c r="AR38" t="n">
@@ -11730,7 +11869,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW38" t="n">
@@ -11756,22 +11895,22 @@
         </is>
       </c>
       <c r="BI38" t="n">
-        <v>-1.09</v>
+        <v>-2.73</v>
       </c>
       <c r="BJ38" t="n">
-        <v>1.12</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BL38" t="n">
-        <v>0</v>
+        <v>-1.66</v>
       </c>
       <c r="BM38" t="n">
-        <v>1.12</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BN38" t="n">
-        <v>-11.62</v>
+        <v>-13.09</v>
       </c>
       <c r="BO38" t="n">
-        <v>206.53</v>
+        <v>201.45</v>
       </c>
       <c r="BP38" t="inlineStr">
         <is>
@@ -11803,16 +11942,16 @@
         <v>38.9</v>
       </c>
       <c r="BY38" t="n">
-        <v>-38.7</v>
+        <v>-39.7</v>
       </c>
       <c r="BZ38" t="n">
-        <v>-33.6</v>
+        <v>-34.7</v>
       </c>
       <c r="CA38" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="CB38" t="n">
-        <v>1408.6</v>
+        <v>1383.6</v>
       </c>
       <c r="CC38" t="inlineStr">
         <is>
@@ -11820,7 +11959,7 @@
         </is>
       </c>
       <c r="CE38" t="n">
-        <v>0</v>
+        <v>-1.66</v>
       </c>
       <c r="CF38" t="n">
         <v>9.300000000000001</v>
@@ -11877,16 +12016,16 @@
         <v>2546</v>
       </c>
       <c r="DA38" t="n">
-        <v>-7.5</v>
+        <v>-9.1</v>
       </c>
       <c r="DB38" t="n">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="DC38" t="n">
-        <v>-0.5</v>
+        <v>-2.1</v>
       </c>
       <c r="DD38" t="n">
-        <v>-6.3</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="39">
@@ -11930,16 +12069,16 @@
         <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>89.2</v>
+        <v>67.2</v>
       </c>
       <c r="M39" t="n">
-        <v>36.6</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>17.9</v>
       </c>
       <c r="O39" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
         <v>12.6</v>
@@ -12001,13 +12140,13 @@
         <v>89</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="AL39" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>60.7</v>
+        <v>58.1</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -12035,16 +12174,16 @@
         </is>
       </c>
       <c r="AW39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AX39" t="n">
         <v>0.5</v>
       </c>
-      <c r="AX39" t="n">
+      <c r="AY39" t="n">
         <v>0.3</v>
       </c>
-      <c r="AY39" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AZ39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BB39" t="inlineStr">
         <is>
@@ -12057,22 +12196,22 @@
         </is>
       </c>
       <c r="BI39" t="n">
-        <v>-4.45</v>
+        <v>-5.75</v>
       </c>
       <c r="BJ39" t="n">
-        <v>43</v>
+        <v>41.06</v>
       </c>
       <c r="BL39" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-2.29</v>
       </c>
       <c r="BM39" t="n">
-        <v>43</v>
+        <v>41.06</v>
       </c>
       <c r="BN39" t="n">
-        <v>76.91</v>
+        <v>74.5</v>
       </c>
       <c r="BO39" t="n">
-        <v>88.37</v>
+        <v>85.81</v>
       </c>
       <c r="BP39" t="inlineStr">
         <is>
@@ -12104,16 +12243,16 @@
         <v>122.2</v>
       </c>
       <c r="BY39" t="n">
-        <v>-13.5</v>
+        <v>-14.7</v>
       </c>
       <c r="BZ39" t="n">
-        <v>-7.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="CA39" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="CB39" t="n">
-        <v>299.1</v>
+        <v>293.6</v>
       </c>
       <c r="CC39" t="inlineStr">
         <is>
@@ -12121,7 +12260,7 @@
         </is>
       </c>
       <c r="CE39" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-2.29</v>
       </c>
       <c r="CF39" t="n">
         <v>94</v>
@@ -12175,16 +12314,16 @@
         <v>1174</v>
       </c>
       <c r="DA39" t="n">
-        <v>49.4</v>
+        <v>47.4</v>
       </c>
       <c r="DB39" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="DC39" t="n">
-        <v>22.1</v>
+        <v>20.5</v>
       </c>
       <c r="DD39" t="n">
-        <v>38.8</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="40">
@@ -12228,16 +12367,16 @@
         <v>0.8</v>
       </c>
       <c r="L40" t="n">
-        <v>49.5</v>
+        <v>43.1</v>
       </c>
       <c r="M40" t="n">
-        <v>89</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P40" t="n">
         <v>7</v>
@@ -12290,7 +12429,7 @@
         <v>53</v>
       </c>
       <c r="AJ40" t="n">
-        <v>26.65</v>
+        <v>37.36</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -12298,10 +12437,10 @@
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="AM40" t="n">
-        <v>60.5</v>
+        <v>58.8</v>
       </c>
       <c r="AN40" t="n">
         <v>1.84</v>
@@ -12311,7 +12450,7 @@
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR40" t="n">
@@ -12329,21 +12468,16 @@
         </is>
       </c>
       <c r="AW40" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BA40" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(10)</t>
-        </is>
+        <v>1.2</v>
       </c>
       <c r="BB40" t="inlineStr">
         <is>
@@ -12356,19 +12490,19 @@
         </is>
       </c>
       <c r="BI40" t="n">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
       <c r="BJ40" t="n">
-        <v>7.9</v>
+        <v>7.22</v>
       </c>
       <c r="BL40" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="BM40" t="n">
-        <v>7.9</v>
+        <v>7.22</v>
       </c>
       <c r="BN40" t="n">
-        <v>18.58</v>
+        <v>17.82</v>
       </c>
       <c r="BP40" t="inlineStr">
         <is>
@@ -12394,16 +12528,16 @@
         <v>22.3</v>
       </c>
       <c r="BY40" t="n">
-        <v>-5.7</v>
+        <v>-6.3</v>
       </c>
       <c r="BZ40" t="n">
-        <v>-3.7</v>
+        <v>-4.3</v>
       </c>
       <c r="CA40" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="CB40" t="n">
-        <v>327.7</v>
+        <v>325</v>
       </c>
       <c r="CC40" t="inlineStr">
         <is>
@@ -12411,19 +12545,19 @@
         </is>
       </c>
       <c r="CE40" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="CF40" t="n">
-        <v>2374.4</v>
+        <v>2373.2</v>
       </c>
       <c r="CG40" t="n">
-        <v>2267.7</v>
+        <v>2267.1</v>
       </c>
       <c r="CH40" t="n">
-        <v>2157.4</v>
+        <v>2157.1</v>
       </c>
       <c r="CI40" t="n">
-        <v>1997.7</v>
+        <v>1997.6</v>
       </c>
       <c r="CJ40" t="n">
         <v>30</v>
@@ -12468,16 +12602,16 @@
         <v>2243</v>
       </c>
       <c r="DA40" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="DB40" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="DC40" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="DD40" t="n">
-        <v>12.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -12521,16 +12655,16 @@
         <v>0.4</v>
       </c>
       <c r="L41" t="n">
-        <v>7.9</v>
+        <v>25.4</v>
       </c>
       <c r="M41" t="n">
-        <v>65.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>125.7</v>
       </c>
       <c r="O41" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P41" t="n">
         <v>10.8</v>
@@ -12544,11 +12678,6 @@
       <c r="S41" t="n">
         <v>0</v>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(5)</t>
-        </is>
-      </c>
       <c r="U41" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -12597,7 +12726,7 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
@@ -12605,10 +12734,10 @@
         </is>
       </c>
       <c r="AL41" t="n">
-        <v>38.1</v>
+        <v>37.3</v>
       </c>
       <c r="AM41" t="n">
-        <v>69.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="AN41" t="n">
         <v>3.9</v>
@@ -12618,7 +12747,7 @@
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>Mua mạnh</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR41" t="n">
@@ -12632,53 +12761,53 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AZ41" t="n">
         <v>1.6</v>
       </c>
-      <c r="AX41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0.8</v>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB41" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
-      <c r="BC41" t="inlineStr">
-        <is>
-          <t>Tín hiệu vượt đỉnh</t>
-        </is>
-      </c>
       <c r="BH41" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI41" t="n">
-        <v>2.37</v>
+        <v>0.22</v>
       </c>
       <c r="BJ41" t="n">
-        <v>9.65</v>
+        <v>7.35</v>
       </c>
       <c r="BL41" t="n">
-        <v>1.62</v>
+        <v>-0.52</v>
       </c>
       <c r="BM41" t="n">
-        <v>9.65</v>
+        <v>7.35</v>
       </c>
       <c r="BN41" t="n">
-        <v>34.63</v>
+        <v>31.8</v>
       </c>
       <c r="BO41" t="n">
-        <v>133.65</v>
+        <v>128.74</v>
       </c>
       <c r="BP41" t="inlineStr">
         <is>
@@ -12710,16 +12839,16 @@
         <v>14.6</v>
       </c>
       <c r="BY41" t="n">
-        <v>0.3</v>
+        <v>-1.8</v>
       </c>
       <c r="BZ41" t="n">
-        <v>-13.5</v>
+        <v>-15.3</v>
       </c>
       <c r="CA41" t="n">
-        <v>66.40000000000001</v>
+        <v>62.9</v>
       </c>
       <c r="CB41" t="n">
-        <v>521.3</v>
+        <v>508.3</v>
       </c>
       <c r="CC41" t="inlineStr">
         <is>
@@ -12727,7 +12856,7 @@
         </is>
       </c>
       <c r="CE41" t="n">
-        <v>1.62</v>
+        <v>-0.52</v>
       </c>
       <c r="CF41" t="n">
         <v>5.4</v>
@@ -12778,16 +12907,16 @@
         <v>3473</v>
       </c>
       <c r="DA41" t="n">
-        <v>35.6</v>
+        <v>32.8</v>
       </c>
       <c r="DB41" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="DC41" t="n">
-        <v>14.8</v>
+        <v>12.4</v>
       </c>
       <c r="DD41" t="n">
-        <v>26.8</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="42">
@@ -13315,16 +13444,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="M44" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="O44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
         <v>11.6</v>
@@ -13386,7 +13515,7 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="n">
-        <v>18.6</v>
+        <v>27.54</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -13394,10 +13523,10 @@
         </is>
       </c>
       <c r="AL44" t="n">
-        <v>61.3</v>
+        <v>60.8</v>
       </c>
       <c r="AM44" t="n">
-        <v>32.5</v>
+        <v>31.2</v>
       </c>
       <c r="AN44" t="n">
         <v>18.12</v>
@@ -13430,16 +13559,16 @@
         </is>
       </c>
       <c r="AW44" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AY44" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BB44" t="inlineStr">
         <is>
@@ -13452,22 +13581,22 @@
         </is>
       </c>
       <c r="BI44" t="n">
-        <v>-6.55</v>
+        <v>-7.32</v>
       </c>
       <c r="BJ44" t="n">
-        <v>-11.03</v>
+        <v>-11.76</v>
       </c>
       <c r="BL44" t="n">
-        <v>-2.23</v>
+        <v>-3.03</v>
       </c>
       <c r="BM44" t="n">
-        <v>-11.03</v>
+        <v>-11.76</v>
       </c>
       <c r="BN44" t="n">
-        <v>7.65</v>
+        <v>6.77</v>
       </c>
       <c r="BO44" t="n">
-        <v>292.41</v>
+        <v>289.21</v>
       </c>
       <c r="BP44" t="inlineStr">
         <is>
@@ -13499,16 +13628,16 @@
         <v>94.40000000000001</v>
       </c>
       <c r="BY44" t="n">
-        <v>-14.6</v>
+        <v>-15.3</v>
       </c>
       <c r="BZ44" t="n">
-        <v>-12.4</v>
+        <v>-13.1</v>
       </c>
       <c r="CA44" t="n">
-        <v>53.4</v>
+        <v>52.2</v>
       </c>
       <c r="CB44" t="n">
-        <v>3992.5</v>
+        <v>3959.1</v>
       </c>
       <c r="CC44" t="inlineStr">
         <is>
@@ -13516,16 +13645,16 @@
         </is>
       </c>
       <c r="CE44" t="n">
-        <v>-2.23</v>
+        <v>-3.03</v>
       </c>
       <c r="CF44" t="n">
-        <v>389.4</v>
+        <v>389.2</v>
       </c>
       <c r="CG44" t="n">
-        <v>354.1</v>
+        <v>354</v>
       </c>
       <c r="CH44" t="n">
-        <v>433.9</v>
+        <v>433.8</v>
       </c>
       <c r="CI44" t="n">
         <v>430.3</v>
@@ -13573,16 +13702,16 @@
         <v>5384</v>
       </c>
       <c r="DA44" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="DB44" t="n">
-        <v>-6.2</v>
+        <v>-6.9</v>
       </c>
       <c r="DC44" t="n">
-        <v>-6.5</v>
+        <v>-7.2</v>
       </c>
       <c r="DD44" t="n">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="45">
@@ -13629,13 +13758,13 @@
         <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>23.1</v>
+        <v>18.5</v>
       </c>
       <c r="N45" t="n">
         <v>14.5</v>
       </c>
       <c r="O45" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P45" t="n">
         <v>13</v>
@@ -13932,16 +14061,16 @@
         <v>0.1</v>
       </c>
       <c r="L46" t="n">
-        <v>88.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="M46" t="n">
-        <v>28.1</v>
+        <v>44.1</v>
       </c>
       <c r="N46" t="n">
-        <v>16.6</v>
+        <v>6.6</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="P46" t="n">
         <v>12.1</v>
@@ -14003,13 +14132,13 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="AL46" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>29</v>
+        <v>27.9</v>
       </c>
       <c r="AN46" t="n">
         <v>0.01</v>
@@ -14037,16 +14166,16 @@
         </is>
       </c>
       <c r="AW46" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AY46" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="BB46" t="inlineStr">
         <is>
@@ -14059,22 +14188,27 @@
         </is>
       </c>
       <c r="BI46" t="n">
-        <v>-2.22</v>
+        <v>-2.78</v>
       </c>
       <c r="BJ46" t="n">
-        <v>-11.11</v>
+        <v>-11.62</v>
+      </c>
+      <c r="BK46" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
       </c>
       <c r="BL46" t="n">
-        <v>-1.12</v>
+        <v>-1.69</v>
       </c>
       <c r="BM46" t="n">
-        <v>-11.11</v>
+        <v>-11.62</v>
       </c>
       <c r="BN46" t="n">
-        <v>-31.93</v>
+        <v>-32.32</v>
       </c>
       <c r="BO46" t="n">
-        <v>145.34</v>
+        <v>143.95</v>
       </c>
       <c r="BP46" t="inlineStr">
         <is>
@@ -14106,16 +14240,16 @@
         <v>53.4</v>
       </c>
       <c r="BY46" t="n">
-        <v>-31.9</v>
+        <v>-32.3</v>
       </c>
       <c r="BZ46" t="n">
-        <v>-33.4</v>
+        <v>-33.8</v>
       </c>
       <c r="CA46" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="CB46" t="n">
-        <v>294.4</v>
+        <v>292.1</v>
       </c>
       <c r="CC46" t="inlineStr">
         <is>
@@ -14123,7 +14257,7 @@
         </is>
       </c>
       <c r="CE46" t="n">
-        <v>-1.12</v>
+        <v>-1.69</v>
       </c>
       <c r="CF46" t="n">
         <v>6.8</v>
@@ -14177,16 +14311,16 @@
         <v>1465</v>
       </c>
       <c r="DA46" t="n">
-        <v>-10.3</v>
+        <v>-10.8</v>
       </c>
       <c r="DB46" t="n">
-        <v>-4.2</v>
+        <v>-4.7</v>
       </c>
       <c r="DC46" t="n">
-        <v>-7.5</v>
+        <v>-8</v>
       </c>
       <c r="DD46" t="n">
-        <v>-14.6</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="47">
@@ -14230,16 +14364,16 @@
         <v>0.7</v>
       </c>
       <c r="L47" t="n">
-        <v>100</v>
+        <v>15.4</v>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>51.2</v>
       </c>
       <c r="N47" t="n">
         <v>0.8</v>
       </c>
       <c r="O47" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="P47" t="n">
         <v>5.1</v>
@@ -14253,11 +14387,6 @@
       <c r="S47" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(5)</t>
-        </is>
-      </c>
       <c r="U47" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -14306,13 +14435,13 @@
         <v>29</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AL47" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="AM47" t="n">
-        <v>45.7</v>
+        <v>41.3</v>
       </c>
       <c r="AN47" t="n">
         <v>0.02</v>
@@ -14327,7 +14456,7 @@
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR47" t="n">
@@ -14344,24 +14473,24 @@
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW47" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AX47" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AY47" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BB47" t="inlineStr">
         <is>
-          <t>Giá cắt lên SMA(50)</t>
+          <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
       <c r="BH47" t="inlineStr">
@@ -14370,22 +14499,22 @@
         </is>
       </c>
       <c r="BI47" t="n">
-        <v>-1.9</v>
+        <v>-2.61</v>
       </c>
       <c r="BJ47" t="n">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="BL47" t="n">
-        <v>0.2</v>
+        <v>-0.52</v>
       </c>
       <c r="BM47" t="n">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="BN47" t="n">
-        <v>0.14</v>
+        <v>-0.58</v>
       </c>
       <c r="BO47" t="n">
-        <v>225.53</v>
+        <v>223.2</v>
       </c>
       <c r="BP47" t="inlineStr">
         <is>
@@ -14417,16 +14546,16 @@
         <v>13.5</v>
       </c>
       <c r="BY47" t="n">
-        <v>-11.2</v>
+        <v>-11.8</v>
       </c>
       <c r="BZ47" t="n">
-        <v>-9</v>
+        <v>-9.6</v>
       </c>
       <c r="CA47" t="n">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="CB47" t="n">
-        <v>359.2</v>
+        <v>355.9</v>
       </c>
       <c r="CC47" t="inlineStr">
         <is>
@@ -14434,7 +14563,7 @@
         </is>
       </c>
       <c r="CE47" t="n">
-        <v>0.2</v>
+        <v>-0.52</v>
       </c>
       <c r="CF47" t="n">
         <v>27.8</v>
@@ -14478,6 +14607,11 @@
       <c r="CS47" t="n">
         <v>11.5</v>
       </c>
+      <c r="CV47" t="inlineStr">
+        <is>
+          <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
+        </is>
+      </c>
       <c r="CW47" t="n">
         <v>36.53</v>
       </c>
@@ -14491,16 +14625,16 @@
         <v>5476</v>
       </c>
       <c r="DA47" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="DB47" t="n">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="DC47" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="DD47" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48">
@@ -14544,16 +14678,16 @@
         <v>0.5</v>
       </c>
       <c r="L48" t="n">
-        <v>57.5</v>
+        <v>52.2</v>
       </c>
       <c r="M48" t="n">
-        <v>60.2</v>
+        <v>19.8</v>
       </c>
       <c r="N48" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
         <v>8.800000000000001</v>
@@ -14615,7 +14749,7 @@
         <v>10</v>
       </c>
       <c r="AJ48" t="n">
-        <v>5.66</v>
+        <v>8.42</v>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
@@ -14623,10 +14757,10 @@
         </is>
       </c>
       <c r="AL48" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>39.4</v>
+        <v>38.4</v>
       </c>
       <c r="AN48" t="n">
         <v>13.58</v>
@@ -14659,16 +14793,16 @@
         </is>
       </c>
       <c r="AW48" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="BB48" t="inlineStr">
         <is>
@@ -14681,22 +14815,22 @@
         </is>
       </c>
       <c r="BI48" t="n">
-        <v>-4.18</v>
+        <v>-4.55</v>
       </c>
       <c r="BJ48" t="n">
-        <v>-4.53</v>
+        <v>-4.89</v>
       </c>
       <c r="BL48" t="n">
-        <v>-1.86</v>
+        <v>-2.23</v>
       </c>
       <c r="BM48" t="n">
-        <v>-4.53</v>
+        <v>-4.89</v>
       </c>
       <c r="BN48" t="n">
-        <v>-16.38</v>
+        <v>-16.7</v>
       </c>
       <c r="BO48" t="n">
-        <v>97.77</v>
+        <v>97.02</v>
       </c>
       <c r="BP48" t="inlineStr">
         <is>
@@ -14728,16 +14862,16 @@
         <v>26.7</v>
       </c>
       <c r="BY48" t="n">
-        <v>-20</v>
+        <v>-20.3</v>
       </c>
       <c r="BZ48" t="n">
-        <v>-33.6</v>
+        <v>-33.8</v>
       </c>
       <c r="CA48" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="CB48" t="n">
-        <v>5016.3</v>
+        <v>4996.8</v>
       </c>
       <c r="CC48" t="inlineStr">
         <is>
@@ -14745,13 +14879,13 @@
         </is>
       </c>
       <c r="CE48" t="n">
-        <v>-1.86</v>
+        <v>-2.23</v>
       </c>
       <c r="CF48" t="n">
-        <v>188.6</v>
+        <v>188.4</v>
       </c>
       <c r="CG48" t="n">
-        <v>176.7</v>
+        <v>176.6</v>
       </c>
       <c r="CH48" t="n">
         <v>165.4</v>
@@ -14802,16 +14936,16 @@
         <v>6130</v>
       </c>
       <c r="DA48" t="n">
-        <v>-6</v>
+        <v>-6.4</v>
       </c>
       <c r="DB48" t="n">
-        <v>-3.2</v>
+        <v>-3.5</v>
       </c>
       <c r="DC48" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="DD48" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49">
@@ -14855,16 +14989,16 @@
         <v>1.2</v>
       </c>
       <c r="L49" t="n">
-        <v>32.3</v>
+        <v>35.6</v>
       </c>
       <c r="M49" t="n">
-        <v>27.6</v>
+        <v>36.9</v>
       </c>
       <c r="N49" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P49" t="n">
         <v>14</v>
@@ -14880,7 +15014,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(20)</t>
+          <t>Giá cắt xuống SMA(20)</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -14926,18 +15060,18 @@
         <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>127.09</v>
+        <v>245.96</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL49" t="n">
-        <v>36.3</v>
+        <v>35.2</v>
       </c>
       <c r="AM49" t="n">
-        <v>55.8</v>
+        <v>49.5</v>
       </c>
       <c r="AN49" t="n">
         <v>11.37</v>
@@ -14952,7 +15086,7 @@
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR49" t="n">
@@ -14966,20 +15100,20 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>MACD Histogram &gt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW49" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BA49" t="inlineStr">
         <is>
@@ -14991,28 +15125,33 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
       <c r="BH49" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI49" t="n">
-        <v>-4.22</v>
+        <v>-7.12</v>
       </c>
       <c r="BJ49" t="n">
-        <v>6.14</v>
+        <v>2.92</v>
       </c>
       <c r="BL49" t="n">
-        <v>-1.89</v>
+        <v>-4.86</v>
       </c>
       <c r="BM49" t="n">
-        <v>6.14</v>
+        <v>2.92</v>
       </c>
       <c r="BN49" t="n">
-        <v>-8.220000000000001</v>
+        <v>-11</v>
       </c>
       <c r="BO49" t="n">
-        <v>253.76</v>
+        <v>243.04</v>
       </c>
       <c r="BP49" t="inlineStr">
         <is>
@@ -15044,16 +15183,16 @@
         <v>10.3</v>
       </c>
       <c r="BY49" t="n">
-        <v>-13.4</v>
+        <v>-16</v>
       </c>
       <c r="BZ49" t="n">
-        <v>-19.2</v>
+        <v>-21.7</v>
       </c>
       <c r="CA49" t="n">
-        <v>69.59999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="CB49" t="n">
-        <v>843.2</v>
+        <v>814.6</v>
       </c>
       <c r="CC49" t="inlineStr">
         <is>
@@ -15061,19 +15200,19 @@
         </is>
       </c>
       <c r="CE49" t="n">
-        <v>-1.89</v>
+        <v>-4.86</v>
       </c>
       <c r="CF49" t="n">
-        <v>7483.7</v>
+        <v>7467.2</v>
       </c>
       <c r="CG49" t="n">
-        <v>10091.6</v>
+        <v>10083.3</v>
       </c>
       <c r="CH49" t="n">
-        <v>9973.6</v>
+        <v>9969.4</v>
       </c>
       <c r="CI49" t="n">
-        <v>8727.1</v>
+        <v>8725.4</v>
       </c>
       <c r="CJ49" t="n">
         <v>78.59999999999999</v>
@@ -15118,16 +15257,16 @@
         <v>2649</v>
       </c>
       <c r="DA49" t="n">
-        <v>11.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="DB49" t="n">
-        <v>1.9</v>
+        <v>-1.1</v>
       </c>
       <c r="DC49" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="DD49" t="n">
-        <v>17.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="50">
@@ -15171,13 +15310,13 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>60.5</v>
+        <v>53.3</v>
       </c>
       <c r="M50" t="n">
-        <v>78.8</v>
+        <v>61.1</v>
       </c>
       <c r="N50" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O50" t="n">
         <v>1.2</v>
@@ -15242,7 +15381,7 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="n">
-        <v>32.01</v>
+        <v>50.81</v>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
@@ -15250,10 +15389,10 @@
         </is>
       </c>
       <c r="AL50" t="n">
-        <v>65.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="AM50" t="n">
-        <v>38.2</v>
+        <v>40.9</v>
       </c>
       <c r="AN50" t="n">
         <v>49</v>
@@ -15286,16 +15425,16 @@
         </is>
       </c>
       <c r="AW50" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="BB50" t="inlineStr">
         <is>
@@ -15308,22 +15447,22 @@
         </is>
       </c>
       <c r="BI50" t="n">
-        <v>-4.66</v>
+        <v>-4.08</v>
       </c>
       <c r="BJ50" t="n">
-        <v>-4.53</v>
+        <v>-3.94</v>
       </c>
       <c r="BL50" t="n">
-        <v>-0.15</v>
+        <v>0.46</v>
       </c>
       <c r="BM50" t="n">
-        <v>-4.53</v>
+        <v>-3.94</v>
       </c>
       <c r="BN50" t="n">
-        <v>8.460000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="BO50" t="n">
-        <v>242.57</v>
+        <v>244.67</v>
       </c>
       <c r="BP50" t="inlineStr">
         <is>
@@ -15355,16 +15494,16 @@
         <v>27.2</v>
       </c>
       <c r="BY50" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.6</v>
       </c>
       <c r="BZ50" t="n">
-        <v>-6.2</v>
+        <v>-5.6</v>
       </c>
       <c r="CA50" t="n">
-        <v>31.7</v>
+        <v>32.5</v>
       </c>
       <c r="CB50" t="n">
-        <v>14857</v>
+        <v>14948.5</v>
       </c>
       <c r="CC50" t="inlineStr">
         <is>
@@ -15372,19 +15511,19 @@
         </is>
       </c>
       <c r="CE50" t="n">
-        <v>-0.15</v>
+        <v>0.46</v>
       </c>
       <c r="CF50" t="n">
-        <v>970.4</v>
+        <v>968.9</v>
       </c>
       <c r="CG50" t="n">
-        <v>1144.5</v>
+        <v>1143.8</v>
       </c>
       <c r="CH50" t="n">
-        <v>1163.6</v>
+        <v>1163.2</v>
       </c>
       <c r="CI50" t="n">
-        <v>1047.2</v>
+        <v>1047.1</v>
       </c>
       <c r="CJ50" t="n">
         <v>57.3</v>
@@ -15429,16 +15568,16 @@
         <v>4418</v>
       </c>
       <c r="DA50" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="DB50" t="n">
-        <v>-2.9</v>
+        <v>-2.3</v>
       </c>
       <c r="DC50" t="n">
-        <v>-3.3</v>
+        <v>-2.7</v>
       </c>
       <c r="DD50" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="51">
@@ -15482,16 +15621,16 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>47.1</v>
+        <v>42.1</v>
       </c>
       <c r="M51" t="n">
-        <v>76.7</v>
+        <v>25.2</v>
       </c>
       <c r="N51" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="P51" t="n">
         <v>7.8</v>
@@ -15549,7 +15688,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1338.09</v>
+        <v>2075.1</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -15557,10 +15696,10 @@
         </is>
       </c>
       <c r="AL51" t="n">
-        <v>18</v>
+        <v>17.95</v>
       </c>
       <c r="AM51" t="n">
-        <v>71.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AN51" t="n">
         <v>5.15</v>
@@ -15593,16 +15732,16 @@
         </is>
       </c>
       <c r="AW51" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AY51" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="BB51" t="inlineStr">
         <is>
@@ -15615,22 +15754,22 @@
         </is>
       </c>
       <c r="BI51" t="n">
-        <v>7.61</v>
+        <v>7.31</v>
       </c>
       <c r="BJ51" t="n">
-        <v>43.23</v>
+        <v>42.83</v>
       </c>
       <c r="BL51" t="n">
-        <v>-2.7</v>
+        <v>-2.97</v>
       </c>
       <c r="BM51" t="n">
-        <v>43.23</v>
+        <v>42.83</v>
       </c>
       <c r="BN51" t="n">
-        <v>121.05</v>
+        <v>120.44</v>
       </c>
       <c r="BO51" t="n">
-        <v>231.99</v>
+        <v>231.07</v>
       </c>
       <c r="BP51" t="inlineStr">
         <is>
@@ -15656,16 +15795,16 @@
         <v>8.9</v>
       </c>
       <c r="BY51" t="n">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="BZ51" t="n">
-        <v>-4.5</v>
+        <v>-4.8</v>
       </c>
       <c r="CA51" t="n">
-        <v>133.2</v>
+        <v>132.5</v>
       </c>
       <c r="CB51" t="n">
-        <v>1562</v>
+        <v>1557.4</v>
       </c>
       <c r="CC51" t="inlineStr">
         <is>
@@ -15673,19 +15812,19 @@
         </is>
       </c>
       <c r="CE51" t="n">
-        <v>-2.7</v>
+        <v>-2.97</v>
       </c>
       <c r="CF51" t="n">
-        <v>95565.8</v>
+        <v>95529</v>
       </c>
       <c r="CG51" t="n">
-        <v>96014.2</v>
+        <v>95995.8</v>
       </c>
       <c r="CH51" t="n">
-        <v>110380.2</v>
+        <v>110371</v>
       </c>
       <c r="CI51" t="n">
-        <v>84774.7</v>
+        <v>84771.10000000001</v>
       </c>
       <c r="CJ51" t="n">
         <v>15.5</v>
@@ -15730,16 +15869,16 @@
         <v>2379</v>
       </c>
       <c r="DA51" t="n">
-        <v>74.5</v>
+        <v>74</v>
       </c>
       <c r="DB51" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="DC51" t="n">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="DD51" t="n">
-        <v>45.7</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="52">
@@ -15786,13 +15925,13 @@
         <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>19.7</v>
+        <v>7.8</v>
       </c>
       <c r="N52" t="n">
         <v>19.6</v>
       </c>
       <c r="O52" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P52" t="n">
         <v>12.7</v>
@@ -16084,7 +16223,7 @@
         <v>0.3</v>
       </c>
       <c r="M53" t="n">
-        <v>64.7</v>
+        <v>61.9</v>
       </c>
       <c r="P53" t="n">
         <v>9.300000000000001</v>
@@ -16437,16 +16576,16 @@
         <v>0.7</v>
       </c>
       <c r="L55" t="n">
-        <v>54.1</v>
+        <v>48.4</v>
       </c>
       <c r="M55" t="n">
-        <v>37.8</v>
+        <v>36.8</v>
       </c>
       <c r="N55" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P55" t="n">
         <v>7.2</v>
@@ -16460,11 +16599,6 @@
       <c r="S55" t="n">
         <v>7.2</v>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(5)</t>
-        </is>
-      </c>
       <c r="U55" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -16513,7 +16647,7 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.47</v>
+        <v>1.01</v>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
@@ -16521,10 +16655,10 @@
         </is>
       </c>
       <c r="AL55" t="n">
-        <v>35.9</v>
+        <v>35.4</v>
       </c>
       <c r="AM55" t="n">
-        <v>61.7</v>
+        <v>54.8</v>
       </c>
       <c r="AN55" t="n">
         <v>6.12</v>
@@ -16534,7 +16668,7 @@
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>Mua mạnh</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR55" t="n">
@@ -16552,16 +16686,21 @@
         </is>
       </c>
       <c r="AW55" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AY55" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="BA55" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB55" t="inlineStr">
         <is>
@@ -16574,22 +16713,22 @@
         </is>
       </c>
       <c r="BI55" t="n">
-        <v>1.13</v>
+        <v>-0.28</v>
       </c>
       <c r="BJ55" t="n">
-        <v>3.76</v>
+        <v>2.31</v>
       </c>
       <c r="BL55" t="n">
-        <v>0.28</v>
+        <v>-1.12</v>
       </c>
       <c r="BM55" t="n">
-        <v>3.76</v>
+        <v>2.31</v>
       </c>
       <c r="BN55" t="n">
-        <v>9.369999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="BO55" t="n">
-        <v>124.63</v>
+        <v>121.5</v>
       </c>
       <c r="BP55" t="inlineStr">
         <is>
@@ -16621,16 +16760,16 @@
         <v>32.3</v>
       </c>
       <c r="BY55" t="n">
-        <v>-14.6</v>
+        <v>-15.8</v>
       </c>
       <c r="BZ55" t="n">
-        <v>-14.5</v>
+        <v>-15.7</v>
       </c>
       <c r="CA55" t="n">
-        <v>14.2</v>
+        <v>12.7</v>
       </c>
       <c r="CB55" t="n">
-        <v>1163.6</v>
+        <v>1146</v>
       </c>
       <c r="CC55" t="inlineStr">
         <is>
@@ -16638,7 +16777,7 @@
         </is>
       </c>
       <c r="CE55" t="n">
-        <v>0.28</v>
+        <v>-1.12</v>
       </c>
       <c r="CF55" t="n">
         <v>49.2</v>
@@ -16695,16 +16834,16 @@
         <v>5003</v>
       </c>
       <c r="DA55" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="DB55" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="DC55" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="DD55" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="56">
@@ -16745,16 +16884,16 @@
         <v>0.5</v>
       </c>
       <c r="L56" t="n">
-        <v>100</v>
+        <v>86.7</v>
       </c>
       <c r="M56" t="n">
-        <v>23.7</v>
+        <v>32.6</v>
       </c>
       <c r="N56" t="n">
-        <v>201.7</v>
+        <v>31</v>
       </c>
       <c r="O56" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P56" t="n">
         <v>9.1</v>
@@ -16810,13 +16949,13 @@
         <v>60</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AL56" t="n">
-        <v>57</v>
+        <v>55.5</v>
       </c>
       <c r="AM56" t="n">
-        <v>55.2</v>
+        <v>51.8</v>
       </c>
       <c r="AN56" t="n">
         <v>35.25</v>
@@ -16840,20 +16979,25 @@
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AX56" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AY56" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
+      </c>
+      <c r="BA56" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB56" t="inlineStr">
         <is>
@@ -16866,19 +17010,19 @@
         </is>
       </c>
       <c r="BI56" t="n">
-        <v>0</v>
+        <v>-2.63</v>
       </c>
       <c r="BJ56" t="n">
-        <v>9.93</v>
+        <v>7.04</v>
       </c>
       <c r="BL56" t="n">
-        <v>0.46</v>
+        <v>-2.18</v>
       </c>
       <c r="BM56" t="n">
-        <v>9.93</v>
+        <v>7.04</v>
       </c>
       <c r="BN56" t="n">
-        <v>10.28</v>
+        <v>7.37</v>
       </c>
       <c r="BP56" t="inlineStr">
         <is>
@@ -16910,16 +17054,16 @@
         <v>28.1</v>
       </c>
       <c r="BY56" t="n">
-        <v>-21.3</v>
+        <v>-23.4</v>
       </c>
       <c r="BZ56" t="n">
-        <v>-21.3</v>
+        <v>-23.4</v>
       </c>
       <c r="CA56" t="n">
-        <v>35.1</v>
+        <v>31.5</v>
       </c>
       <c r="CB56" t="n">
-        <v>209.8</v>
+        <v>201.6</v>
       </c>
       <c r="CC56" t="inlineStr">
         <is>
@@ -16927,7 +17071,7 @@
         </is>
       </c>
       <c r="CE56" t="n">
-        <v>0.46</v>
+        <v>-2.18</v>
       </c>
       <c r="CF56" t="n">
         <v>1.6</v>
@@ -16978,16 +17122,16 @@
         <v>6249</v>
       </c>
       <c r="DA56" t="n">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="DB56" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="DC56" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="DD56" t="n">
-        <v>7.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="57">
@@ -17031,7 +17175,7 @@
         <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>11.7</v>
+        <v>9.9</v>
       </c>
       <c r="N57" t="n">
         <v>3.9</v>
@@ -17104,13 +17248,13 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AL57" t="n">
-        <v>67.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="AM57" t="n">
-        <v>39.1</v>
+        <v>35.9</v>
       </c>
       <c r="AN57" t="n">
         <v>33.59</v>
@@ -17120,7 +17264,7 @@
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR57" t="n">
@@ -17138,7 +17282,7 @@
         </is>
       </c>
       <c r="AW57" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AX57" t="n">
         <v>0.1</v>
@@ -17160,22 +17304,22 @@
         </is>
       </c>
       <c r="BI57" t="n">
-        <v>-1.74</v>
+        <v>-3.04</v>
       </c>
       <c r="BJ57" t="n">
-        <v>-11.13</v>
+        <v>-12.3</v>
       </c>
       <c r="BL57" t="n">
-        <v>2.88</v>
+        <v>1.52</v>
       </c>
       <c r="BM57" t="n">
-        <v>-11.13</v>
+        <v>-12.3</v>
       </c>
       <c r="BN57" t="n">
-        <v>160.13</v>
+        <v>156.68</v>
       </c>
       <c r="BO57" t="n">
-        <v>1588.62</v>
+        <v>1566.23</v>
       </c>
       <c r="BP57" t="inlineStr">
         <is>
@@ -17207,16 +17351,16 @@
         <v>1072.6</v>
       </c>
       <c r="BY57" t="n">
-        <v>-21.9</v>
+        <v>-23</v>
       </c>
       <c r="BZ57" t="n">
-        <v>-20.5</v>
+        <v>-21.6</v>
       </c>
       <c r="CA57" t="n">
-        <v>213.3</v>
+        <v>209.2</v>
       </c>
       <c r="CB57" t="n">
-        <v>2360.6</v>
+        <v>2327.9</v>
       </c>
       <c r="CC57" t="inlineStr">
         <is>
@@ -17224,7 +17368,7 @@
         </is>
       </c>
       <c r="CE57" t="n">
-        <v>2.88</v>
+        <v>1.52</v>
       </c>
       <c r="CF57" t="n">
         <v>6.3</v>
@@ -17275,16 +17419,16 @@
         <v>11421</v>
       </c>
       <c r="DA57" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="DB57" t="n">
-        <v>-4.8</v>
+        <v>-6</v>
       </c>
       <c r="DC57" t="n">
-        <v>-9.5</v>
+        <v>-10.7</v>
       </c>
       <c r="DD57" t="n">
-        <v>-9</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="58">
@@ -17328,16 +17472,16 @@
         <v>0.9</v>
       </c>
       <c r="L58" t="n">
-        <v>56.4</v>
+        <v>26.4</v>
       </c>
       <c r="M58" t="n">
-        <v>71.59999999999999</v>
+        <v>31.4</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P58" t="n">
         <v>9.199999999999999</v>
@@ -17399,7 +17543,7 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.95</v>
+        <v>3.61</v>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
@@ -17407,10 +17551,10 @@
         </is>
       </c>
       <c r="AL58" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="AM58" t="n">
-        <v>39.2</v>
+        <v>37.7</v>
       </c>
       <c r="AN58" t="n">
         <v>1.48</v>
@@ -17438,16 +17582,16 @@
         </is>
       </c>
       <c r="AW58" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AY58" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BB58" t="inlineStr">
         <is>
@@ -17460,22 +17604,22 @@
         </is>
       </c>
       <c r="BI58" t="n">
-        <v>-1.49</v>
+        <v>-2.05</v>
       </c>
       <c r="BJ58" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="BL58" t="n">
-        <v>0</v>
+        <v>-0.57</v>
       </c>
       <c r="BM58" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="BN58" t="n">
-        <v>56.13</v>
+        <v>55.25</v>
       </c>
       <c r="BO58" t="n">
-        <v>198.02</v>
+        <v>196.33</v>
       </c>
       <c r="BP58" t="inlineStr">
         <is>
@@ -17507,16 +17651,16 @@
         <v>76.59999999999999</v>
       </c>
       <c r="BY58" t="n">
-        <v>-11.2</v>
+        <v>-11.7</v>
       </c>
       <c r="BZ58" t="n">
-        <v>-9.6</v>
+        <v>-10.1</v>
       </c>
       <c r="CA58" t="n">
-        <v>62.2</v>
+        <v>61.3</v>
       </c>
       <c r="CB58" t="n">
-        <v>9461</v>
+        <v>9406.799999999999</v>
       </c>
       <c r="CC58" t="inlineStr">
         <is>
@@ -17524,7 +17668,7 @@
         </is>
       </c>
       <c r="CE58" t="n">
-        <v>0</v>
+        <v>-0.57</v>
       </c>
       <c r="CF58" t="n">
         <v>37</v>
@@ -17581,16 +17725,16 @@
         <v>5720</v>
       </c>
       <c r="DA58" t="n">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="DB58" t="n">
-        <v>-2.7</v>
+        <v>-3.3</v>
       </c>
       <c r="DC58" t="n">
-        <v>-4.4</v>
+        <v>-4.9</v>
       </c>
       <c r="DD58" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="59">
@@ -17634,16 +17778,16 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>32</v>
+        <v>37.2</v>
       </c>
       <c r="M59" t="n">
-        <v>48.4</v>
+        <v>45.5</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
         <v>7.4</v>
@@ -17705,7 +17849,7 @@
         <v>6</v>
       </c>
       <c r="AJ59" t="n">
-        <v>19.32</v>
+        <v>33.24</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -17713,10 +17857,10 @@
         </is>
       </c>
       <c r="AL59" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AM59" t="n">
-        <v>45.2</v>
+        <v>43.5</v>
       </c>
       <c r="AN59" t="n">
         <v>16.7</v>
@@ -17749,16 +17893,16 @@
         </is>
       </c>
       <c r="AW59" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AX59" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AY59" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="BB59" t="inlineStr">
         <is>
@@ -17771,22 +17915,22 @@
         </is>
       </c>
       <c r="BI59" t="n">
-        <v>-6.36</v>
+        <v>-7.27</v>
       </c>
       <c r="BJ59" t="n">
-        <v>-2.37</v>
+        <v>-3.32</v>
       </c>
       <c r="BL59" t="n">
-        <v>-2.37</v>
+        <v>-3.32</v>
       </c>
       <c r="BM59" t="n">
-        <v>-2.37</v>
+        <v>-3.32</v>
       </c>
       <c r="BN59" t="n">
-        <v>-20.27</v>
+        <v>-21.04</v>
       </c>
       <c r="BO59" t="n">
-        <v>216.29</v>
+        <v>213.22</v>
       </c>
       <c r="BP59" t="inlineStr">
         <is>
@@ -17818,16 +17962,16 @@
         <v>3.4</v>
       </c>
       <c r="BY59" t="n">
-        <v>-23.3</v>
+        <v>-24</v>
       </c>
       <c r="BZ59" t="n">
-        <v>-24.8</v>
+        <v>-25.5</v>
       </c>
       <c r="CA59" t="n">
-        <v>63.1</v>
+        <v>61.5</v>
       </c>
       <c r="CB59" t="n">
-        <v>3081.4</v>
+        <v>3050.5</v>
       </c>
       <c r="CC59" t="inlineStr">
         <is>
@@ -17835,19 +17979,19 @@
         </is>
       </c>
       <c r="CE59" t="n">
-        <v>-2.37</v>
+        <v>-3.32</v>
       </c>
       <c r="CF59" t="n">
-        <v>1637.5</v>
+        <v>1634.1</v>
       </c>
       <c r="CG59" t="n">
-        <v>2479.1</v>
+        <v>2477.3</v>
       </c>
       <c r="CH59" t="n">
-        <v>2318</v>
+        <v>2317.1</v>
       </c>
       <c r="CI59" t="n">
-        <v>2155.5</v>
+        <v>2155.1</v>
       </c>
       <c r="CJ59" t="n">
         <v>25.2</v>
@@ -17897,16 +18041,16 @@
         <v>2841</v>
       </c>
       <c r="DA59" t="n">
-        <v>-1.6</v>
+        <v>-2.6</v>
       </c>
       <c r="DB59" t="n">
-        <v>-3</v>
+        <v>-3.9</v>
       </c>
       <c r="DC59" t="n">
-        <v>-0.4</v>
+        <v>-1.4</v>
       </c>
       <c r="DD59" t="n">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="60">
@@ -17953,10 +18097,13 @@
         <v>100</v>
       </c>
       <c r="M60" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="N60" t="n">
         <v>14.7</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.1</v>
       </c>
       <c r="P60" t="n">
         <v>9</v>
@@ -18253,16 +18400,16 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>39.6</v>
+        <v>51.2</v>
       </c>
       <c r="M61" t="n">
-        <v>63</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="O61" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="P61" t="n">
         <v>6.8</v>
@@ -18324,11 +18471,11 @@
         <v>92</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5.2</v>
+        <v>11.79</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL61" t="n">
@@ -18368,16 +18515,16 @@
         </is>
       </c>
       <c r="AW61" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AY61" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="BB61" t="inlineStr">
         <is>
@@ -18460,7 +18607,7 @@
         <v>210</v>
       </c>
       <c r="CG61" t="n">
-        <v>182.8</v>
+        <v>182.7</v>
       </c>
       <c r="CH61" t="n">
         <v>225.7</v>
@@ -18748,16 +18895,16 @@
         <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>52.9</v>
+        <v>43.6</v>
       </c>
       <c r="M63" t="n">
-        <v>57.2</v>
+        <v>54.5</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="O63" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="P63" t="n">
         <v>9.6</v>
@@ -18819,13 +18966,13 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.64</v>
+        <v>2.85</v>
       </c>
       <c r="AL63" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="AM63" t="n">
-        <v>38.1</v>
+        <v>34.8</v>
       </c>
       <c r="AN63" t="n">
         <v>0.29</v>
@@ -18853,16 +19000,16 @@
         </is>
       </c>
       <c r="AW63" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BB63" t="inlineStr">
         <is>
@@ -18875,22 +19022,22 @@
         </is>
       </c>
       <c r="BI63" t="n">
-        <v>-5.83</v>
+        <v>-7.47</v>
       </c>
       <c r="BJ63" t="n">
-        <v>-11.24</v>
+        <v>-12.79</v>
       </c>
       <c r="BL63" t="n">
-        <v>-0.79</v>
+        <v>-2.52</v>
       </c>
       <c r="BM63" t="n">
-        <v>-11.24</v>
+        <v>-12.79</v>
       </c>
       <c r="BN63" t="n">
-        <v>12.29</v>
+        <v>10.33</v>
       </c>
       <c r="BO63" t="n">
-        <v>299.23</v>
+        <v>292.27</v>
       </c>
       <c r="BP63" t="inlineStr">
         <is>
@@ -18922,24 +19069,24 @@
         <v>30.8</v>
       </c>
       <c r="BY63" t="n">
-        <v>-32.5</v>
+        <v>-33.6</v>
       </c>
       <c r="BZ63" t="n">
-        <v>-31.1</v>
+        <v>-32.2</v>
       </c>
       <c r="CA63" t="n">
-        <v>48.4</v>
+        <v>45.8</v>
       </c>
       <c r="CB63" t="n">
-        <v>751</v>
+        <v>736.2</v>
       </c>
       <c r="CC63" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(100)</t>
+          <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
       <c r="CE63" t="n">
-        <v>-0.79</v>
+        <v>-2.52</v>
       </c>
       <c r="CF63" t="n">
         <v>212.1</v>
@@ -18993,16 +19140,16 @@
         <v>1799</v>
       </c>
       <c r="DA63" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="DB63" t="n">
         <v>-5.5</v>
       </c>
-      <c r="DB63" t="n">
-        <v>-3.9</v>
-      </c>
       <c r="DC63" t="n">
-        <v>-4</v>
+        <v>-5.7</v>
       </c>
       <c r="DD63" t="n">
-        <v>1.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64">
@@ -19046,16 +19193,16 @@
         <v>0.7</v>
       </c>
       <c r="L64" t="n">
-        <v>41.7</v>
+        <v>31.6</v>
       </c>
       <c r="M64" t="n">
-        <v>40.2</v>
+        <v>44.6</v>
       </c>
       <c r="N64" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O64" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P64" t="n">
         <v>5.4</v>
@@ -19117,13 +19264,13 @@
         <v>70</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1.25</v>
+        <v>2.23</v>
       </c>
       <c r="AL64" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="AM64" t="n">
-        <v>42.2</v>
+        <v>40.3</v>
       </c>
       <c r="AN64" t="n">
         <v>1</v>
@@ -19151,16 +19298,16 @@
         </is>
       </c>
       <c r="AW64" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="BB64" t="inlineStr">
         <is>
@@ -19173,22 +19320,22 @@
         </is>
       </c>
       <c r="BI64" t="n">
-        <v>-3.19</v>
+        <v>-3.98</v>
       </c>
       <c r="BJ64" t="n">
-        <v>-0.1</v>
+        <v>-0.92</v>
       </c>
       <c r="BL64" t="n">
-        <v>-1.44</v>
+        <v>-2.25</v>
       </c>
       <c r="BM64" t="n">
-        <v>-0.1</v>
+        <v>-0.92</v>
       </c>
       <c r="BN64" t="n">
-        <v>8.800000000000001</v>
+        <v>7.91</v>
       </c>
       <c r="BO64" t="n">
-        <v>150.33</v>
+        <v>148.29</v>
       </c>
       <c r="BP64" t="inlineStr">
         <is>
@@ -19220,24 +19367,24 @@
         <v>111.3</v>
       </c>
       <c r="BY64" t="n">
-        <v>-17.5</v>
+        <v>-18.2</v>
       </c>
       <c r="BZ64" t="n">
-        <v>-14.6</v>
+        <v>-15.3</v>
       </c>
       <c r="CA64" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="CB64" t="n">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="CC64" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(100)</t>
+          <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
       <c r="CE64" t="n">
-        <v>-1.44</v>
+        <v>-2.25</v>
       </c>
       <c r="CF64" t="n">
         <v>45.9</v>
@@ -19278,6 +19425,11 @@
       <c r="CS64" t="n">
         <v>12.3</v>
       </c>
+      <c r="CV64" t="inlineStr">
+        <is>
+          <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
+        </is>
+      </c>
       <c r="CW64" t="n">
         <v>66</v>
       </c>
@@ -19288,16 +19440,16 @@
         <v>4636</v>
       </c>
       <c r="DA64" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="DB64" t="n">
-        <v>-3</v>
+        <v>-3.8</v>
       </c>
       <c r="DC64" t="n">
-        <v>-2.7</v>
+        <v>-3.5</v>
       </c>
       <c r="DD64" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="65">
@@ -19341,16 +19493,16 @@
         <v>0.8</v>
       </c>
       <c r="L65" t="n">
-        <v>8.1</v>
+        <v>22.8</v>
       </c>
       <c r="M65" t="n">
-        <v>51.9</v>
+        <v>79</v>
       </c>
       <c r="N65" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="O65" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="P65" t="n">
         <v>5.3</v>
@@ -19364,11 +19516,6 @@
       <c r="S65" t="n">
         <v>6.4</v>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(5)</t>
-        </is>
-      </c>
       <c r="U65" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -19417,7 +19564,7 @@
         <v>53</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
@@ -19425,10 +19572,10 @@
         </is>
       </c>
       <c r="AL65" t="n">
-        <v>17.35</v>
+        <v>17.3</v>
       </c>
       <c r="AM65" t="n">
-        <v>63.6</v>
+        <v>62.9</v>
       </c>
       <c r="AN65" t="n">
         <v>37.16</v>
@@ -19459,16 +19606,16 @@
         </is>
       </c>
       <c r="AW65" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AY65" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="BB65" t="inlineStr">
         <is>
@@ -19481,22 +19628,22 @@
         </is>
       </c>
       <c r="BI65" t="n">
-        <v>-0.86</v>
+        <v>-1.14</v>
       </c>
       <c r="BJ65" t="n">
-        <v>18.03</v>
+        <v>17.69</v>
       </c>
       <c r="BL65" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BM65" t="n">
-        <v>18.03</v>
+        <v>17.69</v>
       </c>
       <c r="BN65" t="n">
-        <v>42.28</v>
+        <v>41.87</v>
       </c>
       <c r="BO65" t="n">
-        <v>73.47</v>
+        <v>72.97</v>
       </c>
       <c r="BP65" t="inlineStr">
         <is>
@@ -19528,16 +19675,16 @@
         <v>38.7</v>
       </c>
       <c r="BY65" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="BZ65" t="n">
-        <v>-24.3</v>
+        <v>-24.5</v>
       </c>
       <c r="CA65" t="n">
-        <v>51.1</v>
+        <v>50.6</v>
       </c>
       <c r="CB65" t="n">
-        <v>1709.8</v>
+        <v>1704.6</v>
       </c>
       <c r="CC65" t="inlineStr">
         <is>
@@ -19545,7 +19692,7 @@
         </is>
       </c>
       <c r="CE65" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CF65" t="n">
         <v>13.8</v>
@@ -19599,16 +19746,16 @@
         <v>3241</v>
       </c>
       <c r="DA65" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="DB65" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="DC65" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="DD65" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="66">
@@ -19652,16 +19799,16 @@
         <v>1.1</v>
       </c>
       <c r="L66" t="n">
-        <v>30.1</v>
+        <v>33.9</v>
       </c>
       <c r="M66" t="n">
-        <v>70.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P66" t="n">
         <v>11.3</v>
@@ -19714,7 +19861,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>20.23</v>
+        <v>33.15</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -19722,10 +19869,10 @@
         </is>
       </c>
       <c r="AL66" t="n">
-        <v>13.55</v>
+        <v>13.3</v>
       </c>
       <c r="AM66" t="n">
-        <v>71.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="AN66" t="n">
         <v>0.16</v>
@@ -19753,16 +19900,16 @@
         </is>
       </c>
       <c r="AW66" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AX66" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AY66" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="BB66" t="inlineStr">
         <is>
@@ -19771,17 +19918,17 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Thoát vùng quá mua</t>
         </is>
       </c>
       <c r="BI66" t="n">
-        <v>2.95</v>
+        <v>1.05</v>
       </c>
       <c r="BL66" t="n">
-        <v>-1.09</v>
+        <v>-2.92</v>
       </c>
       <c r="BN66" t="n">
-        <v>123.29</v>
+        <v>119.17</v>
       </c>
       <c r="BP66" t="inlineStr">
         <is>
@@ -19807,16 +19954,16 @@
         <v>44.5</v>
       </c>
       <c r="BY66" t="n">
-        <v>-9.1</v>
+        <v>-10.7</v>
       </c>
       <c r="BZ66" t="n">
-        <v>-4.6</v>
+        <v>-6.3</v>
       </c>
       <c r="CA66" t="n">
-        <v>38</v>
+        <v>35.4</v>
       </c>
       <c r="CB66" t="n">
-        <v>265.9</v>
+        <v>259.1</v>
       </c>
       <c r="CC66" t="inlineStr">
         <is>
@@ -19824,7 +19971,7 @@
         </is>
       </c>
       <c r="CE66" t="n">
-        <v>-1.09</v>
+        <v>-2.92</v>
       </c>
       <c r="CF66" t="n">
         <v>3039.1</v>
@@ -19881,16 +20028,16 @@
         <v>1211</v>
       </c>
       <c r="DA66" t="n">
-        <v>78.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="DB66" t="n">
-        <v>12.3</v>
+        <v>10.4</v>
       </c>
       <c r="DC66" t="n">
-        <v>28.5</v>
+        <v>26.2</v>
       </c>
       <c r="DD66" t="n">
-        <v>50.9</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="67">
@@ -19933,8 +20080,17 @@
       <c r="K67" t="n">
         <v>0.5</v>
       </c>
+      <c r="L67" t="n">
+        <v>100</v>
+      </c>
       <c r="M67" t="n">
-        <v>45.1</v>
+        <v>44.7</v>
+      </c>
+      <c r="N67" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.1</v>
       </c>
       <c r="P67" t="n">
         <v>6.4</v>
@@ -19948,6 +20104,11 @@
       <c r="S67" t="n">
         <v>7.5</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(20)</t>
+        </is>
+      </c>
       <c r="V67" t="n">
         <v>21.83</v>
       </c>
@@ -19990,12 +20151,26 @@
       <c r="AI67" t="n">
         <v>86</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>38.1</v>
+      </c>
       <c r="AN67" t="n">
         <v>0.02</v>
       </c>
       <c r="AO67" t="n">
         <v>66</v>
       </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>Bán mạnh</t>
+        </is>
+      </c>
       <c r="AR67" t="n">
         <v>3</v>
       </c>
@@ -20005,6 +20180,51 @@
       <c r="AU67" t="n">
         <v>2920</v>
       </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(50)</t>
+        </is>
+      </c>
+      <c r="BH67" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI67" t="n">
+        <v>-6.52</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>-6.28</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>-6.28</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>129.18</v>
+      </c>
       <c r="BP67" t="inlineStr">
         <is>
           <t>Có</t>
@@ -20034,6 +20254,38 @@
       <c r="BX67" t="n">
         <v>123.4</v>
       </c>
+      <c r="BY67" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>530.7</v>
+      </c>
+      <c r="CC67" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(100)</t>
+        </is>
+      </c>
+      <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="CH67" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CI67" t="n">
+        <v>5.5</v>
+      </c>
       <c r="CJ67" t="n">
         <v>91.5</v>
       </c>
@@ -20072,6 +20324,18 @@
       </c>
       <c r="CZ67" t="n">
         <v>2920</v>
+      </c>
+      <c r="DA67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="DB67" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="DC67" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="DD67" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="68">
@@ -20115,16 +20379,16 @@
         <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="M68" t="n">
-        <v>24</v>
+        <v>32.2</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="O68" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P68" t="n">
         <v>10.6</v>
@@ -20186,13 +20450,13 @@
         <v>7</v>
       </c>
       <c r="AJ68" t="n">
-        <v>16.73</v>
+        <v>27.95</v>
       </c>
       <c r="AL68" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="AM68" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN68" t="n">
         <v>14.05</v>
@@ -20207,7 +20471,7 @@
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Bán mạnh</t>
         </is>
       </c>
       <c r="AR68" t="n">
@@ -20225,20 +20489,20 @@
         </is>
       </c>
       <c r="AW68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY68" t="n">
         <v>0.9</v>
       </c>
-      <c r="AX68" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AZ68" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="BB68" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(50)</t>
+          <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
       <c r="BH68" t="inlineStr">
@@ -20247,22 +20511,22 @@
         </is>
       </c>
       <c r="BI68" t="n">
-        <v>-5.01</v>
+        <v>-6.53</v>
       </c>
       <c r="BJ68" t="n">
-        <v>1.87</v>
+        <v>0.24</v>
       </c>
       <c r="BL68" t="n">
-        <v>-2.55</v>
+        <v>-4.11</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.87</v>
+        <v>0.24</v>
       </c>
       <c r="BN68" t="n">
-        <v>-18.35</v>
+        <v>-19.66</v>
       </c>
       <c r="BO68" t="n">
-        <v>99.93000000000001</v>
+        <v>96.73</v>
       </c>
       <c r="BP68" t="inlineStr">
         <is>
@@ -20294,16 +20558,16 @@
         <v>372.1</v>
       </c>
       <c r="BY68" t="n">
-        <v>-20.4</v>
+        <v>-21.7</v>
       </c>
       <c r="BZ68" t="n">
-        <v>-54.1</v>
+        <v>-54.9</v>
       </c>
       <c r="CA68" t="n">
-        <v>73.59999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="CB68" t="n">
-        <v>143.3</v>
+        <v>139.4</v>
       </c>
       <c r="CC68" t="inlineStr">
         <is>
@@ -20311,19 +20575,19 @@
         </is>
       </c>
       <c r="CE68" t="n">
-        <v>-2.55</v>
+        <v>-4.11</v>
       </c>
       <c r="CF68" t="n">
-        <v>1497.3</v>
+        <v>1496.7</v>
       </c>
       <c r="CG68" t="n">
-        <v>2329.3</v>
+        <v>2329</v>
       </c>
       <c r="CH68" t="n">
-        <v>2571.5</v>
+        <v>2571.3</v>
       </c>
       <c r="CI68" t="n">
-        <v>2102.2</v>
+        <v>2102.1</v>
       </c>
       <c r="CJ68" t="n">
         <v>70.7</v>
@@ -20373,16 +20637,16 @@
         <v>1206</v>
       </c>
       <c r="DA68" t="n">
-        <v>-1.5</v>
+        <v>-3.1</v>
       </c>
       <c r="DB68" t="n">
-        <v>-2.8</v>
+        <v>-4.2</v>
       </c>
       <c r="DC68" t="n">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="DD68" t="n">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="69">
@@ -20426,13 +20690,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>37.9</v>
+        <v>39.5</v>
       </c>
       <c r="M69" t="n">
-        <v>58.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N69" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -20488,7 +20752,7 @@
         <v>91</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1152.67</v>
+        <v>1664.78</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -20496,10 +20760,10 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>34.15</v>
+        <v>34.05</v>
       </c>
       <c r="AM69" t="n">
-        <v>88.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="AN69" t="n">
         <v>25.84</v>
@@ -20532,16 +20796,16 @@
         </is>
       </c>
       <c r="AW69" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AY69" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="BB69" t="inlineStr">
         <is>
@@ -20554,22 +20818,22 @@
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>15.37</v>
+        <v>15.03</v>
       </c>
       <c r="BJ69" t="n">
-        <v>59.95</v>
+        <v>59.48</v>
       </c>
       <c r="BL69" t="n">
-        <v>-0.15</v>
+        <v>-0.44</v>
       </c>
       <c r="BM69" t="n">
-        <v>59.95</v>
+        <v>59.48</v>
       </c>
       <c r="BN69" t="n">
-        <v>90.13</v>
+        <v>89.58</v>
       </c>
       <c r="BO69" t="n">
-        <v>388.96</v>
+        <v>387.52</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -20595,16 +20859,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="BZ69" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="CA69" t="n">
-        <v>131.5</v>
+        <v>130.9</v>
       </c>
       <c r="CB69" t="n">
-        <v>517.3</v>
+        <v>515.5</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -20617,19 +20881,19 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>-0.15</v>
+        <v>-0.44</v>
       </c>
       <c r="CF69" t="n">
-        <v>40622</v>
+        <v>40520.2</v>
       </c>
       <c r="CG69" t="n">
-        <v>42349.9</v>
+        <v>42299</v>
       </c>
       <c r="CH69" t="n">
-        <v>49284.1</v>
+        <v>49258.7</v>
       </c>
       <c r="CI69" t="n">
-        <v>42270.8</v>
+        <v>42260.6</v>
       </c>
       <c r="CJ69" t="n">
         <v>26.6</v>
@@ -20674,16 +20938,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>76.2</v>
+        <v>75.7</v>
       </c>
       <c r="DB69" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="DC69" t="n">
-        <v>48.6</v>
+        <v>48.2</v>
       </c>
       <c r="DD69" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70">
@@ -20727,16 +20991,16 @@
         <v>1.2</v>
       </c>
       <c r="L70" t="n">
-        <v>50.5</v>
+        <v>40.9</v>
       </c>
       <c r="M70" t="n">
-        <v>79.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P70" t="n">
         <v>6</v>
@@ -20752,7 +21016,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(20)</t>
+          <t>Giá cắt xuống SMA(20)</t>
         </is>
       </c>
       <c r="V70" t="n">
@@ -20798,7 +21062,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3.11</v>
+        <v>6.01</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -20806,10 +21070,10 @@
         </is>
       </c>
       <c r="AL70" t="n">
-        <v>9.19</v>
+        <v>9.1</v>
       </c>
       <c r="AM70" t="n">
-        <v>52.2</v>
+        <v>50.6</v>
       </c>
       <c r="AN70" t="n">
         <v>0.66</v>
@@ -20819,7 +21083,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR70" t="n">
@@ -20837,44 +21101,49 @@
         </is>
       </c>
       <c r="AW70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AX70" t="n">
         <v>0.5</v>
       </c>
-      <c r="AX70" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AY70" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BB70" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BF70" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
       <c r="BH70" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI70" t="n">
-        <v>-5.26</v>
+        <v>-6.19</v>
       </c>
       <c r="BJ70" t="n">
-        <v>13.88</v>
+        <v>12.76</v>
       </c>
       <c r="BL70" t="n">
-        <v>-2.34</v>
+        <v>-3.29</v>
       </c>
       <c r="BM70" t="n">
-        <v>13.88</v>
+        <v>12.76</v>
       </c>
       <c r="BN70" t="n">
-        <v>-27.92</v>
+        <v>-28.63</v>
       </c>
       <c r="BO70" t="n">
-        <v>35.08</v>
+        <v>33.76</v>
       </c>
       <c r="BP70" t="inlineStr">
         <is>
@@ -20906,16 +21175,16 @@
         <v>958.9</v>
       </c>
       <c r="BY70" t="n">
-        <v>-35.3</v>
+        <v>-35.9</v>
       </c>
       <c r="BZ70" t="n">
-        <v>-82.3</v>
+        <v>-82.5</v>
       </c>
       <c r="CA70" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="CB70" t="n">
-        <v>155.6</v>
+        <v>153</v>
       </c>
       <c r="CC70" t="inlineStr">
         <is>
@@ -20923,16 +21192,16 @@
         </is>
       </c>
       <c r="CE70" t="n">
-        <v>-2.34</v>
+        <v>-3.29</v>
       </c>
       <c r="CF70" t="n">
-        <v>734.7</v>
+        <v>734.3</v>
       </c>
       <c r="CG70" t="n">
-        <v>1430.8</v>
+        <v>1430.7</v>
       </c>
       <c r="CH70" t="n">
-        <v>1515</v>
+        <v>1514.9</v>
       </c>
       <c r="CI70" t="n">
         <v>1171</v>
@@ -20974,16 +21243,16 @@
         <v>1558</v>
       </c>
       <c r="DA70" t="n">
-        <v>-15.9</v>
+        <v>-16.8</v>
       </c>
       <c r="DB70" t="n">
-        <v>0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="DC70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DD70" t="n">
-        <v>-6.1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="71">
@@ -21027,16 +21296,16 @@
         <v>0.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
-        <v>68.09999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="N71" t="n">
         <v>4</v>
       </c>
       <c r="O71" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P71" t="n">
         <v>13.6</v>
@@ -21103,7 +21372,7 @@
         <v>31</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
@@ -21150,13 +21419,13 @@
         </is>
       </c>
       <c r="AW71" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AY71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AZ71" t="n">
         <v>0.1</v>
@@ -21343,16 +21612,16 @@
         <v>0.2</v>
       </c>
       <c r="L72" t="n">
-        <v>31.4</v>
+        <v>33.6</v>
       </c>
       <c r="M72" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="N72" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="O72" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P72" t="n">
         <v>6.1</v>
@@ -21408,13 +21677,13 @@
         <v>95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AL72" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="AM72" t="n">
-        <v>62.1</v>
+        <v>61.8</v>
       </c>
       <c r="AN72" t="n">
         <v>0.01</v>
@@ -21451,7 +21720,7 @@
         <v>0.1</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BB72" t="inlineStr">
         <is>
@@ -21464,19 +21733,19 @@
         </is>
       </c>
       <c r="BI72" t="n">
-        <v>-3.85</v>
+        <v>-4.12</v>
       </c>
       <c r="BJ72" t="n">
-        <v>77.54000000000001</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="BL72" t="n">
-        <v>-1.29</v>
+        <v>-1.56</v>
       </c>
       <c r="BM72" t="n">
-        <v>77.54000000000001</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="BN72" t="n">
-        <v>119.7</v>
+        <v>119.09</v>
       </c>
       <c r="BP72" t="inlineStr">
         <is>
@@ -21508,16 +21777,16 @@
         <v>210</v>
       </c>
       <c r="BY72" t="n">
-        <v>-8.9</v>
+        <v>-9.1</v>
       </c>
       <c r="BZ72" t="n">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="CA72" t="n">
-        <v>164.9</v>
+        <v>164.2</v>
       </c>
       <c r="CB72" t="n">
-        <v>164.9</v>
+        <v>164.2</v>
       </c>
       <c r="CC72" t="inlineStr">
         <is>
@@ -21525,7 +21794,7 @@
         </is>
       </c>
       <c r="CE72" t="n">
-        <v>-1.29</v>
+        <v>-1.56</v>
       </c>
       <c r="CF72" t="n">
         <v>78</v>
@@ -21576,16 +21845,16 @@
         <v>6019</v>
       </c>
       <c r="DA72" t="n">
-        <v>88.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="DB72" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="DC72" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="DD72" t="n">
-        <v>62.5</v>
+        <v>62.1</v>
       </c>
     </row>
   </sheetData>

--- a/market_filtered.xlsx
+++ b/market_filtered.xlsx
@@ -1133,16 +1133,16 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>56.2</v>
+        <v>58.2</v>
       </c>
       <c r="M2" t="n">
-        <v>38.8</v>
+        <v>41.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O2" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
         <v>9.199999999999999</v>
@@ -1200,7 +1200,7 @@
         <v>84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>208.88</v>
+        <v>265.7</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="AM2" t="n">
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="AN2" t="n">
         <v>16.49</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR2" t="n">
@@ -1238,20 +1238,20 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AW2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY2" t="n">
         <v>1.7</v>
       </c>
-      <c r="AX2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
@@ -1269,19 +1269,19 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>2.54</v>
+        <v>4.86</v>
       </c>
       <c r="BJ2" t="n">
-        <v>46.57</v>
+        <v>49.88</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.62</v>
+        <v>4.94</v>
       </c>
       <c r="BM2" t="n">
-        <v>46.57</v>
+        <v>49.88</v>
       </c>
       <c r="BN2" t="n">
-        <v>72.28</v>
+        <v>76.17</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1307,16 +1307,16 @@
         <v>116.3</v>
       </c>
       <c r="BY2" t="n">
-        <v>-4.3</v>
+        <v>-2.2</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-19.1</v>
+        <v>-17.3</v>
       </c>
       <c r="CA2" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="CB2" t="n">
-        <v>136.8</v>
+        <v>142.1</v>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>2.62</v>
+        <v>4.94</v>
       </c>
       <c r="CF2" t="n">
-        <v>8888.9</v>
+        <v>8890.799999999999</v>
       </c>
       <c r="CG2" t="n">
-        <v>9629.5</v>
+        <v>9630.5</v>
       </c>
       <c r="CH2" t="n">
-        <v>11589.5</v>
+        <v>11590</v>
       </c>
       <c r="CI2" t="n">
-        <v>6632.2</v>
+        <v>6632.4</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1381,16 +1381,16 @@
         <v>1406</v>
       </c>
       <c r="DA2" t="n">
-        <v>61.9</v>
+        <v>65.5</v>
       </c>
       <c r="DB2" t="n">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="DC2" t="n">
-        <v>30.5</v>
+        <v>33.3</v>
       </c>
       <c r="DD2" t="n">
-        <v>49.3</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="3">
@@ -1437,7 +1437,7 @@
         <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>1.8</v>
+        <v>53</v>
       </c>
       <c r="N3" t="n">
         <v>46.7</v>
@@ -1740,13 +1740,13 @@
         <v>0.3</v>
       </c>
       <c r="M4" t="n">
-        <v>61.5</v>
+        <v>58.3</v>
       </c>
       <c r="N4" t="n">
         <v>48.2</v>
       </c>
       <c r="O4" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P4" t="n">
         <v>11.6</v>
@@ -1808,7 +1808,7 @@
         <v>35</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AL4" t="n">
         <v>54.8</v>
@@ -1845,16 +1845,16 @@
         </is>
       </c>
       <c r="AW4" t="n">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
         <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>29.7</v>
+        <v>35.7</v>
       </c>
       <c r="M5" t="n">
-        <v>46.2</v>
+        <v>49.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P5" t="n">
         <v>14.8</v>
@@ -2108,7 +2108,7 @@
         <v>73</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="AM5" t="n">
-        <v>62.8</v>
+        <v>67.3</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR5" t="n">
@@ -2147,16 +2147,16 @@
         </is>
       </c>
       <c r="AW5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
@@ -2169,22 +2169,22 @@
         </is>
       </c>
       <c r="BI5" t="n">
-        <v>5.67</v>
+        <v>7.8</v>
       </c>
       <c r="BJ5" t="n">
-        <v>21.14</v>
+        <v>23.58</v>
       </c>
       <c r="BL5" t="n">
-        <v>-4.49</v>
+        <v>-2.56</v>
       </c>
       <c r="BM5" t="n">
-        <v>21.14</v>
+        <v>23.58</v>
       </c>
       <c r="BN5" t="n">
-        <v>36.2</v>
+        <v>38.94</v>
       </c>
       <c r="BO5" t="n">
-        <v>19.16</v>
+        <v>21.56</v>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
@@ -2210,16 +2210,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BY5" t="n">
-        <v>-8.6</v>
+        <v>-6.8</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-41.2</v>
+        <v>-40</v>
       </c>
       <c r="CA5" t="n">
-        <v>54.7</v>
+        <v>57.8</v>
       </c>
       <c r="CB5" t="n">
-        <v>53.1</v>
+        <v>56.2</v>
       </c>
       <c r="CC5" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="CE5" t="n">
-        <v>-4.49</v>
+        <v>-2.56</v>
       </c>
       <c r="CF5" t="n">
         <v>94.90000000000001</v>
@@ -2281,16 +2281,16 @@
         <v>1057</v>
       </c>
       <c r="DA5" t="n">
-        <v>29</v>
+        <v>31.6</v>
       </c>
       <c r="DB5" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="DC5" t="n">
-        <v>17.2</v>
+        <v>19.5</v>
       </c>
       <c r="DD5" t="n">
-        <v>25.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="6">
@@ -2334,16 +2334,16 @@
         <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>36.2</v>
+        <v>48.3</v>
       </c>
       <c r="M6" t="n">
-        <v>68.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4</v>
+        <v>14.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>9.800000000000001</v>
@@ -2405,7 +2405,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.42</v>
+        <v>38.6</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>133.5</v>
+        <v>132.6</v>
       </c>
       <c r="AM6" t="n">
-        <v>28.7</v>
+        <v>27.2</v>
       </c>
       <c r="AN6" t="n">
         <v>84.93000000000001</v>
@@ -2449,16 +2449,16 @@
         </is>
       </c>
       <c r="AW6" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
@@ -2471,22 +2471,22 @@
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>-4.98</v>
+        <v>-5.62</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-6.38</v>
+        <v>-7.01</v>
       </c>
       <c r="BL6" t="n">
-        <v>-1.84</v>
+        <v>-2.5</v>
       </c>
       <c r="BM6" t="n">
-        <v>-6.38</v>
+        <v>-7.01</v>
       </c>
       <c r="BN6" t="n">
-        <v>43.31</v>
+        <v>42.35</v>
       </c>
       <c r="BO6" t="n">
-        <v>298.37</v>
+        <v>295.68</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
         <v>51.1</v>
       </c>
       <c r="BY6" t="n">
-        <v>-11.6</v>
+        <v>-12.2</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-8.6</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="CA6" t="n">
-        <v>43.9</v>
+        <v>42.9</v>
       </c>
       <c r="CB6" t="n">
-        <v>8979.299999999999</v>
+        <v>8918</v>
       </c>
       <c r="CC6" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="CE6" t="n">
-        <v>-1.84</v>
+        <v>-2.5</v>
       </c>
       <c r="CF6" t="n">
         <v>190.3</v>
@@ -2592,16 +2592,16 @@
         <v>13894</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="DB6" t="n">
-        <v>-4.9</v>
+        <v>-5.5</v>
       </c>
       <c r="DC6" t="n">
-        <v>-5</v>
+        <v>-5.6</v>
       </c>
       <c r="DD6" t="n">
-        <v>-2</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="7">
@@ -2644,14 +2644,17 @@
       <c r="K7" t="n">
         <v>0.3</v>
       </c>
+      <c r="L7" t="n">
+        <v>24.4</v>
+      </c>
       <c r="M7" t="n">
-        <v>77</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>51.1</v>
+        <v>25.6</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P7" t="n">
         <v>13</v>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Giá nằm dưới SMA(20)</t>
+          <t>Giá cắt lên SMA(20)</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -2713,13 +2716,13 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AL7" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>52.6</v>
+        <v>57.6</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -2750,44 +2753,49 @@
         </is>
       </c>
       <c r="AW7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AY7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>0.6</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>0.4</v>
-      </c>
       <c r="BB7" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Tín hiệu mua</t>
+        </is>
+      </c>
       <c r="BH7" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI7" t="n">
-        <v>0.87</v>
+        <v>2.17</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.43</v>
+        <v>1.73</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.43</v>
+        <v>1.73</v>
       </c>
       <c r="BN7" t="n">
-        <v>10.25</v>
+        <v>11.68</v>
       </c>
       <c r="BO7" t="n">
-        <v>166.62</v>
+        <v>170.06</v>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
@@ -2819,16 +2827,16 @@
         <v>1904.9</v>
       </c>
       <c r="BY7" t="n">
-        <v>-6.8</v>
+        <v>-5.6</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-4.6</v>
+        <v>-3.3</v>
       </c>
       <c r="CA7" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="CB7" t="n">
-        <v>196.3</v>
+        <v>200.1</v>
       </c>
       <c r="CC7" t="inlineStr">
         <is>
@@ -2836,7 +2844,7 @@
         </is>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="CF7" t="n">
         <v>10.5</v>
@@ -2893,16 +2901,16 @@
         <v>1781</v>
       </c>
       <c r="DA7" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.1</v>
+        <v>1.1</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="DD7" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
@@ -2943,16 +2951,16 @@
         <v>0.5</v>
       </c>
       <c r="L8" t="n">
-        <v>75.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>53.7</v>
+        <v>43.9</v>
       </c>
       <c r="N8" t="n">
-        <v>16.9</v>
+        <v>25.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
         <v>6.9</v>
@@ -3016,13 +3024,13 @@
         <v>92</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.47</v>
+        <v>0.92</v>
       </c>
       <c r="AL8" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AM8" t="n">
-        <v>59.7</v>
+        <v>57.2</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -3050,16 +3058,16 @@
         </is>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
@@ -3077,19 +3085,19 @@
         </is>
       </c>
       <c r="BI8" t="n">
-        <v>-1.13</v>
+        <v>-2.64</v>
       </c>
       <c r="BJ8" t="n">
-        <v>33.63</v>
+        <v>31.6</v>
       </c>
       <c r="BL8" t="n">
-        <v>-3.01</v>
+        <v>-4.49</v>
       </c>
       <c r="BM8" t="n">
-        <v>33.63</v>
+        <v>31.6</v>
       </c>
       <c r="BN8" t="n">
-        <v>91.68000000000001</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
@@ -3121,16 +3129,16 @@
         <v>37553.8</v>
       </c>
       <c r="BY8" t="n">
-        <v>-7.5</v>
+        <v>-8.9</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-53.7</v>
+        <v>-54.4</v>
       </c>
       <c r="CA8" t="n">
-        <v>166</v>
+        <v>161.9</v>
       </c>
       <c r="CB8" t="n">
-        <v>189.3</v>
+        <v>184.9</v>
       </c>
       <c r="CC8" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
         </is>
       </c>
       <c r="CE8" t="n">
-        <v>-3.01</v>
+        <v>-4.49</v>
       </c>
       <c r="CF8" t="n">
         <v>24.1</v>
@@ -3189,16 +3197,16 @@
         <v>2936</v>
       </c>
       <c r="DA8" t="n">
-        <v>70.7</v>
+        <v>68.2</v>
       </c>
       <c r="DB8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="DC8" t="n">
-        <v>20.3</v>
+        <v>18.5</v>
       </c>
       <c r="DD8" t="n">
-        <v>41.6</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="9">
@@ -3242,16 +3250,16 @@
         <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>46.1</v>
+        <v>51.5</v>
       </c>
       <c r="M9" t="n">
-        <v>33.6</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P9" t="n">
         <v>10.7</v>
@@ -3313,7 +3321,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.73</v>
+        <v>1.39</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
@@ -3321,10 +3329,10 @@
         </is>
       </c>
       <c r="AL9" t="n">
-        <v>33.95</v>
+        <v>33.85</v>
       </c>
       <c r="AM9" t="n">
-        <v>37</v>
+        <v>34.5</v>
       </c>
       <c r="AN9" t="n">
         <v>3.35</v>
@@ -3348,20 +3356,20 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW9" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
@@ -3379,22 +3387,22 @@
         </is>
       </c>
       <c r="BI9" t="n">
-        <v>-0.15</v>
+        <v>-0.44</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-3.41</v>
+        <v>-3.7</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.29</v>
+        <v>-0.59</v>
       </c>
       <c r="BM9" t="n">
-        <v>-3.41</v>
+        <v>-3.7</v>
       </c>
       <c r="BN9" t="n">
-        <v>5.16</v>
+        <v>4.85</v>
       </c>
       <c r="BO9" t="n">
-        <v>164.61</v>
+        <v>163.83</v>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
@@ -3426,16 +3434,16 @@
         <v>286.4</v>
       </c>
       <c r="BY9" t="n">
-        <v>-13.2</v>
+        <v>-13.5</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-11.4</v>
+        <v>-11.6</v>
       </c>
       <c r="CA9" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="CB9" t="n">
-        <v>949.6</v>
+        <v>946.5</v>
       </c>
       <c r="CC9" t="inlineStr">
         <is>
@@ -3443,7 +3451,7 @@
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>-0.29</v>
+        <v>-0.59</v>
       </c>
       <c r="CF9" t="n">
         <v>86.5</v>
@@ -3500,16 +3508,16 @@
         <v>3179</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="DC9" t="n">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="10">
@@ -3553,16 +3561,16 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>56.1</v>
+        <v>58.3</v>
       </c>
       <c r="M10" t="n">
-        <v>27.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>8.800000000000001</v>
@@ -3615,7 +3623,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="n">
-        <v>529.37</v>
+        <v>791.47</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3623,10 +3631,10 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="AM10" t="n">
-        <v>67.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AN10" t="n">
         <v>26.83</v>
@@ -3659,16 +3667,16 @@
         </is>
       </c>
       <c r="AW10" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
@@ -3681,22 +3689,22 @@
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>4.17</v>
+        <v>5.42</v>
       </c>
       <c r="BJ10" t="n">
-        <v>10.99</v>
+        <v>12.32</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.02</v>
       </c>
       <c r="BM10" t="n">
-        <v>10.99</v>
+        <v>12.32</v>
       </c>
       <c r="BN10" t="n">
-        <v>53.14</v>
+        <v>54.98</v>
       </c>
       <c r="BO10" t="n">
-        <v>221.6</v>
+        <v>225.46</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -3722,16 +3730,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>-2.1</v>
+        <v>-1</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.4</v>
+        <v>0.8</v>
       </c>
       <c r="CA10" t="n">
-        <v>53.4</v>
+        <v>55.2</v>
       </c>
       <c r="CB10" t="n">
-        <v>823.2</v>
+        <v>834.3</v>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
@@ -3739,7 +3747,7 @@
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.02</v>
       </c>
       <c r="CF10" t="n">
         <v>11735.7</v>
@@ -3796,16 +3804,16 @@
         <v>5608</v>
       </c>
       <c r="DA10" t="n">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="DB10" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="DC10" t="n">
-        <v>12.2</v>
+        <v>13.5</v>
       </c>
       <c r="DD10" t="n">
-        <v>20.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -3849,16 +3857,16 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>46.5</v>
+        <v>49.8</v>
       </c>
       <c r="M11" t="n">
-        <v>50.8</v>
+        <v>51.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9</v>
+        <v>11.9</v>
       </c>
       <c r="O11" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P11" t="n">
         <v>12</v>
@@ -3920,7 +3928,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>74.78</v>
+        <v>111.44</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3928,10 +3936,10 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>25.9</v>
+        <v>25.85</v>
       </c>
       <c r="AM11" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="AN11" t="n">
         <v>2.5</v>
@@ -3959,16 +3967,16 @@
         </is>
       </c>
       <c r="AW11" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
@@ -3986,22 +3994,22 @@
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>-5.13</v>
+        <v>-5.31</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="BL11" t="n">
-        <v>-4.95</v>
+        <v>-5.14</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="BN11" t="n">
-        <v>63.41</v>
+        <v>63.09</v>
       </c>
       <c r="BO11" t="n">
-        <v>128.83</v>
+        <v>128.39</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -4033,16 +4041,16 @@
         <v>36.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>-10.5</v>
+        <v>-10.7</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-15.9</v>
+        <v>-16.1</v>
       </c>
       <c r="CA11" t="n">
-        <v>75</v>
+        <v>74.7</v>
       </c>
       <c r="CB11" t="n">
-        <v>754.8</v>
+        <v>753.2</v>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
@@ -4050,7 +4058,7 @@
         </is>
       </c>
       <c r="CE11" t="n">
-        <v>-4.95</v>
+        <v>-5.14</v>
       </c>
       <c r="CF11" t="n">
         <v>1773</v>
@@ -4107,16 +4115,16 @@
         <v>2263</v>
       </c>
       <c r="DA11" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="DB11" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="DC11" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="DD11" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12">
@@ -4160,16 +4168,16 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>40.9</v>
+        <v>39.9</v>
       </c>
       <c r="M12" t="n">
-        <v>70.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.5</v>
+        <v>20.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P12" t="n">
         <v>7.2</v>
@@ -4231,7 +4239,7 @@
         <v>61</v>
       </c>
       <c r="AJ12" t="n">
-        <v>192.22</v>
+        <v>321.78</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -4239,10 +4247,10 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="AM12" t="n">
-        <v>41.1</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="n">
         <v>4.29</v>
@@ -4275,16 +4283,16 @@
         </is>
       </c>
       <c r="AW12" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
@@ -4297,22 +4305,22 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-8.48</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-2.41</v>
+        <v>-3.09</v>
       </c>
       <c r="BL12" t="n">
-        <v>-2.39</v>
+        <v>-3.07</v>
       </c>
       <c r="BM12" t="n">
-        <v>-2.41</v>
+        <v>-3.09</v>
       </c>
       <c r="BN12" t="n">
-        <v>15.6</v>
+        <v>14.79</v>
       </c>
       <c r="BO12" t="n">
-        <v>100.15</v>
+        <v>98.75</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4344,16 +4352,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-11.6</v>
+        <v>-12.2</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-8.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="CA12" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="CB12" t="n">
-        <v>2497.2</v>
+        <v>2479.1</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4361,7 +4369,7 @@
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>-2.39</v>
+        <v>-3.07</v>
       </c>
       <c r="CF12" t="n">
         <v>9846</v>
@@ -4418,16 +4426,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="DB12" t="n">
-        <v>-5.1</v>
+        <v>-5.7</v>
       </c>
       <c r="DC12" t="n">
-        <v>-2</v>
+        <v>-2.7</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -4471,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="M13" t="n">
-        <v>4.4</v>
+        <v>31.7</v>
       </c>
       <c r="N13" t="n">
-        <v>2.6</v>
+        <v>12.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.6</v>
@@ -4547,7 +4555,7 @@
         <v>57</v>
       </c>
       <c r="AJ13" t="n">
-        <v>284.66</v>
+        <v>485.33</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4555,10 +4563,10 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>40.65</v>
+        <v>40.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>60.6</v>
+        <v>59.8</v>
       </c>
       <c r="AN13" t="n">
         <v>6.47</v>
@@ -4591,16 +4599,16 @@
         </is>
       </c>
       <c r="AW13" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
@@ -4618,22 +4626,22 @@
         </is>
       </c>
       <c r="BI13" t="n">
-        <v>-1.57</v>
+        <v>-1.94</v>
       </c>
       <c r="BJ13" t="n">
-        <v>20.27</v>
+        <v>19.82</v>
       </c>
       <c r="BL13" t="n">
-        <v>-3.21</v>
+        <v>-3.57</v>
       </c>
       <c r="BM13" t="n">
-        <v>20.27</v>
+        <v>19.82</v>
       </c>
       <c r="BN13" t="n">
-        <v>14.01</v>
+        <v>13.59</v>
       </c>
       <c r="BO13" t="n">
-        <v>568.72</v>
+        <v>566.26</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
@@ -4665,16 +4673,16 @@
         <v>18.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>-7.3</v>
+        <v>-7.6</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-6.2</v>
+        <v>-6.6</v>
       </c>
       <c r="CA13" t="n">
-        <v>73.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="CB13" t="n">
-        <v>993.5</v>
+        <v>989.4</v>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
@@ -4682,7 +4690,7 @@
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>-3.21</v>
+        <v>-3.57</v>
       </c>
       <c r="CF13" t="n">
         <v>6269.1</v>
@@ -4739,16 +4747,16 @@
         <v>3221</v>
       </c>
       <c r="DA13" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="DB13" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="DC13" t="n">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="DD13" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="14">
@@ -4792,16 +4800,16 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>35.9</v>
+        <v>37.1</v>
       </c>
       <c r="M14" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
         <v>13.7</v>
@@ -4863,13 +4871,13 @@
         <v>89</v>
       </c>
       <c r="AJ14" t="n">
-        <v>53.68</v>
+        <v>80.03</v>
       </c>
       <c r="AL14" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>48.3</v>
+        <v>47.8</v>
       </c>
       <c r="AN14" t="n">
         <v>4.86</v>
@@ -4902,16 +4910,16 @@
         </is>
       </c>
       <c r="AW14" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
@@ -4934,22 +4942,22 @@
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>-8.67</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="BJ14" t="n">
-        <v>5.33</v>
+        <v>5</v>
       </c>
       <c r="BL14" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="BM14" t="n">
-        <v>5.33</v>
+        <v>5</v>
       </c>
       <c r="BN14" t="n">
-        <v>75.69</v>
+        <v>75.13</v>
       </c>
       <c r="BO14" t="n">
-        <v>563.2</v>
+        <v>561.1</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
@@ -4981,16 +4989,16 @@
         <v>361.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>-10.5</v>
+        <v>-10.8</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="CA14" t="n">
-        <v>159.1</v>
+        <v>158.2</v>
       </c>
       <c r="CB14" t="n">
-        <v>841.1</v>
+        <v>838.1</v>
       </c>
       <c r="CC14" t="inlineStr">
         <is>
@@ -4998,19 +5006,19 @@
         </is>
       </c>
       <c r="CE14" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="CF14" t="n">
-        <v>1515.3</v>
+        <v>1517.1</v>
       </c>
       <c r="CG14" t="n">
-        <v>1462</v>
+        <v>1462.9</v>
       </c>
       <c r="CH14" t="n">
-        <v>1881.3</v>
+        <v>1881.8</v>
       </c>
       <c r="CI14" t="n">
-        <v>2046.8</v>
+        <v>2047</v>
       </c>
       <c r="CJ14" t="n">
         <v>70.09999999999999</v>
@@ -5052,16 +5060,16 @@
         <v>2413</v>
       </c>
       <c r="DA14" t="n">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="DB14" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="DC14" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="DD14" t="n">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="15">
@@ -5105,16 +5113,16 @@
         <v>1.4</v>
       </c>
       <c r="L15" t="n">
-        <v>43.4</v>
+        <v>42</v>
       </c>
       <c r="M15" t="n">
-        <v>32.7</v>
+        <v>29.9</v>
       </c>
       <c r="N15" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>5.9</v>
@@ -5176,7 +5184,7 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.35</v>
+        <v>14.88</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
@@ -5184,10 +5192,10 @@
         </is>
       </c>
       <c r="AL15" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="AM15" t="n">
-        <v>37.4</v>
+        <v>39.4</v>
       </c>
       <c r="AN15" t="n">
         <v>0.85</v>
@@ -5215,16 +5223,16 @@
         </is>
       </c>
       <c r="AW15" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
@@ -5237,22 +5245,22 @@
         </is>
       </c>
       <c r="BI15" t="n">
-        <v>-5.58</v>
+        <v>-4.81</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-6.39</v>
+        <v>-5.63</v>
       </c>
       <c r="BL15" t="n">
-        <v>-1.28</v>
+        <v>-0.48</v>
       </c>
       <c r="BM15" t="n">
-        <v>-6.39</v>
+        <v>-5.63</v>
       </c>
       <c r="BN15" t="n">
-        <v>27.8</v>
+        <v>28.84</v>
       </c>
       <c r="BO15" t="n">
-        <v>312.89</v>
+        <v>316.25</v>
       </c>
       <c r="BP15" t="inlineStr">
         <is>
@@ -5284,16 +5292,16 @@
         <v>167.2</v>
       </c>
       <c r="BY15" t="n">
-        <v>-25</v>
+        <v>-24.4</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-28.9</v>
+        <v>-28.4</v>
       </c>
       <c r="CA15" t="n">
-        <v>57.5</v>
+        <v>58.8</v>
       </c>
       <c r="CB15" t="n">
-        <v>405.8</v>
+        <v>409.9</v>
       </c>
       <c r="CC15" t="inlineStr">
         <is>
@@ -5301,7 +5309,7 @@
         </is>
       </c>
       <c r="CE15" t="n">
-        <v>-1.28</v>
+        <v>-0.48</v>
       </c>
       <c r="CF15" t="n">
         <v>955.6</v>
@@ -5363,16 +5371,16 @@
         <v>2122</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-4.6</v>
+        <v>-3.8</v>
       </c>
       <c r="DC15" t="n">
-        <v>-2.9</v>
+        <v>-2.1</v>
       </c>
       <c r="DD15" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16">
@@ -5416,16 +5424,16 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>41.9</v>
+        <v>46.2</v>
       </c>
       <c r="M16" t="n">
-        <v>26.2</v>
+        <v>32.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9</v>
+        <v>12.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
         <v>6.9</v>
@@ -5492,7 +5500,7 @@
         <v>33</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23.5</v>
+        <v>36.51</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5531,16 +5539,16 @@
         </is>
       </c>
       <c r="AW16" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
@@ -5732,16 +5740,16 @@
         <v>-0.1</v>
       </c>
       <c r="L17" t="n">
-        <v>79</v>
+        <v>62.9</v>
       </c>
       <c r="M17" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="N17" t="n">
-        <v>38</v>
+        <v>9.5</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>11</v>
@@ -5803,13 +5811,13 @@
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="AM17" t="n">
-        <v>39.8</v>
+        <v>44.7</v>
       </c>
       <c r="AN17" t="n">
         <v>0.01</v>
@@ -5840,16 +5848,16 @@
         </is>
       </c>
       <c r="AW17" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="AX17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY17" t="n">
         <v>0.8</v>
       </c>
-      <c r="AY17" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
@@ -5862,22 +5870,22 @@
         </is>
       </c>
       <c r="BI17" t="n">
-        <v>-4</v>
+        <v>-1.6</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-3.23</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="BL17" t="n">
-        <v>-3.23</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="BM17" t="n">
-        <v>-3.23</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="BN17" t="n">
-        <v>-3.97</v>
+        <v>-1.57</v>
       </c>
       <c r="BO17" t="n">
-        <v>92.33</v>
+        <v>97.14</v>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
@@ -5909,16 +5917,16 @@
         <v>10.5</v>
       </c>
       <c r="BY17" t="n">
-        <v>-15.7</v>
+        <v>-13.5</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-22.9</v>
+        <v>-21</v>
       </c>
       <c r="CA17" t="n">
-        <v>14.5</v>
+        <v>17.4</v>
       </c>
       <c r="CB17" t="n">
-        <v>142.5</v>
+        <v>148.6</v>
       </c>
       <c r="CC17" t="inlineStr">
         <is>
@@ -5926,7 +5934,7 @@
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>-3.23</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="CF17" t="n">
         <v>2.6</v>
@@ -5988,16 +5996,16 @@
         <v>1131</v>
       </c>
       <c r="DA17" t="n">
-        <v>-3.1</v>
+        <v>-0.7</v>
       </c>
       <c r="DB17" t="n">
-        <v>-4.8</v>
+        <v>-2.5</v>
       </c>
       <c r="DC17" t="n">
-        <v>-4.1</v>
+        <v>-1.8</v>
       </c>
       <c r="DD17" t="n">
-        <v>-4.2</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="18">
@@ -6041,16 +6049,16 @@
         <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>37.9</v>
+        <v>36.4</v>
       </c>
       <c r="M18" t="n">
-        <v>70.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
         <v>16.4</v>
@@ -6112,13 +6120,13 @@
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.16</v>
+        <v>16.36</v>
       </c>
       <c r="AL18" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>36.3</v>
+        <v>37.5</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -6151,16 +6159,16 @@
         </is>
       </c>
       <c r="AW18" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
@@ -6173,22 +6181,22 @@
         </is>
       </c>
       <c r="BI18" t="n">
-        <v>-10.13</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-13.81</v>
+        <v>-13.16</v>
       </c>
       <c r="BL18" t="n">
-        <v>-3.08</v>
+        <v>-2.34</v>
       </c>
       <c r="BM18" t="n">
-        <v>-13.81</v>
+        <v>-13.16</v>
       </c>
       <c r="BN18" t="n">
-        <v>10.01</v>
+        <v>10.84</v>
       </c>
       <c r="BO18" t="n">
-        <v>368.78</v>
+        <v>372.33</v>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
@@ -6220,16 +6228,16 @@
         <v>17.1</v>
       </c>
       <c r="BY18" t="n">
-        <v>-18</v>
+        <v>-17.4</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-13.8</v>
+        <v>-13.2</v>
       </c>
       <c r="CA18" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="CB18" t="n">
-        <v>573.3</v>
+        <v>578.4</v>
       </c>
       <c r="CC18" t="inlineStr">
         <is>
@@ -6237,7 +6245,7 @@
         </is>
       </c>
       <c r="CE18" t="n">
-        <v>-3.08</v>
+        <v>-2.34</v>
       </c>
       <c r="CF18" t="n">
         <v>183</v>
@@ -6294,16 +6302,16 @@
         <v>4151</v>
       </c>
       <c r="DA18" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="DB18" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.6</v>
       </c>
       <c r="DC18" t="n">
-        <v>-2.5</v>
+        <v>-1.8</v>
       </c>
       <c r="DD18" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19">
@@ -6343,8 +6351,17 @@
       <c r="K19" t="n">
         <v>0.9</v>
       </c>
+      <c r="L19" t="n">
+        <v>30.2</v>
+      </c>
       <c r="M19" t="n">
-        <v>54.7</v>
+        <v>24</v>
+      </c>
+      <c r="N19" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.7</v>
       </c>
       <c r="P19" t="n">
         <v>16.2</v>
@@ -6358,6 +6375,16 @@
       <c r="S19" t="n">
         <v>7</v>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(20)</t>
+        </is>
+      </c>
       <c r="V19" t="n">
         <v>21.91</v>
       </c>
@@ -6394,12 +6421,31 @@
       <c r="AI19" t="n">
         <v>88</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Mua &gt; Bán</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>60.7</v>
+      </c>
       <c r="AN19" t="n">
         <v>0.35</v>
       </c>
       <c r="AO19" t="n">
         <v>62</v>
       </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
       <c r="AR19" t="n">
         <v>34</v>
       </c>
@@ -6412,6 +6458,48 @@
       <c r="AU19" t="n">
         <v>2224</v>
       </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>MACD Histogram &gt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(50)</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>76.31999999999999</v>
+      </c>
       <c r="BP19" t="inlineStr">
         <is>
           <t>Có</t>
@@ -6441,6 +6529,38 @@
       <c r="BX19" t="n">
         <v>209.2</v>
       </c>
+      <c r="BY19" t="n">
+        <v>-9</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(100)</t>
+        </is>
+      </c>
+      <c r="CE19" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>5.3</v>
+      </c>
       <c r="CJ19" t="n">
         <v>52.9</v>
       </c>
@@ -6476,6 +6596,18 @@
       </c>
       <c r="CZ19" t="n">
         <v>2224</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="20">
@@ -6519,16 +6651,16 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>29.9</v>
+        <v>32.9</v>
       </c>
       <c r="M20" t="n">
-        <v>49</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>1.6</v>
+        <v>12.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
         <v>10.9</v>
@@ -6590,7 +6722,7 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36.1</v>
+        <v>50.12</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -6598,10 +6730,10 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>16.1</v>
+        <v>16.05</v>
       </c>
       <c r="AM20" t="n">
-        <v>39.8</v>
+        <v>39.4</v>
       </c>
       <c r="AN20" t="n">
         <v>46.36</v>
@@ -6634,17 +6766,17 @@
         </is>
       </c>
       <c r="AW20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>1.3</v>
       </c>
-      <c r="AX20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.9</v>
-      </c>
       <c r="BB20" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(50)</t>
@@ -6656,22 +6788,22 @@
         </is>
       </c>
       <c r="BI20" t="n">
-        <v>-7.47</v>
+        <v>-7.76</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="BL20" t="n">
-        <v>-3.59</v>
+        <v>-3.89</v>
       </c>
       <c r="BM20" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="BN20" t="n">
-        <v>31.55</v>
+        <v>31.15</v>
       </c>
       <c r="BO20" t="n">
-        <v>39.62</v>
+        <v>39.19</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -6703,16 +6835,16 @@
         <v>321.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>-12.7</v>
+        <v>-13</v>
       </c>
       <c r="BZ20" t="n">
-        <v>-33.1</v>
+        <v>-33.3</v>
       </c>
       <c r="CA20" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="CB20" t="n">
-        <v>176</v>
+        <v>175.2</v>
       </c>
       <c r="CC20" t="inlineStr">
         <is>
@@ -6720,7 +6852,7 @@
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>-3.59</v>
+        <v>-3.89</v>
       </c>
       <c r="CF20" t="n">
         <v>1698.2</v>
@@ -6777,16 +6909,16 @@
         <v>1529</v>
       </c>
       <c r="DA20" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="DB20" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="DC20" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="DD20" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="21">
@@ -6830,16 +6962,16 @@
         <v>0.3</v>
       </c>
       <c r="L21" t="n">
-        <v>23</v>
+        <v>55.3</v>
       </c>
       <c r="M21" t="n">
-        <v>49.5</v>
+        <v>31.9</v>
       </c>
       <c r="N21" t="n">
-        <v>14.5</v>
+        <v>36.2</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
         <v>7.6</v>
@@ -6855,7 +6987,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Giá cắt lên SMA(20)</t>
+          <t>Giá nằm dưới SMA(20)</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -6901,13 +7033,13 @@
         <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
       <c r="AL21" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="AM21" t="n">
-        <v>56.1</v>
+        <v>49.4</v>
       </c>
       <c r="AN21" t="n">
         <v>0.01</v>
@@ -6917,7 +7049,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR21" t="n">
@@ -6938,54 +7070,44 @@
         </is>
       </c>
       <c r="AW21" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BA21" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(10)</t>
-        </is>
+        <v>1.2</v>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>Tín hiệu mua</t>
-        </is>
-      </c>
       <c r="BH21" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI21" t="n">
-        <v>0.47</v>
+        <v>-0.49</v>
       </c>
       <c r="BJ21" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.54</v>
+        <v>-0.43</v>
       </c>
       <c r="BM21" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="BN21" t="n">
-        <v>47.82</v>
+        <v>46.4</v>
       </c>
       <c r="BO21" t="n">
-        <v>311.49</v>
+        <v>307.53</v>
       </c>
       <c r="BP21" t="inlineStr">
         <is>
@@ -7017,16 +7139,16 @@
         <v>1707.4</v>
       </c>
       <c r="BY21" t="n">
-        <v>-8.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="BZ21" t="n">
-        <v>-2.4</v>
+        <v>-3.4</v>
       </c>
       <c r="CA21" t="n">
-        <v>52.2</v>
+        <v>50.7</v>
       </c>
       <c r="CB21" t="n">
-        <v>612.2</v>
+        <v>605.3</v>
       </c>
       <c r="CC21" t="inlineStr">
         <is>
@@ -7034,7 +7156,7 @@
         </is>
       </c>
       <c r="CE21" t="n">
-        <v>0.54</v>
+        <v>-0.43</v>
       </c>
       <c r="CF21" t="n">
         <v>15.7</v>
@@ -7088,16 +7210,16 @@
         <v>4066</v>
       </c>
       <c r="DA21" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="DC21" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="DD21" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -7141,16 +7263,16 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>28.9</v>
+        <v>36.4</v>
       </c>
       <c r="M22" t="n">
-        <v>68.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7</v>
+        <v>24.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
         <v>9.9</v>
@@ -7217,7 +7339,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="n">
-        <v>166.61</v>
+        <v>263.78</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7225,10 +7347,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="AM22" t="n">
-        <v>56.4</v>
+        <v>54.4</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7261,16 +7383,16 @@
         </is>
       </c>
       <c r="AW22" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
@@ -7288,22 +7410,22 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-3.17</v>
+        <v>-4.29</v>
       </c>
       <c r="BJ22" t="n">
-        <v>14.8</v>
+        <v>13.48</v>
       </c>
       <c r="BL22" t="n">
-        <v>-3.63</v>
+        <v>-4.74</v>
       </c>
       <c r="BM22" t="n">
-        <v>14.8</v>
+        <v>13.48</v>
       </c>
       <c r="BN22" t="n">
-        <v>91.56</v>
+        <v>89.36</v>
       </c>
       <c r="BO22" t="n">
-        <v>1639.88</v>
+        <v>1619.91</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7335,16 +7457,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-10.7</v>
+        <v>-11.7</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-5.3</v>
+        <v>-6.4</v>
       </c>
       <c r="CA22" t="n">
-        <v>107.4</v>
+        <v>105</v>
       </c>
       <c r="CB22" t="n">
-        <v>2589.9</v>
+        <v>2559</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7352,7 +7474,7 @@
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>-3.63</v>
+        <v>-4.74</v>
       </c>
       <c r="CF22" t="n">
         <v>2974.3</v>
@@ -7409,16 +7531,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>35.6</v>
+        <v>34.1</v>
       </c>
       <c r="DB22" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="DC22" t="n">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="DD22" t="n">
-        <v>16.9</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
@@ -7462,16 +7584,16 @@
         <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>51.7</v>
+        <v>57.4</v>
       </c>
       <c r="M23" t="n">
-        <v>66.2</v>
+        <v>31.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="P23" t="n">
         <v>8</v>
@@ -7524,7 +7646,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>585.33</v>
+        <v>894.4</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7532,10 +7654,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>31.6</v>
+        <v>31.85</v>
       </c>
       <c r="AM23" t="n">
-        <v>71.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="AN23" t="n">
         <v>17.47</v>
@@ -7568,16 +7690,16 @@
         </is>
       </c>
       <c r="AW23" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
@@ -7590,22 +7712,22 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>9.34</v>
+        <v>10.21</v>
       </c>
       <c r="BJ23" t="n">
-        <v>29.51</v>
+        <v>30.53</v>
       </c>
       <c r="BL23" t="n">
-        <v>-2.77</v>
+        <v>-2</v>
       </c>
       <c r="BM23" t="n">
-        <v>29.51</v>
+        <v>30.53</v>
       </c>
       <c r="BN23" t="n">
-        <v>40.45</v>
+        <v>41.56</v>
       </c>
       <c r="BO23" t="n">
-        <v>354.44</v>
+        <v>358.04</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7631,16 +7753,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
-        <v>-3.1</v>
+        <v>-2.3</v>
       </c>
       <c r="BZ23" t="n">
-        <v>-2.8</v>
+        <v>-2</v>
       </c>
       <c r="CA23" t="n">
-        <v>75.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="CB23" t="n">
-        <v>615.2</v>
+        <v>620.9</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7648,7 +7770,7 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>-2.77</v>
+        <v>-2</v>
       </c>
       <c r="CF23" t="n">
         <v>29315.8</v>
@@ -7705,16 +7827,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>37.4</v>
+        <v>38.4</v>
       </c>
       <c r="DB23" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="DC23" t="n">
-        <v>24.9</v>
+        <v>25.8</v>
       </c>
       <c r="DD23" t="n">
-        <v>35.3</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="24">
@@ -7758,16 +7880,16 @@
         <v>0.8</v>
       </c>
       <c r="L24" t="n">
-        <v>26.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>46.2</v>
+        <v>57.5</v>
       </c>
       <c r="N24" t="n">
         <v>15.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -7829,7 +7951,7 @@
         <v>69</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AL24" t="n">
         <v>35</v>
@@ -7863,16 +7985,16 @@
         </is>
       </c>
       <c r="AW24" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
@@ -8056,16 +8178,16 @@
         <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>72.7</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2</v>
+        <v>26.9</v>
       </c>
       <c r="N25" t="n">
         <v>4.6</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P25" t="n">
         <v>9.4</v>
@@ -8127,13 +8249,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
       <c r="AL25" t="n">
-        <v>313.7</v>
+        <v>300.1</v>
       </c>
       <c r="AM25" t="n">
-        <v>47.7</v>
+        <v>39.5</v>
       </c>
       <c r="AN25" t="n">
         <v>0.27</v>
@@ -8143,7 +8265,7 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR25" t="n">
@@ -8161,20 +8283,20 @@
         </is>
       </c>
       <c r="AW25" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(50)</t>
+          <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
       <c r="BH25" t="inlineStr">
@@ -8183,22 +8305,22 @@
         </is>
       </c>
       <c r="BI25" t="n">
-        <v>-3.92</v>
+        <v>-8.09</v>
       </c>
       <c r="BJ25" t="n">
-        <v>-2.58</v>
+        <v>-6.8</v>
       </c>
       <c r="BL25" t="n">
-        <v>-0.38</v>
+        <v>-4.7</v>
       </c>
       <c r="BM25" t="n">
-        <v>-2.58</v>
+        <v>-6.8</v>
       </c>
       <c r="BN25" t="n">
-        <v>452.7</v>
+        <v>428.74</v>
       </c>
       <c r="BO25" t="n">
-        <v>1054.54</v>
+        <v>1004.48</v>
       </c>
       <c r="BP25" t="inlineStr">
         <is>
@@ -8230,24 +8352,24 @@
         <v>441.2</v>
       </c>
       <c r="BY25" t="n">
-        <v>-22.2</v>
+        <v>-25.6</v>
       </c>
       <c r="BZ25" t="n">
-        <v>-14.5</v>
+        <v>-18.2</v>
       </c>
       <c r="CA25" t="n">
-        <v>443.6</v>
+        <v>420.1</v>
       </c>
       <c r="CB25" t="n">
-        <v>3324.3</v>
+        <v>3175.8</v>
       </c>
       <c r="CC25" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(100)</t>
+          <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
       <c r="CE25" t="n">
-        <v>-0.38</v>
+        <v>-4.7</v>
       </c>
       <c r="CF25" t="n">
         <v>5.1</v>
@@ -8301,16 +8423,16 @@
         <v>33427</v>
       </c>
       <c r="DA25" t="n">
-        <v>18.7</v>
+        <v>13.6</v>
       </c>
       <c r="DB25" t="n">
-        <v>-3.3</v>
+        <v>-7.3</v>
       </c>
       <c r="DC25" t="n">
-        <v>4.4</v>
+        <v>-0.1</v>
       </c>
       <c r="DD25" t="n">
-        <v>3.8</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="26">
@@ -8354,13 +8476,13 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>38.9</v>
+        <v>44.2</v>
       </c>
       <c r="M26" t="n">
-        <v>60.3</v>
+        <v>50.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -8377,11 +8499,6 @@
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Giá cắt xuống SMA(5)</t>
-        </is>
-      </c>
       <c r="U26" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -8430,7 +8547,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>296.97</v>
+        <v>475.26</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -8438,10 +8555,10 @@
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="AM26" t="n">
-        <v>66.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AN26" t="n">
         <v>10.66</v>
@@ -8456,7 +8573,7 @@
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR26" t="n">
@@ -8474,16 +8591,16 @@
         </is>
       </c>
       <c r="AW26" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
@@ -8496,22 +8613,22 @@
         </is>
       </c>
       <c r="BI26" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="BJ26" t="n">
-        <v>17.83</v>
+        <v>19.38</v>
       </c>
       <c r="BL26" t="n">
-        <v>-4.4</v>
+        <v>-3.14</v>
       </c>
       <c r="BM26" t="n">
-        <v>17.83</v>
+        <v>19.38</v>
       </c>
       <c r="BN26" t="n">
-        <v>36.41</v>
+        <v>38.2</v>
       </c>
       <c r="BO26" t="n">
-        <v>24.34</v>
+        <v>25.97</v>
       </c>
       <c r="BP26" t="inlineStr">
         <is>
@@ -8543,16 +8660,16 @@
         <v>52.3</v>
       </c>
       <c r="BY26" t="n">
-        <v>-9.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-28.6</v>
+        <v>-27.7</v>
       </c>
       <c r="CA26" t="n">
-        <v>64.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="CB26" t="n">
-        <v>571.7</v>
+        <v>580.6</v>
       </c>
       <c r="CC26" t="inlineStr">
         <is>
@@ -8560,7 +8677,7 @@
         </is>
       </c>
       <c r="CE26" t="n">
-        <v>-4.4</v>
+        <v>-3.14</v>
       </c>
       <c r="CF26" t="n">
         <v>19541</v>
@@ -8614,16 +8731,16 @@
         <v>1001</v>
       </c>
       <c r="DA26" t="n">
-        <v>29.5</v>
+        <v>31.2</v>
       </c>
       <c r="DB26" t="n">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="DC26" t="n">
-        <v>18.6</v>
+        <v>20.1</v>
       </c>
       <c r="DD26" t="n">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="27">
@@ -8666,14 +8783,17 @@
       <c r="K27" t="n">
         <v>0.1</v>
       </c>
+      <c r="L27" t="n">
+        <v>30.3</v>
+      </c>
       <c r="M27" t="n">
-        <v>60.9</v>
+        <v>73</v>
       </c>
       <c r="N27" t="n">
-        <v>59.3</v>
+        <v>178</v>
       </c>
       <c r="O27" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="P27" t="n">
         <v>11.1</v>
@@ -8735,7 +8855,7 @@
         <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AL27" t="n">
         <v>18.5</v>
@@ -8772,16 +8892,16 @@
         </is>
       </c>
       <c r="AW27" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="BB27" t="inlineStr">
         <is>
@@ -8965,16 +9085,16 @@
         <v>0.8</v>
       </c>
       <c r="L28" t="n">
-        <v>37</v>
+        <v>37.9</v>
       </c>
       <c r="M28" t="n">
-        <v>15.5</v>
+        <v>43.7</v>
       </c>
       <c r="N28" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>4.9</v>
@@ -9036,13 +9156,13 @@
         <v>54</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="AL28" t="n">
-        <v>46.8</v>
+        <v>47.4</v>
       </c>
       <c r="AM28" t="n">
-        <v>49</v>
+        <v>52.6</v>
       </c>
       <c r="AN28" t="n">
         <v>0.02</v>
@@ -9057,7 +9177,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR28" t="n">
@@ -9075,16 +9195,16 @@
         </is>
       </c>
       <c r="AW28" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
@@ -9097,22 +9217,22 @@
         </is>
       </c>
       <c r="BI28" t="n">
-        <v>-3.7</v>
+        <v>-2.47</v>
       </c>
       <c r="BJ28" t="n">
-        <v>1.74</v>
+        <v>3.04</v>
       </c>
       <c r="BL28" t="n">
-        <v>-1.37</v>
+        <v>-0.11</v>
       </c>
       <c r="BM28" t="n">
-        <v>1.74</v>
+        <v>3.04</v>
       </c>
       <c r="BN28" t="n">
-        <v>15.65</v>
+        <v>17.13</v>
       </c>
       <c r="BO28" t="n">
-        <v>520.13</v>
+        <v>528.08</v>
       </c>
       <c r="BP28" t="inlineStr">
         <is>
@@ -9144,16 +9264,16 @@
         <v>24.5</v>
       </c>
       <c r="BY28" t="n">
-        <v>-10.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="BZ28" t="n">
-        <v>-10</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="CA28" t="n">
-        <v>32.4</v>
+        <v>34.1</v>
       </c>
       <c r="CB28" t="n">
-        <v>728.6</v>
+        <v>739.3</v>
       </c>
       <c r="CC28" t="inlineStr">
         <is>
@@ -9161,7 +9281,7 @@
         </is>
       </c>
       <c r="CE28" t="n">
-        <v>-1.37</v>
+        <v>-0.11</v>
       </c>
       <c r="CF28" t="n">
         <v>45.7</v>
@@ -9218,16 +9338,16 @@
         <v>9749</v>
       </c>
       <c r="DA28" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="DB28" t="n">
-        <v>-2.3</v>
+        <v>-1.1</v>
       </c>
       <c r="DC28" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="DD28" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="29">
@@ -9271,16 +9391,16 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>37</v>
+        <v>35.8</v>
       </c>
       <c r="M29" t="n">
-        <v>46.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>4.5</v>
@@ -9342,7 +9462,7 @@
         <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.9</v>
+        <v>4.04</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -9381,16 +9501,16 @@
         </is>
       </c>
       <c r="AW29" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AY29" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BB29" t="inlineStr">
         <is>
@@ -9578,8 +9698,17 @@
       <c r="K30" t="n">
         <v>0.6</v>
       </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
       <c r="M30" t="n">
-        <v>23.6</v>
+        <v>19.9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.1</v>
       </c>
       <c r="P30" t="n">
         <v>8</v>
@@ -9593,6 +9722,16 @@
       <c r="S30" t="n">
         <v>5.9</v>
       </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(20)</t>
+        </is>
+      </c>
       <c r="V30" t="n">
         <v>-1.76</v>
       </c>
@@ -9635,12 +9774,26 @@
       <c r="AI30" t="n">
         <v>61</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>45.8</v>
+      </c>
       <c r="AN30" t="n">
         <v>0</v>
       </c>
       <c r="AO30" t="n">
         <v>60</v>
       </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>Bán mạnh</t>
+        </is>
+      </c>
       <c r="AR30" t="n">
         <v>0</v>
       </c>
@@ -9650,6 +9803,61 @@
       <c r="AU30" t="n">
         <v>4189</v>
       </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>MACD Histogram &gt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(50)</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI30" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>-12.73</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>35.82</v>
+      </c>
       <c r="BP30" t="inlineStr">
         <is>
           <t>Có</t>
@@ -9679,6 +9887,38 @@
       <c r="BX30" t="n">
         <v>53.8</v>
       </c>
+      <c r="BY30" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>692.1</v>
+      </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(100)</t>
+        </is>
+      </c>
+      <c r="CE30" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0.9</v>
+      </c>
       <c r="CJ30" t="n">
         <v>35</v>
       </c>
@@ -9720,6 +9960,18 @@
       </c>
       <c r="CZ30" t="n">
         <v>4189</v>
+      </c>
+      <c r="DA30" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="DB30" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="DD30" t="n">
+        <v>-12.2</v>
       </c>
     </row>
     <row r="31">
@@ -9763,13 +10015,13 @@
         <v>0.9</v>
       </c>
       <c r="L31" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M31" t="n">
-        <v>35.2</v>
+        <v>47.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="O31" t="n">
         <v>0.7</v>
@@ -9834,7 +10086,7 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.54</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AL31" t="n">
         <v>31.9</v>
@@ -9868,16 +10120,16 @@
         </is>
       </c>
       <c r="AW31" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AX31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AY31" t="n">
         <v>0.4</v>
       </c>
-      <c r="AY31" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="BB31" t="inlineStr">
         <is>
@@ -10064,16 +10316,16 @@
         <v>0.5</v>
       </c>
       <c r="L32" t="n">
-        <v>66.7</v>
+        <v>62.5</v>
       </c>
       <c r="M32" t="n">
-        <v>10.3</v>
+        <v>20.7</v>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P32" t="n">
         <v>10.2</v>
@@ -10143,10 +10395,10 @@
         <v>0.05</v>
       </c>
       <c r="AL32" t="n">
-        <v>29.2</v>
+        <v>29.15</v>
       </c>
       <c r="AM32" t="n">
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="AN32" t="n">
         <v>12.85</v>
@@ -10196,22 +10448,22 @@
         </is>
       </c>
       <c r="BI32" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="BJ32" t="n">
-        <v>6.18</v>
+        <v>6</v>
       </c>
       <c r="BL32" t="n">
-        <v>-0.68</v>
+        <v>-0.85</v>
       </c>
       <c r="BM32" t="n">
-        <v>6.18</v>
+        <v>6</v>
       </c>
       <c r="BN32" t="n">
-        <v>9.67</v>
+        <v>9.49</v>
       </c>
       <c r="BO32" t="n">
-        <v>190.21</v>
+        <v>189.71</v>
       </c>
       <c r="BP32" t="inlineStr">
         <is>
@@ -10243,16 +10495,16 @@
         <v>10.5</v>
       </c>
       <c r="BY32" t="n">
-        <v>-16.3</v>
+        <v>-16.5</v>
       </c>
       <c r="BZ32" t="n">
-        <v>-15</v>
+        <v>-15.1</v>
       </c>
       <c r="CA32" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="CB32" t="n">
-        <v>274.3</v>
+        <v>273.6</v>
       </c>
       <c r="CC32" t="inlineStr">
         <is>
@@ -10260,7 +10512,7 @@
         </is>
       </c>
       <c r="CE32" t="n">
-        <v>-0.68</v>
+        <v>-0.85</v>
       </c>
       <c r="CF32" t="n">
         <v>8</v>
@@ -10317,16 +10569,16 @@
         <v>2894</v>
       </c>
       <c r="DA32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="DB32" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="DC32" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="DD32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
@@ -10369,8 +10621,17 @@
       <c r="K33" t="n">
         <v>1</v>
       </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
       <c r="M33" t="n">
-        <v>82.90000000000001</v>
+        <v>83.3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>60</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.4</v>
       </c>
       <c r="P33" t="n">
         <v>7.5</v>
@@ -10384,6 +10645,11 @@
       <c r="S33" t="n">
         <v>5.7</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(20)</t>
+        </is>
+      </c>
       <c r="V33" t="n">
         <v>9.16</v>
       </c>
@@ -10423,12 +10689,26 @@
       <c r="AH33" t="n">
         <v>46</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51.9</v>
+      </c>
       <c r="AN33" t="n">
         <v>0.18</v>
       </c>
       <c r="AO33" t="n">
         <v>62</v>
       </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
       <c r="AR33" t="n">
         <v>1</v>
       </c>
@@ -10441,6 +10721,51 @@
       <c r="AU33" t="n">
         <v>4991</v>
       </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(50)</t>
+        </is>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI33" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>332.39</v>
+      </c>
       <c r="BP33" t="inlineStr">
         <is>
           <t>Có</t>
@@ -10470,6 +10795,38 @@
       <c r="BX33" t="n">
         <v>9.5</v>
       </c>
+      <c r="BY33" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="CC33" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(100)</t>
+        </is>
+      </c>
+      <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>0.5</v>
+      </c>
       <c r="CJ33" t="n">
         <v>75</v>
       </c>
@@ -10508,6 +10865,18 @@
       </c>
       <c r="CZ33" t="n">
         <v>4991</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="DB33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="DD33" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="34">
@@ -10551,16 +10920,16 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>47.2</v>
       </c>
       <c r="N34" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="O34" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="P34" t="n">
         <v>7</v>
@@ -10618,7 +10987,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>16.18</v>
+        <v>23.9</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10626,10 +10995,10 @@
         </is>
       </c>
       <c r="AL34" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AM34" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="AN34" t="n">
         <v>1.35</v>
@@ -10660,16 +11029,16 @@
         </is>
       </c>
       <c r="AW34" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BA34" t="inlineStr">
         <is>
@@ -10687,22 +11056,22 @@
         </is>
       </c>
       <c r="BI34" t="n">
-        <v>1.15</v>
+        <v>0.71</v>
       </c>
       <c r="BJ34" t="n">
-        <v>11.92</v>
+        <v>11.44</v>
       </c>
       <c r="BL34" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="BM34" t="n">
-        <v>11.92</v>
+        <v>11.44</v>
       </c>
       <c r="BN34" t="n">
-        <v>94.25</v>
+        <v>93.41</v>
       </c>
       <c r="BO34" t="n">
-        <v>165.94</v>
+        <v>164.79</v>
       </c>
       <c r="BP34" t="inlineStr">
         <is>
@@ -10728,16 +11097,16 @@
         <v>66.8</v>
       </c>
       <c r="BY34" t="n">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="BZ34" t="n">
-        <v>-42</v>
+        <v>-42.2</v>
       </c>
       <c r="CA34" t="n">
-        <v>145.3</v>
+        <v>144.2</v>
       </c>
       <c r="CB34" t="n">
-        <v>245.1</v>
+        <v>243.6</v>
       </c>
       <c r="CC34" t="inlineStr">
         <is>
@@ -10745,7 +11114,7 @@
         </is>
       </c>
       <c r="CE34" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="CF34" t="n">
         <v>498.9</v>
@@ -10802,16 +11171,16 @@
         <v>3275</v>
       </c>
       <c r="DA34" t="n">
-        <v>62.9</v>
+        <v>62.2</v>
       </c>
       <c r="DB34" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="DC34" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="DD34" t="n">
-        <v>40</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="35">
@@ -10855,16 +11224,16 @@
         <v>1.1</v>
       </c>
       <c r="L35" t="n">
-        <v>59.4</v>
+        <v>61.6</v>
       </c>
       <c r="M35" t="n">
-        <v>30.8</v>
+        <v>55.3</v>
       </c>
       <c r="N35" t="n">
-        <v>128.3</v>
+        <v>2.1</v>
       </c>
       <c r="O35" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="P35" t="n">
         <v>5.4</v>
@@ -10926,13 +11295,13 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="AL35" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AM35" t="n">
-        <v>42.1</v>
+        <v>45.9</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -10963,16 +11332,16 @@
         </is>
       </c>
       <c r="AW35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AY35" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AZ35" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BB35" t="inlineStr">
         <is>
@@ -10985,22 +11354,22 @@
         </is>
       </c>
       <c r="BI35" t="n">
-        <v>-3.67</v>
+        <v>-2.76</v>
       </c>
       <c r="BJ35" t="n">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="BL35" t="n">
-        <v>-1.97</v>
+        <v>-1.04</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN35" t="n">
-        <v>-4.96</v>
+        <v>-4.07</v>
       </c>
       <c r="BO35" t="n">
-        <v>92.81999999999999</v>
+        <v>94.64</v>
       </c>
       <c r="BP35" t="inlineStr">
         <is>
@@ -11032,16 +11401,16 @@
         <v>19.5</v>
       </c>
       <c r="BY35" t="n">
-        <v>-23</v>
+        <v>-22.3</v>
       </c>
       <c r="BZ35" t="n">
-        <v>-18.7</v>
+        <v>-17.9</v>
       </c>
       <c r="CA35" t="n">
-        <v>25.5</v>
+        <v>26.7</v>
       </c>
       <c r="CB35" t="n">
-        <v>125.1</v>
+        <v>127.2</v>
       </c>
       <c r="CC35" t="inlineStr">
         <is>
@@ -11049,7 +11418,7 @@
         </is>
       </c>
       <c r="CE35" t="n">
-        <v>-1.97</v>
+        <v>-1.04</v>
       </c>
       <c r="CF35" t="n">
         <v>10.1</v>
@@ -11106,16 +11475,16 @@
         <v>4014</v>
       </c>
       <c r="DA35" t="n">
-        <v>-2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="DB35" t="n">
-        <v>-3.1</v>
+        <v>-2.2</v>
       </c>
       <c r="DC35" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="DD35" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="36">
@@ -11159,13 +11528,13 @@
         <v>0.6</v>
       </c>
       <c r="L36" t="n">
-        <v>56.2</v>
+        <v>58.8</v>
       </c>
       <c r="M36" t="n">
-        <v>20.1</v>
+        <v>18.4</v>
       </c>
       <c r="N36" t="n">
-        <v>25</v>
+        <v>2.8</v>
       </c>
       <c r="O36" t="n">
         <v>0.2</v>
@@ -11230,13 +11599,13 @@
         <v>15</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AL36" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="AM36" t="n">
-        <v>42.4</v>
+        <v>44.7</v>
       </c>
       <c r="AN36" t="n">
         <v>0.24</v>
@@ -11270,7 +11639,7 @@
         <v>0.3</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AZ36" t="n">
         <v>0.8</v>
@@ -11286,22 +11655,22 @@
         </is>
       </c>
       <c r="BI36" t="n">
-        <v>-15.69</v>
+        <v>-14.13</v>
       </c>
       <c r="BJ36" t="n">
-        <v>0.05</v>
+        <v>1.9</v>
       </c>
       <c r="BL36" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.05</v>
+        <v>1.9</v>
       </c>
       <c r="BN36" t="n">
-        <v>14.63</v>
+        <v>16.75</v>
       </c>
       <c r="BO36" t="n">
-        <v>31.09</v>
+        <v>33.51</v>
       </c>
       <c r="BP36" t="inlineStr">
         <is>
@@ -11333,16 +11702,16 @@
         <v>171.6</v>
       </c>
       <c r="BY36" t="n">
-        <v>-22.1</v>
+        <v>-20.7</v>
       </c>
       <c r="BZ36" t="n">
-        <v>-19.2</v>
+        <v>-17.7</v>
       </c>
       <c r="CA36" t="n">
-        <v>17</v>
+        <v>19.1</v>
       </c>
       <c r="CB36" t="n">
-        <v>90.7</v>
+        <v>94.3</v>
       </c>
       <c r="CC36" t="inlineStr">
         <is>
@@ -11350,7 +11719,7 @@
         </is>
       </c>
       <c r="CE36" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="CF36" t="n">
         <v>9.199999999999999</v>
@@ -11404,16 +11773,16 @@
         <v>5575</v>
       </c>
       <c r="DA36" t="n">
-        <v>-3.4</v>
+        <v>-1.6</v>
       </c>
       <c r="DB36" t="n">
-        <v>-7</v>
+        <v>-5.4</v>
       </c>
       <c r="DC36" t="n">
-        <v>-2.1</v>
+        <v>-0.4</v>
       </c>
       <c r="DD36" t="n">
-        <v>-3.4</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="37">
@@ -11457,16 +11826,16 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>28.1</v>
+        <v>33.8</v>
       </c>
       <c r="M37" t="n">
-        <v>58.2</v>
+        <v>38</v>
       </c>
       <c r="N37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.6</v>
       </c>
       <c r="P37" t="n">
         <v>7.5</v>
@@ -11528,7 +11897,7 @@
         <v>58</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16.64</v>
+        <v>26.18</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -11536,10 +11905,10 @@
         </is>
       </c>
       <c r="AL37" t="n">
-        <v>35.65</v>
+        <v>35.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>37.7</v>
+        <v>37.1</v>
       </c>
       <c r="AN37" t="n">
         <v>5.15</v>
@@ -11572,16 +11941,16 @@
         </is>
       </c>
       <c r="AW37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AY37" t="n">
         <v>1</v>
       </c>
-      <c r="AX37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AZ37" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="BB37" t="inlineStr">
         <is>
@@ -11594,22 +11963,22 @@
         </is>
       </c>
       <c r="BI37" t="n">
-        <v>-8.59</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-6.18</v>
+        <v>-6.58</v>
       </c>
       <c r="BL37" t="n">
-        <v>-2.6</v>
+        <v>-3.01</v>
       </c>
       <c r="BM37" t="n">
-        <v>-6.18</v>
+        <v>-6.58</v>
       </c>
       <c r="BN37" t="n">
-        <v>15.41</v>
+        <v>14.92</v>
       </c>
       <c r="BO37" t="n">
-        <v>264.92</v>
+        <v>263.39</v>
       </c>
       <c r="BP37" t="inlineStr">
         <is>
@@ -11641,16 +12010,16 @@
         <v>61.4</v>
       </c>
       <c r="BY37" t="n">
-        <v>-14.8</v>
+        <v>-15.2</v>
       </c>
       <c r="BZ37" t="n">
-        <v>-13.3</v>
+        <v>-13.7</v>
       </c>
       <c r="CA37" t="n">
-        <v>41.6</v>
+        <v>41</v>
       </c>
       <c r="CB37" t="n">
-        <v>367.5</v>
+        <v>365.5</v>
       </c>
       <c r="CC37" t="inlineStr">
         <is>
@@ -11658,7 +12027,7 @@
         </is>
       </c>
       <c r="CE37" t="n">
-        <v>-2.6</v>
+        <v>-3.01</v>
       </c>
       <c r="CF37" t="n">
         <v>472</v>
@@ -11715,16 +12084,16 @@
         <v>4865</v>
       </c>
       <c r="DA37" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="DB37" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="DC37" t="n">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="DD37" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38">
@@ -11768,16 +12137,16 @@
         <v>0.8</v>
       </c>
       <c r="L38" t="n">
-        <v>100</v>
+        <v>15.1</v>
       </c>
       <c r="M38" t="n">
-        <v>63.2</v>
+        <v>62.7</v>
       </c>
       <c r="N38" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="P38" t="n">
         <v>7.1</v>
@@ -11839,13 +12208,13 @@
         <v>13</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="AL38" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="AM38" t="n">
-        <v>41.8</v>
+        <v>44.9</v>
       </c>
       <c r="AN38" t="n">
         <v>0.07000000000000001</v>
@@ -11873,16 +12242,16 @@
         </is>
       </c>
       <c r="AW38" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY38" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BB38" t="inlineStr">
         <is>
@@ -11895,22 +12264,22 @@
         </is>
       </c>
       <c r="BI38" t="n">
-        <v>-2.73</v>
+        <v>-1.64</v>
       </c>
       <c r="BJ38" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BL38" t="n">
-        <v>-1.66</v>
+        <v>-0.55</v>
       </c>
       <c r="BM38" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BN38" t="n">
-        <v>-13.09</v>
+        <v>-12.11</v>
       </c>
       <c r="BO38" t="n">
-        <v>201.45</v>
+        <v>204.84</v>
       </c>
       <c r="BP38" t="inlineStr">
         <is>
@@ -11942,16 +12311,16 @@
         <v>38.9</v>
       </c>
       <c r="BY38" t="n">
-        <v>-39.7</v>
+        <v>-39</v>
       </c>
       <c r="BZ38" t="n">
-        <v>-34.7</v>
+        <v>-33.9</v>
       </c>
       <c r="CA38" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="CB38" t="n">
-        <v>1383.6</v>
+        <v>1400.3</v>
       </c>
       <c r="CC38" t="inlineStr">
         <is>
@@ -11959,7 +12328,7 @@
         </is>
       </c>
       <c r="CE38" t="n">
-        <v>-1.66</v>
+        <v>-0.55</v>
       </c>
       <c r="CF38" t="n">
         <v>9.300000000000001</v>
@@ -12016,16 +12385,16 @@
         <v>2546</v>
       </c>
       <c r="DA38" t="n">
-        <v>-9.1</v>
+        <v>-8</v>
       </c>
       <c r="DB38" t="n">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="DC38" t="n">
-        <v>-2.1</v>
+        <v>-1</v>
       </c>
       <c r="DD38" t="n">
-        <v>-7.8</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="39">
@@ -12069,13 +12438,13 @@
         <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>67.2</v>
+        <v>72</v>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>51.5</v>
       </c>
       <c r="N39" t="n">
-        <v>17.9</v>
+        <v>4.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.1</v>
@@ -12140,13 +12509,13 @@
         <v>89</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.92</v>
+        <v>1.73</v>
       </c>
       <c r="AL39" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="AM39" t="n">
-        <v>58.1</v>
+        <v>62</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -12174,16 +12543,16 @@
         </is>
       </c>
       <c r="AW39" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AY39" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BB39" t="inlineStr">
         <is>
@@ -12196,22 +12565,22 @@
         </is>
       </c>
       <c r="BI39" t="n">
-        <v>-5.75</v>
+        <v>-3.8</v>
       </c>
       <c r="BJ39" t="n">
-        <v>41.06</v>
+        <v>43.98</v>
       </c>
       <c r="BL39" t="n">
-        <v>-2.29</v>
+        <v>-0.27</v>
       </c>
       <c r="BM39" t="n">
-        <v>41.06</v>
+        <v>43.98</v>
       </c>
       <c r="BN39" t="n">
-        <v>74.5</v>
+        <v>78.11</v>
       </c>
       <c r="BO39" t="n">
-        <v>85.81</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="BP39" t="inlineStr">
         <is>
@@ -12243,16 +12612,16 @@
         <v>122.2</v>
       </c>
       <c r="BY39" t="n">
-        <v>-14.7</v>
+        <v>-12.9</v>
       </c>
       <c r="BZ39" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7</v>
       </c>
       <c r="CA39" t="n">
-        <v>120</v>
+        <v>124.5</v>
       </c>
       <c r="CB39" t="n">
-        <v>293.6</v>
+        <v>301.8</v>
       </c>
       <c r="CC39" t="inlineStr">
         <is>
@@ -12260,7 +12629,7 @@
         </is>
       </c>
       <c r="CE39" t="n">
-        <v>-2.29</v>
+        <v>-0.27</v>
       </c>
       <c r="CF39" t="n">
         <v>94</v>
@@ -12314,16 +12683,16 @@
         <v>1174</v>
       </c>
       <c r="DA39" t="n">
-        <v>47.4</v>
+        <v>50.4</v>
       </c>
       <c r="DB39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC39" t="n">
-        <v>20.5</v>
+        <v>22.9</v>
       </c>
       <c r="DD39" t="n">
-        <v>36.9</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="40">
@@ -12367,16 +12736,16 @@
         <v>0.8</v>
       </c>
       <c r="L40" t="n">
-        <v>43.1</v>
+        <v>48</v>
       </c>
       <c r="M40" t="n">
-        <v>81.40000000000001</v>
+        <v>25.2</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1</v>
+        <v>5.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="P40" t="n">
         <v>7</v>
@@ -12387,6 +12756,11 @@
       <c r="S40" t="n">
         <v>0</v>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="U40" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -12429,7 +12803,7 @@
         <v>53</v>
       </c>
       <c r="AJ40" t="n">
-        <v>37.36</v>
+        <v>49.29</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -12437,10 +12811,10 @@
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="AM40" t="n">
-        <v>58.8</v>
+        <v>63.4</v>
       </c>
       <c r="AN40" t="n">
         <v>1.84</v>
@@ -12450,7 +12824,7 @@
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR40" t="n">
@@ -12468,16 +12842,21 @@
         </is>
       </c>
       <c r="AW40" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AX40" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AY40" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(10)</t>
+        </is>
       </c>
       <c r="BB40" t="inlineStr">
         <is>
@@ -12490,19 +12869,19 @@
         </is>
       </c>
       <c r="BI40" t="n">
-        <v>0.32</v>
+        <v>2.25</v>
       </c>
       <c r="BJ40" t="n">
-        <v>7.22</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="BL40" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BM40" t="n">
-        <v>7.22</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="BN40" t="n">
-        <v>17.82</v>
+        <v>20.09</v>
       </c>
       <c r="BP40" t="inlineStr">
         <is>
@@ -12528,16 +12907,16 @@
         <v>22.3</v>
       </c>
       <c r="BY40" t="n">
-        <v>-6.3</v>
+        <v>-4.5</v>
       </c>
       <c r="BZ40" t="n">
-        <v>-4.3</v>
+        <v>-2.5</v>
       </c>
       <c r="CA40" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="CB40" t="n">
-        <v>325</v>
+        <v>333.2</v>
       </c>
       <c r="CC40" t="inlineStr">
         <is>
@@ -12545,7 +12924,7 @@
         </is>
       </c>
       <c r="CE40" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="CF40" t="n">
         <v>2373.2</v>
@@ -12602,16 +12981,16 @@
         <v>2243</v>
       </c>
       <c r="DA40" t="n">
-        <v>14.9</v>
+        <v>17.1</v>
       </c>
       <c r="DB40" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="DC40" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="DD40" t="n">
-        <v>12</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="41">
@@ -12655,16 +13034,16 @@
         <v>0.4</v>
       </c>
       <c r="L41" t="n">
-        <v>25.4</v>
+        <v>41.3</v>
       </c>
       <c r="M41" t="n">
-        <v>66.09999999999999</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>125.7</v>
+        <v>62.9</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P41" t="n">
         <v>10.8</v>
@@ -12678,6 +13057,11 @@
       <c r="S41" t="n">
         <v>0</v>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -12726,7 +13110,7 @@
         <v>44</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
@@ -12734,10 +13118,10 @@
         </is>
       </c>
       <c r="AL41" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>63.3</v>
+        <v>68.8</v>
       </c>
       <c r="AN41" t="n">
         <v>3.9</v>
@@ -12747,7 +13131,7 @@
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR41" t="n">
@@ -12761,26 +13145,21 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AW41" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AX41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AZ41" t="n">
         <v>2.1</v>
       </c>
-      <c r="AY41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BA41" t="inlineStr">
-        <is>
-          <t>Giá cắt xuống SMA(10)</t>
-        </is>
-      </c>
       <c r="BB41" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
@@ -12792,22 +13171,22 @@
         </is>
       </c>
       <c r="BI41" t="n">
-        <v>0.22</v>
+        <v>2.1</v>
       </c>
       <c r="BJ41" t="n">
-        <v>7.35</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="BL41" t="n">
-        <v>-0.52</v>
+        <v>1.35</v>
       </c>
       <c r="BM41" t="n">
-        <v>7.35</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="BN41" t="n">
-        <v>31.8</v>
+        <v>34.28</v>
       </c>
       <c r="BO41" t="n">
-        <v>128.74</v>
+        <v>133.04</v>
       </c>
       <c r="BP41" t="inlineStr">
         <is>
@@ -12839,16 +13218,16 @@
         <v>14.6</v>
       </c>
       <c r="BY41" t="n">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="BZ41" t="n">
-        <v>-15.3</v>
+        <v>-13.7</v>
       </c>
       <c r="CA41" t="n">
-        <v>62.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="CB41" t="n">
-        <v>508.3</v>
+        <v>519.7</v>
       </c>
       <c r="CC41" t="inlineStr">
         <is>
@@ -12856,7 +13235,7 @@
         </is>
       </c>
       <c r="CE41" t="n">
-        <v>-0.52</v>
+        <v>1.35</v>
       </c>
       <c r="CF41" t="n">
         <v>5.4</v>
@@ -12907,16 +13286,16 @@
         <v>3473</v>
       </c>
       <c r="DA41" t="n">
-        <v>32.8</v>
+        <v>35.2</v>
       </c>
       <c r="DB41" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="DC41" t="n">
-        <v>12.4</v>
+        <v>14.5</v>
       </c>
       <c r="DD41" t="n">
-        <v>24.2</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="42">
@@ -12957,16 +13336,16 @@
         <v>0.2</v>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="M42" t="n">
-        <v>45.6</v>
+        <v>23.5</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P42" t="n">
         <v>10.2</v>
@@ -12980,11 +13359,6 @@
       <c r="S42" t="n">
         <v>12.4</v>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(5)</t>
-        </is>
-      </c>
       <c r="U42" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -13033,13 +13407,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AL42" t="n">
-        <v>55.7</v>
+        <v>55.1</v>
       </c>
       <c r="AM42" t="n">
-        <v>47.7</v>
+        <v>46.8</v>
       </c>
       <c r="AN42" t="n">
         <v>0.06</v>
@@ -13049,7 +13423,7 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR42" t="n">
@@ -13070,16 +13444,16 @@
         </is>
       </c>
       <c r="AW42" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AX42" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AY42" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BB42" t="inlineStr">
         <is>
@@ -13092,22 +13466,22 @@
         </is>
       </c>
       <c r="BI42" t="n">
-        <v>-6.7</v>
+        <v>-7.71</v>
       </c>
       <c r="BJ42" t="n">
-        <v>1.27</v>
+        <v>0.18</v>
       </c>
       <c r="BL42" t="n">
-        <v>0.91</v>
+        <v>-0.18</v>
       </c>
       <c r="BM42" t="n">
-        <v>1.27</v>
+        <v>0.18</v>
       </c>
       <c r="BN42" t="n">
-        <v>291.03</v>
+        <v>286.82</v>
       </c>
       <c r="BO42" t="n">
-        <v>1293.21</v>
+        <v>1278.2</v>
       </c>
       <c r="BP42" t="inlineStr">
         <is>
@@ -13139,16 +13513,16 @@
         <v>273.5</v>
       </c>
       <c r="BY42" t="n">
-        <v>-19</v>
+        <v>-19.9</v>
       </c>
       <c r="BZ42" t="n">
-        <v>-19</v>
+        <v>-19.9</v>
       </c>
       <c r="CA42" t="n">
-        <v>301.8</v>
+        <v>297.5</v>
       </c>
       <c r="CB42" t="n">
-        <v>1997.3</v>
+        <v>1974.7</v>
       </c>
       <c r="CC42" t="inlineStr">
         <is>
@@ -13156,7 +13530,7 @@
         </is>
       </c>
       <c r="CE42" t="n">
-        <v>0.91</v>
+        <v>-0.18</v>
       </c>
       <c r="CF42" t="n">
         <v>8.6</v>
@@ -13210,16 +13584,16 @@
         <v>5427</v>
       </c>
       <c r="DA42" t="n">
-        <v>64.59999999999999</v>
+        <v>62.9</v>
       </c>
       <c r="DB42" t="n">
-        <v>-5</v>
+        <v>-5.9</v>
       </c>
       <c r="DC42" t="n">
-        <v>-2.1</v>
+        <v>-3.1</v>
       </c>
       <c r="DD42" t="n">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="43">
@@ -13263,7 +13637,7 @@
         <v>-0.1</v>
       </c>
       <c r="M43" t="n">
-        <v>15.4</v>
+        <v>27.9</v>
       </c>
       <c r="P43" t="n">
         <v>9.199999999999999</v>
@@ -13444,16 +13818,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>28.7</v>
+        <v>35.4</v>
       </c>
       <c r="M44" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N44" t="n">
-        <v>1.3</v>
+        <v>15.8</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
         <v>11.6</v>
@@ -13515,7 +13889,7 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="n">
-        <v>27.54</v>
+        <v>40.86</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -13523,10 +13897,10 @@
         </is>
       </c>
       <c r="AL44" t="n">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="AM44" t="n">
-        <v>31.2</v>
+        <v>31.7</v>
       </c>
       <c r="AN44" t="n">
         <v>18.12</v>
@@ -13559,16 +13933,16 @@
         </is>
       </c>
       <c r="AW44" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AX44" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AY44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="BB44" t="inlineStr">
         <is>
@@ -13581,22 +13955,22 @@
         </is>
       </c>
       <c r="BI44" t="n">
-        <v>-7.32</v>
+        <v>-7.01</v>
       </c>
       <c r="BJ44" t="n">
-        <v>-11.76</v>
+        <v>-11.47</v>
       </c>
       <c r="BL44" t="n">
-        <v>-3.03</v>
+        <v>-2.71</v>
       </c>
       <c r="BM44" t="n">
-        <v>-11.76</v>
+        <v>-11.47</v>
       </c>
       <c r="BN44" t="n">
-        <v>6.77</v>
+        <v>7.13</v>
       </c>
       <c r="BO44" t="n">
-        <v>289.21</v>
+        <v>290.49</v>
       </c>
       <c r="BP44" t="inlineStr">
         <is>
@@ -13628,16 +14002,16 @@
         <v>94.40000000000001</v>
       </c>
       <c r="BY44" t="n">
-        <v>-15.3</v>
+        <v>-15</v>
       </c>
       <c r="BZ44" t="n">
-        <v>-13.1</v>
+        <v>-12.9</v>
       </c>
       <c r="CA44" t="n">
-        <v>52.2</v>
+        <v>52.7</v>
       </c>
       <c r="CB44" t="n">
-        <v>3959.1</v>
+        <v>3972.4</v>
       </c>
       <c r="CC44" t="inlineStr">
         <is>
@@ -13645,7 +14019,7 @@
         </is>
       </c>
       <c r="CE44" t="n">
-        <v>-3.03</v>
+        <v>-2.71</v>
       </c>
       <c r="CF44" t="n">
         <v>389.2</v>
@@ -13702,16 +14076,16 @@
         <v>5384</v>
       </c>
       <c r="DA44" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="DB44" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="DC44" t="n">
         <v>-6.9</v>
       </c>
-      <c r="DC44" t="n">
-        <v>-7.2</v>
-      </c>
       <c r="DD44" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="45">
@@ -13755,16 +14129,16 @@
         <v>0.6</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>92.3</v>
       </c>
       <c r="M45" t="n">
-        <v>18.5</v>
+        <v>29.4</v>
       </c>
       <c r="N45" t="n">
-        <v>14.5</v>
+        <v>290.8</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="P45" t="n">
         <v>13</v>
@@ -13831,7 +14205,7 @@
         <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="AL45" t="n">
         <v>94.5</v>
@@ -13868,16 +14242,16 @@
         </is>
       </c>
       <c r="AW45" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="AX45" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AY45" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BB45" t="inlineStr">
         <is>
@@ -14061,16 +14435,16 @@
         <v>0.1</v>
       </c>
       <c r="L46" t="n">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>44.1</v>
+        <v>53.3</v>
       </c>
       <c r="N46" t="n">
-        <v>6.6</v>
+        <v>112.9</v>
       </c>
       <c r="O46" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="P46" t="n">
         <v>12.1</v>
@@ -14132,13 +14506,13 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AL46" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AM46" t="n">
-        <v>27.9</v>
+        <v>29</v>
       </c>
       <c r="AN46" t="n">
         <v>0.01</v>
@@ -14166,16 +14540,16 @@
         </is>
       </c>
       <c r="AW46" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AX46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY46" t="n">
         <v>1.2</v>
       </c>
-      <c r="AY46" t="n">
-        <v>0.9</v>
-      </c>
       <c r="AZ46" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BB46" t="inlineStr">
         <is>
@@ -14188,10 +14562,10 @@
         </is>
       </c>
       <c r="BI46" t="n">
-        <v>-2.78</v>
+        <v>-2.22</v>
       </c>
       <c r="BJ46" t="n">
-        <v>-11.62</v>
+        <v>-11.11</v>
       </c>
       <c r="BK46" t="inlineStr">
         <is>
@@ -14199,16 +14573,16 @@
         </is>
       </c>
       <c r="BL46" t="n">
-        <v>-1.69</v>
+        <v>-1.12</v>
       </c>
       <c r="BM46" t="n">
-        <v>-11.62</v>
+        <v>-11.11</v>
       </c>
       <c r="BN46" t="n">
-        <v>-32.32</v>
+        <v>-31.93</v>
       </c>
       <c r="BO46" t="n">
-        <v>143.95</v>
+        <v>145.34</v>
       </c>
       <c r="BP46" t="inlineStr">
         <is>
@@ -14240,16 +14614,16 @@
         <v>53.4</v>
       </c>
       <c r="BY46" t="n">
-        <v>-32.3</v>
+        <v>-31.9</v>
       </c>
       <c r="BZ46" t="n">
-        <v>-33.8</v>
+        <v>-33.4</v>
       </c>
       <c r="CA46" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="CB46" t="n">
-        <v>292.1</v>
+        <v>294.4</v>
       </c>
       <c r="CC46" t="inlineStr">
         <is>
@@ -14257,7 +14631,7 @@
         </is>
       </c>
       <c r="CE46" t="n">
-        <v>-1.69</v>
+        <v>-1.12</v>
       </c>
       <c r="CF46" t="n">
         <v>6.8</v>
@@ -14311,16 +14685,16 @@
         <v>1465</v>
       </c>
       <c r="DA46" t="n">
-        <v>-10.8</v>
+        <v>-10.3</v>
       </c>
       <c r="DB46" t="n">
-        <v>-4.7</v>
+        <v>-4.2</v>
       </c>
       <c r="DC46" t="n">
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="DD46" t="n">
-        <v>-15.1</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="47">
@@ -14364,13 +14738,13 @@
         <v>0.7</v>
       </c>
       <c r="L47" t="n">
-        <v>15.4</v>
+        <v>55.8</v>
       </c>
       <c r="M47" t="n">
-        <v>51.2</v>
+        <v>58.4</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="O47" t="n">
         <v>0.7</v>
@@ -14435,13 +14809,13 @@
         <v>29</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="AL47" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="AM47" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="AN47" t="n">
         <v>0.02</v>
@@ -14473,20 +14847,20 @@
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AW47" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BB47" t="inlineStr">
         <is>
@@ -14499,22 +14873,22 @@
         </is>
       </c>
       <c r="BI47" t="n">
-        <v>-2.61</v>
+        <v>-2.25</v>
       </c>
       <c r="BJ47" t="n">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="BL47" t="n">
-        <v>-0.52</v>
+        <v>-0.16</v>
       </c>
       <c r="BM47" t="n">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="BN47" t="n">
-        <v>-0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="BO47" t="n">
-        <v>223.2</v>
+        <v>224.37</v>
       </c>
       <c r="BP47" t="inlineStr">
         <is>
@@ -14546,16 +14920,16 @@
         <v>13.5</v>
       </c>
       <c r="BY47" t="n">
-        <v>-11.8</v>
+        <v>-11.5</v>
       </c>
       <c r="BZ47" t="n">
-        <v>-9.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="CA47" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="CB47" t="n">
-        <v>355.9</v>
+        <v>357.6</v>
       </c>
       <c r="CC47" t="inlineStr">
         <is>
@@ -14563,7 +14937,7 @@
         </is>
       </c>
       <c r="CE47" t="n">
-        <v>-0.52</v>
+        <v>-0.16</v>
       </c>
       <c r="CF47" t="n">
         <v>27.8</v>
@@ -14625,16 +14999,16 @@
         <v>5476</v>
       </c>
       <c r="DA47" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DB47" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="DC47" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="DD47" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="48">
@@ -14678,16 +15052,16 @@
         <v>0.5</v>
       </c>
       <c r="L48" t="n">
-        <v>52.2</v>
+        <v>55.7</v>
       </c>
       <c r="M48" t="n">
-        <v>19.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8</v>
+        <v>14.7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="P48" t="n">
         <v>8.800000000000001</v>
@@ -14749,7 +15123,7 @@
         <v>10</v>
       </c>
       <c r="AJ48" t="n">
-        <v>8.42</v>
+        <v>12.58</v>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
@@ -14793,16 +15167,16 @@
         </is>
       </c>
       <c r="AW48" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AY48" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="BB48" t="inlineStr">
         <is>
@@ -14989,13 +15363,13 @@
         <v>1.2</v>
       </c>
       <c r="L49" t="n">
-        <v>35.6</v>
+        <v>43.1</v>
       </c>
       <c r="M49" t="n">
-        <v>36.9</v>
+        <v>45.6</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="O49" t="n">
         <v>1.1</v>
@@ -15060,7 +15434,7 @@
         <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>245.96</v>
+        <v>417.5</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -15068,10 +15442,10 @@
         </is>
       </c>
       <c r="AL49" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="AM49" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="AN49" t="n">
         <v>11.37</v>
@@ -15104,16 +15478,16 @@
         </is>
       </c>
       <c r="AW49" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="BA49" t="inlineStr">
         <is>
@@ -15136,22 +15510,22 @@
         </is>
       </c>
       <c r="BI49" t="n">
-        <v>-7.12</v>
+        <v>-6.86</v>
       </c>
       <c r="BJ49" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="BL49" t="n">
-        <v>-4.86</v>
+        <v>-4.59</v>
       </c>
       <c r="BM49" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="BN49" t="n">
-        <v>-11</v>
+        <v>-10.75</v>
       </c>
       <c r="BO49" t="n">
-        <v>243.04</v>
+        <v>244.02</v>
       </c>
       <c r="BP49" t="inlineStr">
         <is>
@@ -15183,16 +15557,16 @@
         <v>10.3</v>
       </c>
       <c r="BY49" t="n">
-        <v>-16</v>
+        <v>-15.8</v>
       </c>
       <c r="BZ49" t="n">
-        <v>-21.7</v>
+        <v>-21.5</v>
       </c>
       <c r="CA49" t="n">
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="CB49" t="n">
-        <v>814.6</v>
+        <v>817.2</v>
       </c>
       <c r="CC49" t="inlineStr">
         <is>
@@ -15200,7 +15574,7 @@
         </is>
       </c>
       <c r="CE49" t="n">
-        <v>-4.86</v>
+        <v>-4.59</v>
       </c>
       <c r="CF49" t="n">
         <v>7467.2</v>
@@ -15257,16 +15631,16 @@
         <v>2649</v>
       </c>
       <c r="DA49" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="DB49" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="DC49" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="DD49" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="50">
@@ -15310,16 +15684,16 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>53.3</v>
+        <v>51.5</v>
       </c>
       <c r="M50" t="n">
-        <v>61.1</v>
+        <v>54.5</v>
       </c>
       <c r="N50" t="n">
-        <v>2.8</v>
+        <v>9.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="P50" t="n">
         <v>14.8</v>
@@ -15381,7 +15755,7 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="n">
-        <v>50.81</v>
+        <v>74.77</v>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
@@ -15389,10 +15763,10 @@
         </is>
       </c>
       <c r="AL50" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="AM50" t="n">
-        <v>40.9</v>
+        <v>38.7</v>
       </c>
       <c r="AN50" t="n">
         <v>49</v>
@@ -15425,16 +15799,16 @@
         </is>
       </c>
       <c r="AW50" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="BB50" t="inlineStr">
         <is>
@@ -15447,22 +15821,22 @@
         </is>
       </c>
       <c r="BI50" t="n">
-        <v>-4.08</v>
+        <v>-4.52</v>
       </c>
       <c r="BJ50" t="n">
-        <v>-3.94</v>
+        <v>-4.38</v>
       </c>
       <c r="BL50" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BM50" t="n">
-        <v>-3.94</v>
+        <v>-4.38</v>
       </c>
       <c r="BN50" t="n">
-        <v>9.119999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="BO50" t="n">
-        <v>244.67</v>
+        <v>243.1</v>
       </c>
       <c r="BP50" t="inlineStr">
         <is>
@@ -15494,16 +15868,16 @@
         <v>27.2</v>
       </c>
       <c r="BY50" t="n">
-        <v>-7.6</v>
+        <v>-8</v>
       </c>
       <c r="BZ50" t="n">
-        <v>-5.6</v>
+        <v>-6</v>
       </c>
       <c r="CA50" t="n">
-        <v>32.5</v>
+        <v>31.9</v>
       </c>
       <c r="CB50" t="n">
-        <v>14948.5</v>
+        <v>14879.9</v>
       </c>
       <c r="CC50" t="inlineStr">
         <is>
@@ -15511,7 +15885,7 @@
         </is>
       </c>
       <c r="CE50" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CF50" t="n">
         <v>968.9</v>
@@ -15568,16 +15942,16 @@
         <v>4418</v>
       </c>
       <c r="DA50" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="DB50" t="n">
-        <v>-2.3</v>
+        <v>-2.8</v>
       </c>
       <c r="DC50" t="n">
-        <v>-2.7</v>
+        <v>-3.2</v>
       </c>
       <c r="DD50" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="51">
@@ -15621,16 +15995,16 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>42.1</v>
+        <v>47</v>
       </c>
       <c r="M51" t="n">
-        <v>25.2</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="N51" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="P51" t="n">
         <v>7.8</v>
@@ -15688,7 +16062,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2075.1</v>
+        <v>2926.43</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -15696,10 +16070,10 @@
         </is>
       </c>
       <c r="AL51" t="n">
-        <v>17.95</v>
+        <v>18.3</v>
       </c>
       <c r="AM51" t="n">
-        <v>71.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AN51" t="n">
         <v>5.15</v>
@@ -15714,7 +16088,7 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR51" t="n">
@@ -15732,16 +16106,16 @@
         </is>
       </c>
       <c r="AW51" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AX51" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AY51" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="BB51" t="inlineStr">
         <is>
@@ -15754,22 +16128,22 @@
         </is>
       </c>
       <c r="BI51" t="n">
-        <v>7.31</v>
+        <v>9.41</v>
       </c>
       <c r="BJ51" t="n">
-        <v>42.83</v>
+        <v>45.62</v>
       </c>
       <c r="BL51" t="n">
-        <v>-2.97</v>
+        <v>-1.08</v>
       </c>
       <c r="BM51" t="n">
-        <v>42.83</v>
+        <v>45.62</v>
       </c>
       <c r="BN51" t="n">
-        <v>120.44</v>
+        <v>124.74</v>
       </c>
       <c r="BO51" t="n">
-        <v>231.07</v>
+        <v>237.52</v>
       </c>
       <c r="BP51" t="inlineStr">
         <is>
@@ -15795,16 +16169,16 @@
         <v>8.9</v>
       </c>
       <c r="BY51" t="n">
-        <v>-7.7</v>
+        <v>-5.9</v>
       </c>
       <c r="BZ51" t="n">
-        <v>-4.8</v>
+        <v>-2.9</v>
       </c>
       <c r="CA51" t="n">
-        <v>132.5</v>
+        <v>137.1</v>
       </c>
       <c r="CB51" t="n">
-        <v>1557.4</v>
+        <v>1589.7</v>
       </c>
       <c r="CC51" t="inlineStr">
         <is>
@@ -15812,7 +16186,7 @@
         </is>
       </c>
       <c r="CE51" t="n">
-        <v>-2.97</v>
+        <v>-1.08</v>
       </c>
       <c r="CF51" t="n">
         <v>95529</v>
@@ -15869,16 +16243,16 @@
         <v>2379</v>
       </c>
       <c r="DA51" t="n">
-        <v>74</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="DB51" t="n">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="DC51" t="n">
-        <v>31.1</v>
+        <v>33.6</v>
       </c>
       <c r="DD51" t="n">
-        <v>45.3</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="52">
@@ -15922,16 +16296,16 @@
         <v>0.8</v>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>53.3</v>
       </c>
       <c r="M52" t="n">
-        <v>7.8</v>
+        <v>17.6</v>
       </c>
       <c r="N52" t="n">
-        <v>19.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O52" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="P52" t="n">
         <v>12.7</v>
@@ -15945,9 +16319,14 @@
       <c r="S52" t="n">
         <v>0</v>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(20)</t>
+          <t>Giá cắt xuống SMA(20)</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -15993,13 +16372,13 @@
         <v>85</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AL52" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM52" t="n">
-        <v>63</v>
+        <v>47.3</v>
       </c>
       <c r="AN52" t="n">
         <v>0</v>
@@ -16009,7 +16388,7 @@
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>Mua mạnh</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR52" t="n">
@@ -16023,48 +16402,63 @@
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>MACD Histogram &gt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW52" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="AY52" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
+      </c>
+      <c r="BA52" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB52" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
+      <c r="BF52" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
       <c r="BH52" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI52" t="n">
-        <v>12.34</v>
+        <v>-2.98</v>
       </c>
       <c r="BJ52" t="n">
-        <v>19.77</v>
+        <v>3.44</v>
       </c>
       <c r="BL52" t="n">
-        <v>0</v>
+        <v>-13.64</v>
       </c>
       <c r="BM52" t="n">
-        <v>19.77</v>
+        <v>3.44</v>
       </c>
       <c r="BN52" t="n">
-        <v>69.59</v>
+        <v>46.46</v>
       </c>
       <c r="BO52" t="n">
-        <v>445.91</v>
+        <v>371.47</v>
       </c>
       <c r="BP52" t="inlineStr">
         <is>
@@ -16096,16 +16490,16 @@
         <v>1359.4</v>
       </c>
       <c r="BY52" t="n">
-        <v>-28.8</v>
+        <v>-38.5</v>
       </c>
       <c r="BZ52" t="n">
-        <v>-32.1</v>
+        <v>-41.3</v>
       </c>
       <c r="CA52" t="n">
-        <v>68.2</v>
+        <v>45.2</v>
       </c>
       <c r="CB52" t="n">
-        <v>593.5</v>
+        <v>498.9</v>
       </c>
       <c r="CC52" t="inlineStr">
         <is>
@@ -16113,7 +16507,7 @@
         </is>
       </c>
       <c r="CE52" t="n">
-        <v>0</v>
+        <v>-13.64</v>
       </c>
       <c r="CF52" t="n">
         <v>2.5</v>
@@ -16170,16 +16564,16 @@
         <v>1736</v>
       </c>
       <c r="DA52" t="n">
-        <v>17.4</v>
+        <v>1.5</v>
       </c>
       <c r="DB52" t="n">
-        <v>9.1</v>
+        <v>-5.1</v>
       </c>
       <c r="DC52" t="n">
-        <v>17</v>
+        <v>1.3</v>
       </c>
       <c r="DD52" t="n">
-        <v>19.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="53">
@@ -16223,7 +16617,7 @@
         <v>0.3</v>
       </c>
       <c r="M53" t="n">
-        <v>61.9</v>
+        <v>55.7</v>
       </c>
       <c r="P53" t="n">
         <v>9.300000000000001</v>
@@ -16576,16 +16970,16 @@
         <v>0.7</v>
       </c>
       <c r="L55" t="n">
-        <v>48.4</v>
+        <v>52.8</v>
       </c>
       <c r="M55" t="n">
-        <v>36.8</v>
+        <v>33.3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P55" t="n">
         <v>7.2</v>
@@ -16647,7 +17041,7 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
@@ -16686,16 +17080,16 @@
         </is>
       </c>
       <c r="AW55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AX55" t="n">
         <v>0.6</v>
       </c>
-      <c r="AX55" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AY55" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BA55" t="inlineStr">
         <is>
@@ -16884,16 +17278,16 @@
         <v>0.5</v>
       </c>
       <c r="L56" t="n">
-        <v>86.7</v>
+        <v>48.1</v>
       </c>
       <c r="M56" t="n">
-        <v>32.6</v>
+        <v>30.1</v>
       </c>
       <c r="N56" t="n">
-        <v>31</v>
+        <v>62.1</v>
       </c>
       <c r="O56" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="P56" t="n">
         <v>9.1</v>
@@ -16949,13 +17343,13 @@
         <v>60</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="AL56" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
       <c r="AM56" t="n">
-        <v>51.8</v>
+        <v>55.2</v>
       </c>
       <c r="AN56" t="n">
         <v>35.25</v>
@@ -16979,25 +17373,20 @@
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AW56" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AX56" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AY56" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BA56" t="inlineStr">
-        <is>
-          <t>Giá cắt xuống SMA(10)</t>
-        </is>
+        <v>3.1</v>
       </c>
       <c r="BB56" t="inlineStr">
         <is>
@@ -17010,19 +17399,19 @@
         </is>
       </c>
       <c r="BI56" t="n">
-        <v>-2.63</v>
+        <v>0</v>
       </c>
       <c r="BJ56" t="n">
-        <v>7.04</v>
+        <v>9.93</v>
       </c>
       <c r="BL56" t="n">
-        <v>-2.18</v>
+        <v>0.46</v>
       </c>
       <c r="BM56" t="n">
-        <v>7.04</v>
+        <v>9.93</v>
       </c>
       <c r="BN56" t="n">
-        <v>7.37</v>
+        <v>10.28</v>
       </c>
       <c r="BP56" t="inlineStr">
         <is>
@@ -17054,16 +17443,16 @@
         <v>28.1</v>
       </c>
       <c r="BY56" t="n">
-        <v>-23.4</v>
+        <v>-21.3</v>
       </c>
       <c r="BZ56" t="n">
-        <v>-23.4</v>
+        <v>-21.3</v>
       </c>
       <c r="CA56" t="n">
-        <v>31.5</v>
+        <v>35.1</v>
       </c>
       <c r="CB56" t="n">
-        <v>201.6</v>
+        <v>209.8</v>
       </c>
       <c r="CC56" t="inlineStr">
         <is>
@@ -17071,7 +17460,7 @@
         </is>
       </c>
       <c r="CE56" t="n">
-        <v>-2.18</v>
+        <v>0.46</v>
       </c>
       <c r="CF56" t="n">
         <v>1.6</v>
@@ -17122,16 +17511,16 @@
         <v>6249</v>
       </c>
       <c r="DA56" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="DB56" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="DC56" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="DD56" t="n">
-        <v>5.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="57">
@@ -17175,7 +17564,7 @@
         <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="N57" t="n">
         <v>3.9</v>
@@ -17472,16 +17861,16 @@
         <v>0.9</v>
       </c>
       <c r="L58" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="M58" t="n">
-        <v>31.4</v>
+        <v>41.1</v>
       </c>
       <c r="N58" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="O58" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="P58" t="n">
         <v>9.199999999999999</v>
@@ -17543,7 +17932,7 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="n">
-        <v>3.61</v>
+        <v>4.91</v>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
@@ -17551,10 +17940,10 @@
         </is>
       </c>
       <c r="AL58" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="AM58" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="AN58" t="n">
         <v>1.48</v>
@@ -17578,20 +17967,20 @@
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX58" t="n">
         <v>1.9</v>
       </c>
-      <c r="AX58" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AY58" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="BB58" t="inlineStr">
         <is>
@@ -17604,22 +17993,22 @@
         </is>
       </c>
       <c r="BI58" t="n">
-        <v>-2.05</v>
+        <v>-2.23</v>
       </c>
       <c r="BJ58" t="n">
-        <v>-9.619999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="BL58" t="n">
-        <v>-0.57</v>
+        <v>-0.76</v>
       </c>
       <c r="BM58" t="n">
-        <v>-9.619999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="BN58" t="n">
-        <v>55.25</v>
+        <v>54.95</v>
       </c>
       <c r="BO58" t="n">
-        <v>196.33</v>
+        <v>195.76</v>
       </c>
       <c r="BP58" t="inlineStr">
         <is>
@@ -17651,16 +18040,16 @@
         <v>76.59999999999999</v>
       </c>
       <c r="BY58" t="n">
-        <v>-11.7</v>
+        <v>-11.9</v>
       </c>
       <c r="BZ58" t="n">
-        <v>-10.1</v>
+        <v>-10.3</v>
       </c>
       <c r="CA58" t="n">
-        <v>61.3</v>
+        <v>61</v>
       </c>
       <c r="CB58" t="n">
-        <v>9406.799999999999</v>
+        <v>9388.700000000001</v>
       </c>
       <c r="CC58" t="inlineStr">
         <is>
@@ -17668,7 +18057,7 @@
         </is>
       </c>
       <c r="CE58" t="n">
-        <v>-0.57</v>
+        <v>-0.76</v>
       </c>
       <c r="CF58" t="n">
         <v>37</v>
@@ -17725,16 +18114,16 @@
         <v>5720</v>
       </c>
       <c r="DA58" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="DB58" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="DC58" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="DD58" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="59">
@@ -17778,16 +18167,16 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>37.2</v>
+        <v>35.6</v>
       </c>
       <c r="M59" t="n">
-        <v>45.5</v>
+        <v>28.7</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P59" t="n">
         <v>7.4</v>
@@ -17849,7 +18238,7 @@
         <v>6</v>
       </c>
       <c r="AJ59" t="n">
-        <v>33.24</v>
+        <v>61.41</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -17857,10 +18246,10 @@
         </is>
       </c>
       <c r="AL59" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="AM59" t="n">
-        <v>43.5</v>
+        <v>40.5</v>
       </c>
       <c r="AN59" t="n">
         <v>16.7</v>
@@ -17893,16 +18282,16 @@
         </is>
       </c>
       <c r="AW59" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AX59" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AY59" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="BB59" t="inlineStr">
         <is>
@@ -17915,22 +18304,22 @@
         </is>
       </c>
       <c r="BI59" t="n">
-        <v>-7.27</v>
+        <v>-9.09</v>
       </c>
       <c r="BJ59" t="n">
-        <v>-3.32</v>
+        <v>-5.21</v>
       </c>
       <c r="BL59" t="n">
-        <v>-3.32</v>
+        <v>-5.21</v>
       </c>
       <c r="BM59" t="n">
-        <v>-3.32</v>
+        <v>-5.21</v>
       </c>
       <c r="BN59" t="n">
-        <v>-21.04</v>
+        <v>-22.59</v>
       </c>
       <c r="BO59" t="n">
-        <v>213.22</v>
+        <v>207.08</v>
       </c>
       <c r="BP59" t="inlineStr">
         <is>
@@ -17962,16 +18351,16 @@
         <v>3.4</v>
       </c>
       <c r="BY59" t="n">
-        <v>-24</v>
+        <v>-25.5</v>
       </c>
       <c r="BZ59" t="n">
-        <v>-25.5</v>
+        <v>-27</v>
       </c>
       <c r="CA59" t="n">
-        <v>61.5</v>
+        <v>58.3</v>
       </c>
       <c r="CB59" t="n">
-        <v>3050.5</v>
+        <v>2988.7</v>
       </c>
       <c r="CC59" t="inlineStr">
         <is>
@@ -17979,7 +18368,7 @@
         </is>
       </c>
       <c r="CE59" t="n">
-        <v>-3.32</v>
+        <v>-5.21</v>
       </c>
       <c r="CF59" t="n">
         <v>1634.1</v>
@@ -18041,16 +18430,16 @@
         <v>2841</v>
       </c>
       <c r="DA59" t="n">
-        <v>-2.6</v>
+        <v>-4.5</v>
       </c>
       <c r="DB59" t="n">
-        <v>-3.9</v>
+        <v>-5.7</v>
       </c>
       <c r="DC59" t="n">
-        <v>-1.4</v>
+        <v>-3.3</v>
       </c>
       <c r="DD59" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="60">
@@ -18097,7 +18486,7 @@
         <v>100</v>
       </c>
       <c r="M60" t="n">
-        <v>24.4</v>
+        <v>0.6</v>
       </c>
       <c r="N60" t="n">
         <v>14.7</v>
@@ -18400,16 +18789,16 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>51.2</v>
+        <v>61.5</v>
       </c>
       <c r="M61" t="n">
-        <v>75.90000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="N61" t="n">
-        <v>3.8</v>
+        <v>35.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="P61" t="n">
         <v>6.8</v>
@@ -18471,7 +18860,7 @@
         <v>92</v>
       </c>
       <c r="AJ61" t="n">
-        <v>11.79</v>
+        <v>29.58</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
@@ -18479,10 +18868,10 @@
         </is>
       </c>
       <c r="AL61" t="n">
-        <v>69.3</v>
+        <v>72.2</v>
       </c>
       <c r="AM61" t="n">
-        <v>59.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="AN61" t="n">
         <v>2.91</v>
@@ -18515,16 +18904,16 @@
         </is>
       </c>
       <c r="AW61" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="AY61" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="BB61" t="inlineStr">
         <is>
@@ -18537,22 +18926,22 @@
         </is>
       </c>
       <c r="BI61" t="n">
-        <v>2.36</v>
+        <v>6.65</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1.47</v>
+        <v>5.71</v>
       </c>
       <c r="BL61" t="n">
-        <v>-0.57</v>
+        <v>3.59</v>
       </c>
       <c r="BM61" t="n">
-        <v>1.47</v>
+        <v>5.71</v>
       </c>
       <c r="BN61" t="n">
-        <v>91.16</v>
+        <v>99.16</v>
       </c>
       <c r="BO61" t="n">
-        <v>156</v>
+        <v>166.71</v>
       </c>
       <c r="BP61" t="inlineStr">
         <is>
@@ -18584,16 +18973,16 @@
         <v>357.7</v>
       </c>
       <c r="BY61" t="n">
-        <v>-18.7</v>
+        <v>-15.3</v>
       </c>
       <c r="BZ61" t="n">
-        <v>-17.7</v>
+        <v>-14.2</v>
       </c>
       <c r="CA61" t="n">
-        <v>93.40000000000001</v>
+        <v>101.5</v>
       </c>
       <c r="CB61" t="n">
-        <v>923</v>
+        <v>965.8</v>
       </c>
       <c r="CC61" t="inlineStr">
         <is>
@@ -18601,7 +18990,7 @@
         </is>
       </c>
       <c r="CE61" t="n">
-        <v>-0.57</v>
+        <v>3.59</v>
       </c>
       <c r="CF61" t="n">
         <v>210</v>
@@ -18658,16 +19047,16 @@
         <v>10244</v>
       </c>
       <c r="DA61" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="DB61" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="DD61" t="n">
         <v>10.6</v>
-      </c>
-      <c r="DB61" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="DC61" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="DD61" t="n">
-        <v>6.2</v>
       </c>
     </row>
     <row r="62">
@@ -18895,16 +19284,16 @@
         <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>43.6</v>
+        <v>40.1</v>
       </c>
       <c r="M63" t="n">
-        <v>54.5</v>
+        <v>53.2</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>9.6</v>
@@ -18966,13 +19355,13 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2.85</v>
+        <v>4.7</v>
       </c>
       <c r="AL63" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="AM63" t="n">
-        <v>34.8</v>
+        <v>32.8</v>
       </c>
       <c r="AN63" t="n">
         <v>0.29</v>
@@ -19000,16 +19389,16 @@
         </is>
       </c>
       <c r="AW63" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="BB63" t="inlineStr">
         <is>
@@ -19022,22 +19411,22 @@
         </is>
       </c>
       <c r="BI63" t="n">
-        <v>-7.47</v>
+        <v>-8.56</v>
       </c>
       <c r="BJ63" t="n">
-        <v>-12.79</v>
+        <v>-13.82</v>
       </c>
       <c r="BL63" t="n">
-        <v>-2.52</v>
+        <v>-3.67</v>
       </c>
       <c r="BM63" t="n">
-        <v>-12.79</v>
+        <v>-13.82</v>
       </c>
       <c r="BN63" t="n">
-        <v>10.33</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="BO63" t="n">
-        <v>292.27</v>
+        <v>287.63</v>
       </c>
       <c r="BP63" t="inlineStr">
         <is>
@@ -19069,16 +19458,16 @@
         <v>30.8</v>
       </c>
       <c r="BY63" t="n">
-        <v>-33.6</v>
+        <v>-34.4</v>
       </c>
       <c r="BZ63" t="n">
-        <v>-32.2</v>
+        <v>-33</v>
       </c>
       <c r="CA63" t="n">
-        <v>45.8</v>
+        <v>44.1</v>
       </c>
       <c r="CB63" t="n">
-        <v>736.2</v>
+        <v>726.3</v>
       </c>
       <c r="CC63" t="inlineStr">
         <is>
@@ -19086,13 +19475,13 @@
         </is>
       </c>
       <c r="CE63" t="n">
-        <v>-2.52</v>
+        <v>-3.67</v>
       </c>
       <c r="CF63" t="n">
-        <v>212.1</v>
+        <v>212.3</v>
       </c>
       <c r="CG63" t="n">
-        <v>213.2</v>
+        <v>213.3</v>
       </c>
       <c r="CH63" t="n">
         <v>245.2</v>
@@ -19140,16 +19529,16 @@
         <v>1799</v>
       </c>
       <c r="DA63" t="n">
-        <v>-7.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="DB63" t="n">
-        <v>-5.5</v>
+        <v>-6.5</v>
       </c>
       <c r="DC63" t="n">
-        <v>-5.7</v>
+        <v>-6.8</v>
       </c>
       <c r="DD63" t="n">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="64">
@@ -19193,16 +19582,16 @@
         <v>0.7</v>
       </c>
       <c r="L64" t="n">
-        <v>31.6</v>
+        <v>30.5</v>
       </c>
       <c r="M64" t="n">
-        <v>44.6</v>
+        <v>46.5</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="O64" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="P64" t="n">
         <v>5.4</v>
@@ -19264,13 +19653,13 @@
         <v>70</v>
       </c>
       <c r="AJ64" t="n">
-        <v>2.23</v>
+        <v>3.19</v>
       </c>
       <c r="AL64" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="AM64" t="n">
-        <v>40.3</v>
+        <v>42.2</v>
       </c>
       <c r="AN64" t="n">
         <v>1</v>
@@ -19298,16 +19687,16 @@
         </is>
       </c>
       <c r="AW64" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="AX64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY64" t="n">
         <v>1.5</v>
       </c>
-      <c r="AY64" t="n">
-        <v>1</v>
-      </c>
       <c r="AZ64" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="BB64" t="inlineStr">
         <is>
@@ -19320,22 +19709,22 @@
         </is>
       </c>
       <c r="BI64" t="n">
-        <v>-3.98</v>
+        <v>-3.19</v>
       </c>
       <c r="BJ64" t="n">
-        <v>-0.92</v>
+        <v>-0.1</v>
       </c>
       <c r="BL64" t="n">
-        <v>-2.25</v>
+        <v>-1.44</v>
       </c>
       <c r="BM64" t="n">
-        <v>-0.92</v>
+        <v>-0.1</v>
       </c>
       <c r="BN64" t="n">
-        <v>7.91</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BO64" t="n">
-        <v>148.29</v>
+        <v>150.33</v>
       </c>
       <c r="BP64" t="inlineStr">
         <is>
@@ -19367,24 +19756,24 @@
         <v>111.3</v>
       </c>
       <c r="BY64" t="n">
-        <v>-18.2</v>
+        <v>-17.5</v>
       </c>
       <c r="BZ64" t="n">
-        <v>-15.3</v>
+        <v>-14.6</v>
       </c>
       <c r="CA64" t="n">
-        <v>27.2</v>
+        <v>28.3</v>
       </c>
       <c r="CB64" t="n">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="CC64" t="inlineStr">
         <is>
-          <t>Giá nằm dưới SMA(100)</t>
+          <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
       <c r="CE64" t="n">
-        <v>-2.25</v>
+        <v>-1.44</v>
       </c>
       <c r="CF64" t="n">
         <v>45.9</v>
@@ -19440,16 +19829,16 @@
         <v>4636</v>
       </c>
       <c r="DA64" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="DB64" t="n">
-        <v>-3.8</v>
+        <v>-3</v>
       </c>
       <c r="DC64" t="n">
-        <v>-3.5</v>
+        <v>-2.7</v>
       </c>
       <c r="DD64" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -19493,16 +19882,16 @@
         <v>0.8</v>
       </c>
       <c r="L65" t="n">
-        <v>22.8</v>
+        <v>25.5</v>
       </c>
       <c r="M65" t="n">
-        <v>79</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="N65" t="n">
-        <v>3.4</v>
+        <v>35.4</v>
       </c>
       <c r="O65" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
         <v>5.3</v>
@@ -19518,7 +19907,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(20)</t>
+          <t>Giá cắt xuống SMA(20)</t>
         </is>
       </c>
       <c r="V65" t="n">
@@ -19564,7 +19953,7 @@
         <v>53</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
@@ -19572,10 +19961,10 @@
         </is>
       </c>
       <c r="AL65" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AM65" t="n">
-        <v>62.9</v>
+        <v>60.7</v>
       </c>
       <c r="AN65" t="n">
         <v>37.16</v>
@@ -19585,7 +19974,7 @@
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AR65" t="n">
@@ -19606,44 +19995,54 @@
         </is>
       </c>
       <c r="AW65" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AY65" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="BA65" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB65" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BF65" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
       <c r="BH65" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI65" t="n">
-        <v>-1.14</v>
+        <v>-1.71</v>
       </c>
       <c r="BJ65" t="n">
-        <v>17.69</v>
+        <v>17.01</v>
       </c>
       <c r="BL65" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="BM65" t="n">
-        <v>17.69</v>
+        <v>17.01</v>
       </c>
       <c r="BN65" t="n">
-        <v>41.87</v>
+        <v>41.05</v>
       </c>
       <c r="BO65" t="n">
-        <v>72.97</v>
+        <v>71.97</v>
       </c>
       <c r="BP65" t="inlineStr">
         <is>
@@ -19675,16 +20074,16 @@
         <v>38.7</v>
       </c>
       <c r="BY65" t="n">
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
       <c r="BZ65" t="n">
-        <v>-24.5</v>
+        <v>-24.9</v>
       </c>
       <c r="CA65" t="n">
-        <v>50.6</v>
+        <v>49.8</v>
       </c>
       <c r="CB65" t="n">
-        <v>1704.6</v>
+        <v>1694.2</v>
       </c>
       <c r="CC65" t="inlineStr">
         <is>
@@ -19692,7 +20091,7 @@
         </is>
       </c>
       <c r="CE65" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="CF65" t="n">
         <v>13.8</v>
@@ -19746,16 +20145,16 @@
         <v>3241</v>
       </c>
       <c r="DA65" t="n">
-        <v>19.9</v>
+        <v>19.2</v>
       </c>
       <c r="DB65" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DC65" t="n">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="DD65" t="n">
-        <v>17.4</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="66">
@@ -19799,16 +20198,16 @@
         <v>1.1</v>
       </c>
       <c r="L66" t="n">
-        <v>33.9</v>
+        <v>38.6</v>
       </c>
       <c r="M66" t="n">
-        <v>68.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O66" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P66" t="n">
         <v>11.3</v>
@@ -19861,7 +20260,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>33.15</v>
+        <v>43.26</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -19900,16 +20299,16 @@
         </is>
       </c>
       <c r="AW66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AX66" t="n">
         <v>0.8</v>
       </c>
-      <c r="AX66" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AY66" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AZ66" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="BB66" t="inlineStr">
         <is>
@@ -20081,16 +20480,16 @@
         <v>0.5</v>
       </c>
       <c r="L67" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="M67" t="n">
-        <v>44.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="N67" t="n">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P67" t="n">
         <v>6.4</v>
@@ -20152,13 +20551,13 @@
         <v>86</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AL67" t="n">
-        <v>18.65</v>
+        <v>18.6</v>
       </c>
       <c r="AM67" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="AN67" t="n">
         <v>0.02</v>
@@ -20186,16 +20585,16 @@
         </is>
       </c>
       <c r="AW67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AX67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AY67" t="n">
         <v>0.1</v>
       </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BB67" t="inlineStr">
         <is>
@@ -20208,22 +20607,22 @@
         </is>
       </c>
       <c r="BI67" t="n">
-        <v>-6.52</v>
+        <v>-6.77</v>
       </c>
       <c r="BJ67" t="n">
-        <v>-6.28</v>
+        <v>-6.53</v>
       </c>
       <c r="BL67" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="BM67" t="n">
-        <v>-6.28</v>
+        <v>-6.53</v>
       </c>
       <c r="BN67" t="n">
-        <v>40.18</v>
+        <v>39.81</v>
       </c>
       <c r="BO67" t="n">
-        <v>129.18</v>
+        <v>128.57</v>
       </c>
       <c r="BP67" t="inlineStr">
         <is>
@@ -20255,16 +20654,16 @@
         <v>123.4</v>
       </c>
       <c r="BY67" t="n">
-        <v>-13.3</v>
+        <v>-13.5</v>
       </c>
       <c r="BZ67" t="n">
-        <v>-11.2</v>
+        <v>-11.4</v>
       </c>
       <c r="CA67" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="CB67" t="n">
-        <v>530.7</v>
+        <v>529</v>
       </c>
       <c r="CC67" t="inlineStr">
         <is>
@@ -20272,7 +20671,7 @@
         </is>
       </c>
       <c r="CE67" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="CF67" t="n">
         <v>5</v>
@@ -20326,16 +20725,16 @@
         <v>2920</v>
       </c>
       <c r="DA67" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="DB67" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="DC67" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="DD67" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="68">
@@ -20379,16 +20778,16 @@
         <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>24.4</v>
+        <v>38.3</v>
       </c>
       <c r="M68" t="n">
-        <v>32.2</v>
+        <v>39.1</v>
       </c>
       <c r="N68" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="O68" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="P68" t="n">
         <v>10.6</v>
@@ -20450,13 +20849,13 @@
         <v>7</v>
       </c>
       <c r="AJ68" t="n">
-        <v>27.95</v>
+        <v>43.18</v>
       </c>
       <c r="AL68" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="AM68" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AN68" t="n">
         <v>14.05</v>
@@ -20471,7 +20870,7 @@
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>Bán mạnh</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR68" t="n">
@@ -20489,20 +20888,20 @@
         </is>
       </c>
       <c r="AW68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX68" t="n">
         <v>1.5</v>
       </c>
-      <c r="AX68" t="n">
-        <v>1</v>
-      </c>
       <c r="AY68" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AZ68" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="BB68" t="inlineStr">
         <is>
-          <t>Giá cắt xuống SMA(50)</t>
+          <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
       <c r="BH68" t="inlineStr">
@@ -20511,22 +20910,22 @@
         </is>
       </c>
       <c r="BI68" t="n">
-        <v>-6.53</v>
+        <v>-5.01</v>
       </c>
       <c r="BJ68" t="n">
-        <v>0.24</v>
+        <v>1.87</v>
       </c>
       <c r="BL68" t="n">
-        <v>-4.11</v>
+        <v>-2.55</v>
       </c>
       <c r="BM68" t="n">
-        <v>0.24</v>
+        <v>1.87</v>
       </c>
       <c r="BN68" t="n">
-        <v>-19.66</v>
+        <v>-18.35</v>
       </c>
       <c r="BO68" t="n">
-        <v>96.73</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="BP68" t="inlineStr">
         <is>
@@ -20558,16 +20957,16 @@
         <v>372.1</v>
       </c>
       <c r="BY68" t="n">
-        <v>-21.7</v>
+        <v>-20.4</v>
       </c>
       <c r="BZ68" t="n">
-        <v>-54.9</v>
+        <v>-54.1</v>
       </c>
       <c r="CA68" t="n">
-        <v>70.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="CB68" t="n">
-        <v>139.4</v>
+        <v>143.3</v>
       </c>
       <c r="CC68" t="inlineStr">
         <is>
@@ -20575,19 +20974,19 @@
         </is>
       </c>
       <c r="CE68" t="n">
-        <v>-4.11</v>
+        <v>-2.55</v>
       </c>
       <c r="CF68" t="n">
-        <v>1496.7</v>
+        <v>1497</v>
       </c>
       <c r="CG68" t="n">
-        <v>2329</v>
+        <v>2329.1</v>
       </c>
       <c r="CH68" t="n">
-        <v>2571.3</v>
+        <v>2571.4</v>
       </c>
       <c r="CI68" t="n">
-        <v>2102.1</v>
+        <v>2102.2</v>
       </c>
       <c r="CJ68" t="n">
         <v>70.7</v>
@@ -20637,16 +21036,16 @@
         <v>1206</v>
       </c>
       <c r="DA68" t="n">
-        <v>-3.1</v>
+        <v>-1.5</v>
       </c>
       <c r="DB68" t="n">
-        <v>-4.2</v>
+        <v>-2.8</v>
       </c>
       <c r="DC68" t="n">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="DD68" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -20690,16 +21089,16 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>39.5</v>
+        <v>45.2</v>
       </c>
       <c r="M69" t="n">
-        <v>87.90000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="N69" t="n">
-        <v>0.3</v>
+        <v>24.9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P69" t="n">
         <v>15.6</v>
@@ -20752,7 +21151,7 @@
         <v>91</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1664.78</v>
+        <v>2628.35</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -20760,10 +21159,10 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>34.05</v>
+        <v>36.55</v>
       </c>
       <c r="AM69" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="AN69" t="n">
         <v>25.84</v>
@@ -20796,44 +21195,49 @@
         </is>
       </c>
       <c r="AW69" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AX69" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="AY69" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AZ69" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="BB69" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC69" t="inlineStr">
+        <is>
+          <t>Tín hiệu vượt đỉnh</t>
+        </is>
+      </c>
       <c r="BH69" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>15.03</v>
+        <v>23.48</v>
       </c>
       <c r="BJ69" t="n">
-        <v>59.48</v>
+        <v>71.19</v>
       </c>
       <c r="BL69" t="n">
-        <v>-0.44</v>
+        <v>6.87</v>
       </c>
       <c r="BM69" t="n">
-        <v>59.48</v>
+        <v>71.19</v>
       </c>
       <c r="BN69" t="n">
-        <v>89.58</v>
+        <v>103.5</v>
       </c>
       <c r="BO69" t="n">
-        <v>387.52</v>
+        <v>423.32</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -20859,16 +21263,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>-0.4</v>
+        <v>6.9</v>
       </c>
       <c r="BZ69" t="n">
-        <v>-0.4</v>
+        <v>6.9</v>
       </c>
       <c r="CA69" t="n">
-        <v>130.9</v>
+        <v>147.8</v>
       </c>
       <c r="CB69" t="n">
-        <v>515.5</v>
+        <v>560.7</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -20881,7 +21285,7 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>-0.44</v>
+        <v>6.87</v>
       </c>
       <c r="CF69" t="n">
         <v>40520.2</v>
@@ -20938,16 +21342,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>75.7</v>
+        <v>88.5</v>
       </c>
       <c r="DB69" t="n">
-        <v>21.2</v>
+        <v>29.6</v>
       </c>
       <c r="DC69" t="n">
-        <v>48.2</v>
+        <v>58.8</v>
       </c>
       <c r="DD69" t="n">
-        <v>69</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="70">
@@ -20991,16 +21395,16 @@
         <v>1.2</v>
       </c>
       <c r="L70" t="n">
-        <v>40.9</v>
+        <v>45.7</v>
       </c>
       <c r="M70" t="n">
-        <v>75.09999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="O70" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P70" t="n">
         <v>6</v>
@@ -21062,7 +21466,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>6.01</v>
+        <v>9.43</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -21070,10 +21474,10 @@
         </is>
       </c>
       <c r="AL70" t="n">
-        <v>9.1</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AM70" t="n">
-        <v>50.6</v>
+        <v>51.2</v>
       </c>
       <c r="AN70" t="n">
         <v>0.66</v>
@@ -21101,17 +21505,17 @@
         </is>
       </c>
       <c r="AW70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AZ70" t="n">
         <v>0.9</v>
       </c>
-      <c r="AX70" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>0.6</v>
-      </c>
       <c r="BB70" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
@@ -21128,22 +21532,22 @@
         </is>
       </c>
       <c r="BI70" t="n">
-        <v>-6.19</v>
+        <v>-5.88</v>
       </c>
       <c r="BJ70" t="n">
-        <v>12.76</v>
+        <v>13.14</v>
       </c>
       <c r="BL70" t="n">
-        <v>-3.29</v>
+        <v>-2.98</v>
       </c>
       <c r="BM70" t="n">
-        <v>12.76</v>
+        <v>13.14</v>
       </c>
       <c r="BN70" t="n">
-        <v>-28.63</v>
+        <v>-28.39</v>
       </c>
       <c r="BO70" t="n">
-        <v>33.76</v>
+        <v>34.2</v>
       </c>
       <c r="BP70" t="inlineStr">
         <is>
@@ -21175,16 +21579,16 @@
         <v>958.9</v>
       </c>
       <c r="BY70" t="n">
-        <v>-35.9</v>
+        <v>-35.7</v>
       </c>
       <c r="BZ70" t="n">
-        <v>-82.5</v>
+        <v>-82.40000000000001</v>
       </c>
       <c r="CA70" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="CB70" t="n">
-        <v>153</v>
+        <v>153.9</v>
       </c>
       <c r="CC70" t="inlineStr">
         <is>
@@ -21192,7 +21596,7 @@
         </is>
       </c>
       <c r="CE70" t="n">
-        <v>-3.29</v>
+        <v>-2.98</v>
       </c>
       <c r="CF70" t="n">
         <v>734.3</v>
@@ -21243,16 +21647,16 @@
         <v>1558</v>
       </c>
       <c r="DA70" t="n">
-        <v>-16.8</v>
+        <v>-16.5</v>
       </c>
       <c r="DB70" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="DC70" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="DD70" t="n">
-        <v>-7</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="71">
@@ -21296,16 +21700,16 @@
         <v>0.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.5</v>
+        <v>20.8</v>
       </c>
       <c r="M71" t="n">
-        <v>61.5</v>
+        <v>7.6</v>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>39.7</v>
       </c>
       <c r="O71" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
         <v>13.6</v>
@@ -21372,7 +21776,7 @@
         <v>31</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
@@ -21380,10 +21784,10 @@
         </is>
       </c>
       <c r="AL71" t="n">
-        <v>46.9</v>
+        <v>46.6</v>
       </c>
       <c r="AM71" t="n">
-        <v>45</v>
+        <v>41.8</v>
       </c>
       <c r="AN71" t="n">
         <v>11.06</v>
@@ -21415,20 +21819,25 @@
       </c>
       <c r="AV71" t="inlineStr">
         <is>
-          <t>MACD Histogram &gt; 0 và tăng dần</t>
+          <t>MACD Histogram &gt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW71" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AY71" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="BA71" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
       </c>
       <c r="BB71" t="inlineStr">
         <is>
@@ -21441,22 +21850,22 @@
         </is>
       </c>
       <c r="BI71" t="n">
-        <v>0.21</v>
+        <v>-0.43</v>
       </c>
       <c r="BJ71" t="n">
-        <v>-1.64</v>
+        <v>-2.27</v>
       </c>
       <c r="BL71" t="n">
-        <v>-0.1</v>
+        <v>-0.74</v>
       </c>
       <c r="BM71" t="n">
-        <v>-1.64</v>
+        <v>-2.27</v>
       </c>
       <c r="BN71" t="n">
-        <v>-2.21</v>
+        <v>-2.84</v>
       </c>
       <c r="BO71" t="n">
-        <v>269.18</v>
+        <v>266.82</v>
       </c>
       <c r="BP71" t="inlineStr">
         <is>
@@ -21488,16 +21897,16 @@
         <v>15077.8</v>
       </c>
       <c r="BY71" t="n">
-        <v>-11.8</v>
+        <v>-12.4</v>
       </c>
       <c r="BZ71" t="n">
-        <v>-10.4</v>
+        <v>-10.9</v>
       </c>
       <c r="CA71" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="CB71" t="n">
-        <v>2066.5</v>
+        <v>2052.7</v>
       </c>
       <c r="CC71" t="inlineStr">
         <is>
@@ -21505,7 +21914,7 @@
         </is>
       </c>
       <c r="CE71" t="n">
-        <v>-0.1</v>
+        <v>-0.74</v>
       </c>
       <c r="CF71" t="n">
         <v>4.9</v>
@@ -21562,16 +21971,16 @@
         <v>3449</v>
       </c>
       <c r="DA71" t="n">
-        <v>-4</v>
+        <v>-4.6</v>
       </c>
       <c r="DB71" t="n">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="DC71" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="DD71" t="n">
-        <v>-3.8</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="72">
@@ -21612,16 +22021,16 @@
         <v>0.2</v>
       </c>
       <c r="L72" t="n">
-        <v>33.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M72" t="n">
-        <v>18.4</v>
+        <v>29</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
       <c r="O72" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="P72" t="n">
         <v>6.1</v>
@@ -21677,13 +22086,13 @@
         <v>95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0.41</v>
+        <v>3.89</v>
       </c>
       <c r="AL72" t="n">
-        <v>35.9</v>
+        <v>36.8</v>
       </c>
       <c r="AM72" t="n">
-        <v>61.8</v>
+        <v>65.2</v>
       </c>
       <c r="AN72" t="n">
         <v>0.01</v>
@@ -21693,7 +22102,7 @@
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR72" t="n">
@@ -21711,16 +22120,16 @@
         </is>
       </c>
       <c r="AW72" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="AY72" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="BB72" t="inlineStr">
         <is>
@@ -21733,19 +22142,19 @@
         </is>
       </c>
       <c r="BI72" t="n">
-        <v>-4.12</v>
+        <v>-1.72</v>
       </c>
       <c r="BJ72" t="n">
-        <v>77.04000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="BL72" t="n">
-        <v>-1.56</v>
+        <v>0.91</v>
       </c>
       <c r="BM72" t="n">
-        <v>77.04000000000001</v>
+        <v>81.48</v>
       </c>
       <c r="BN72" t="n">
-        <v>119.09</v>
+        <v>124.58</v>
       </c>
       <c r="BP72" t="inlineStr">
         <is>
@@ -21777,16 +22186,16 @@
         <v>210</v>
       </c>
       <c r="BY72" t="n">
-        <v>-9.1</v>
+        <v>-6.8</v>
       </c>
       <c r="BZ72" t="n">
-        <v>-7.3</v>
+        <v>-5</v>
       </c>
       <c r="CA72" t="n">
-        <v>164.2</v>
+        <v>170.8</v>
       </c>
       <c r="CB72" t="n">
-        <v>164.2</v>
+        <v>170.8</v>
       </c>
       <c r="CC72" t="inlineStr">
         <is>
@@ -21794,7 +22203,7 @@
         </is>
       </c>
       <c r="CE72" t="n">
-        <v>-1.56</v>
+        <v>0.91</v>
       </c>
       <c r="CF72" t="n">
         <v>78</v>
@@ -21845,16 +22254,16 @@
         <v>6019</v>
       </c>
       <c r="DA72" t="n">
-        <v>88.3</v>
+        <v>93</v>
       </c>
       <c r="DB72" t="n">
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="DC72" t="n">
-        <v>38.8</v>
+        <v>42.2</v>
       </c>
       <c r="DD72" t="n">
-        <v>62.1</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
   </sheetData>
